--- a/word_features/季/ENG,2020-7~2020-10,主题_词矩阵.xlsx
+++ b/word_features/季/ENG,2020-7~2020-10,主题_词矩阵.xlsx
@@ -16,142 +16,178 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
   <si>
-    <t>account</t>
-  </si>
-  <si>
-    <t>africa</t>
-  </si>
-  <si>
-    <t>africas</t>
-  </si>
-  <si>
-    <t>answer</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>apps</t>
-  </si>
-  <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t>averaged</t>
-  </si>
-  <si>
-    <t>bach</t>
-  </si>
-  <si>
-    <t>beijing</t>
-  </si>
-  <si>
-    <t>board</t>
+    <t>acmecs</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>actively</t>
+  </si>
+  <si>
+    <t>advancing</t>
+  </si>
+  <si>
+    <t>agenda</t>
+  </si>
+  <si>
+    <t>agricultural</t>
+  </si>
+  <si>
+    <t>agriculture</t>
+  </si>
+  <si>
+    <t>agroproduct</t>
+  </si>
+  <si>
+    <t>appreciating</t>
+  </si>
+  <si>
+    <t>asean</t>
+  </si>
+  <si>
+    <t>basin</t>
+  </si>
+  <si>
+    <t>belt</t>
+  </si>
+  <si>
+    <t>benefit</t>
+  </si>
+  <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>biodiversity</t>
+  </si>
+  <si>
+    <t>brazil</t>
+  </si>
+  <si>
+    <t>build</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>business</t>
   </si>
   <si>
-    <t>candidate</t>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>center</t>
+  </si>
+  <si>
+    <t>challenges</t>
+  </si>
+  <si>
+    <t>charter</t>
   </si>
   <si>
     <t>china</t>
   </si>
   <si>
+    <t>chinalaos</t>
+  </si>
+  <si>
     <t>chinas</t>
   </si>
   <si>
     <t>chinese</t>
   </si>
   <si>
-    <t>claims</t>
-  </si>
-  <si>
-    <t>clinical</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>coming</t>
-  </si>
-  <si>
-    <t>committee</t>
-  </si>
-  <si>
-    <t>comosimple</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>confirmed</t>
-  </si>
-  <si>
-    <t>consequences</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>continent</t>
-  </si>
-  <si>
-    <t>control</t>
-  </si>
-  <si>
-    <t>coronavirus</t>
-  </si>
-  <si>
-    <t>covid</t>
-  </si>
-  <si>
-    <t>cups</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>current</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>decoration</t>
-  </si>
-  <si>
-    <t>deficit</t>
-  </si>
-  <si>
-    <t>deficits</t>
-  </si>
-  <si>
-    <t>design</t>
-  </si>
-  <si>
-    <t>developed</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>dollar</t>
-  </si>
-  <si>
-    <t>dont</t>
+    <t>choice</t>
+  </si>
+  <si>
+    <t>climate</t>
+  </si>
+  <si>
+    <t>commemoration</t>
+  </si>
+  <si>
+    <t>commending</t>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>complementarity</t>
+  </si>
+  <si>
+    <t>confrontation</t>
+  </si>
+  <si>
+    <t>connectivity</t>
+  </si>
+  <si>
+    <t>consultation</t>
+  </si>
+  <si>
+    <t>contribute</t>
+  </si>
+  <si>
+    <t>contributing</t>
+  </si>
+  <si>
+    <t>convening</t>
+  </si>
+  <si>
+    <t>cooperation</t>
+  </si>
+  <si>
+    <t>cooperationthe</t>
+  </si>
+  <si>
+    <t>coordination</t>
+  </si>
+  <si>
+    <t>corridor</t>
+  </si>
+  <si>
+    <t>countries</t>
+  </si>
+  <si>
+    <t>crossborder</t>
+  </si>
+  <si>
+    <t>cultural</t>
+  </si>
+  <si>
+    <t>dam</t>
+  </si>
+  <si>
+    <t>declaration</t>
+  </si>
+  <si>
+    <t>deepening</t>
+  </si>
+  <si>
+    <t>defend</t>
+  </si>
+  <si>
+    <t>development</t>
+  </si>
+  <si>
+    <t>dialogues</t>
+  </si>
+  <si>
+    <t>digital</t>
+  </si>
+  <si>
+    <t>disaster</t>
+  </si>
+  <si>
+    <t>distinguished</t>
+  </si>
+  <si>
+    <t>drought</t>
+  </si>
+  <si>
+    <t>droughts</t>
   </si>
   <si>
     <t>economic</t>
@@ -160,460 +196,424 @@
     <t>economy</t>
   </si>
   <si>
-    <t>efficacy</t>
-  </si>
-  <si>
-    <t>el</t>
-  </si>
-  <si>
-    <t>eliminated</t>
-  </si>
-  <si>
-    <t>employers</t>
-  </si>
-  <si>
-    <t>ess</t>
-  </si>
-  <si>
-    <t>euler</t>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>endeavor</t>
+  </si>
+  <si>
+    <t>engage</t>
+  </si>
+  <si>
+    <t>enhance</t>
+  </si>
+  <si>
+    <t>enhancing</t>
+  </si>
+  <si>
+    <t>environmental</t>
+  </si>
+  <si>
+    <t>evil</t>
   </si>
   <si>
     <t>exchange</t>
   </si>
   <si>
-    <t>fall</t>
-  </si>
-  <si>
-    <t>federal</t>
-  </si>
-  <si>
-    <t>foreign</t>
-  </si>
-  <si>
-    <t>founding</t>
+    <t>exchanges</t>
+  </si>
+  <si>
+    <t>existing</t>
+  </si>
+  <si>
+    <t>explore</t>
+  </si>
+  <si>
+    <t>fairness</t>
+  </si>
+  <si>
+    <t>fiveyear</t>
+  </si>
+  <si>
+    <t>flood</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>framework</t>
   </si>
   <si>
     <t>fund</t>
   </si>
   <si>
-    <t>games</t>
-  </si>
-  <si>
-    <t>geneva</t>
+    <t>future</t>
   </si>
   <si>
     <t>global</t>
   </si>
   <si>
-    <t>goals</t>
-  </si>
-  <si>
-    <t>government</t>
-  </si>
-  <si>
-    <t>governments</t>
+    <t>governance</t>
+  </si>
+  <si>
+    <t>green</t>
   </si>
   <si>
     <t>growth</t>
   </si>
   <si>
-    <t>hang</t>
-  </si>
-  <si>
-    <t>heavily</t>
-  </si>
-  <si>
-    <t>helped</t>
-  </si>
-  <si>
-    <t>hk</t>
-  </si>
-  <si>
-    <t>hong</t>
-  </si>
-  <si>
-    <t>hospital</t>
-  </si>
-  <si>
-    <t>hospitals</t>
-  </si>
-  <si>
-    <t>imbalances</t>
-  </si>
-  <si>
-    <t>immunity</t>
-  </si>
-  <si>
-    <t>income</t>
-  </si>
-  <si>
-    <t>influence</t>
-  </si>
-  <si>
-    <t>initiative</t>
-  </si>
-  <si>
-    <t>insolvencies</t>
-  </si>
-  <si>
-    <t>institute</t>
-  </si>
-  <si>
-    <t>ioc</t>
-  </si>
-  <si>
-    <t>jeffrey</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>jobs</t>
-  </si>
-  <si>
-    <t>john</t>
-  </si>
-  <si>
-    <t>jsp</t>
-  </si>
-  <si>
-    <t>kenya</t>
-  </si>
-  <si>
-    <t>kong</t>
-  </si>
-  <si>
-    <t>kongs</t>
-  </si>
-  <si>
-    <t>launch</t>
-  </si>
-  <si>
-    <t>limit</t>
-  </si>
-  <si>
-    <t>lives</t>
-  </si>
-  <si>
-    <t>losses</t>
-  </si>
-  <si>
-    <t>manufacturers</t>
-  </si>
-  <si>
-    <t>mark</t>
-  </si>
-  <si>
-    <t>marks</t>
-  </si>
-  <si>
-    <t>mask</t>
-  </si>
-  <si>
-    <t>matchmicromessengeri</t>
-  </si>
-  <si>
-    <t>meadows</t>
-  </si>
-  <si>
-    <t>medicine</t>
-  </si>
-  <si>
-    <t>medicines</t>
+    <t>guests</t>
+  </si>
+  <si>
+    <t>heritage</t>
+  </si>
+  <si>
+    <t>historical</t>
+  </si>
+  <si>
+    <t>hotspot</t>
+  </si>
+  <si>
+    <t>hydrological</t>
+  </si>
+  <si>
+    <t>impetus</t>
+  </si>
+  <si>
+    <t>implement</t>
+  </si>
+  <si>
+    <t>implementation</t>
+  </si>
+  <si>
+    <t>improvement</t>
+  </si>
+  <si>
+    <t>inclusiveness</t>
+  </si>
+  <si>
+    <t>industrial</t>
+  </si>
+  <si>
+    <t>integrated</t>
+  </si>
+  <si>
+    <t>integration</t>
+  </si>
+  <si>
+    <t>inter</t>
+  </si>
+  <si>
+    <t>interconnected</t>
+  </si>
+  <si>
+    <t>international</t>
+  </si>
+  <si>
+    <t>intra</t>
+  </si>
+  <si>
+    <t>investment</t>
+  </si>
+  <si>
+    <t>joint</t>
+  </si>
+  <si>
+    <t>justice</t>
+  </si>
+  <si>
+    <t>jwgs</t>
+  </si>
+  <si>
+    <t>lancang</t>
+  </si>
+  <si>
+    <t>lancangmekong</t>
+  </si>
+  <si>
+    <t>landsea</t>
+  </si>
+  <si>
+    <t>lanes</t>
+  </si>
+  <si>
+    <t>lao</t>
+  </si>
+  <si>
+    <t>lasting</t>
+  </si>
+  <si>
+    <t>laws</t>
+  </si>
+  <si>
+    <t>leaders</t>
+  </si>
+  <si>
+    <t>leveraging</t>
+  </si>
+  <si>
+    <t>lie</t>
+  </si>
+  <si>
+    <t>linkages</t>
+  </si>
+  <si>
+    <t>linking</t>
+  </si>
+  <si>
+    <t>lmc</t>
+  </si>
+  <si>
+    <t>management</t>
   </si>
   <si>
     <t>meeting</t>
   </si>
   <si>
-    <t>micromessenger</t>
-  </si>
-  <si>
-    <t>minority</t>
-  </si>
-  <si>
-    <t>mitigation</t>
-  </si>
-  <si>
-    <t>mokdad</t>
-  </si>
-  <si>
-    <t>mortality</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>net</t>
-  </si>
-  <si>
-    <t>newspaper</t>
-  </si>
-  <si>
-    <t>ng</t>
-  </si>
-  <si>
-    <t>observing</t>
-  </si>
-  <si>
-    <t>ocbc</t>
-  </si>
-  <si>
-    <t>offering</t>
-  </si>
-  <si>
-    <t>oguna</t>
-  </si>
-  <si>
-    <t>olympic</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>opena</t>
-  </si>
-  <si>
-    <t>outlook</t>
-  </si>
-  <si>
-    <t>pace</t>
-  </si>
-  <si>
-    <t>patients</t>
-  </si>
-  <si>
-    <t>percent</t>
-  </si>
-  <si>
-    <t>phase</t>
-  </si>
-  <si>
-    <t>pkgnamecom</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>potential</t>
+    <t>mekong</t>
+  </si>
+  <si>
+    <t>mekonglancang</t>
+  </si>
+  <si>
+    <t>ministerial</t>
+  </si>
+  <si>
+    <t>mlc</t>
+  </si>
+  <si>
+    <t>mrc</t>
+  </si>
+  <si>
+    <t>multilateralism</t>
+  </si>
+  <si>
+    <t>multination</t>
+  </si>
+  <si>
+    <t>multipark</t>
+  </si>
+  <si>
+    <t>mutual</t>
+  </si>
+  <si>
+    <t>negotiation</t>
+  </si>
+  <si>
+    <t>openness</t>
+  </si>
+  <si>
+    <t>pandemic</t>
+  </si>
+  <si>
+    <t>partnership</t>
+  </si>
+  <si>
+    <t>pdr</t>
+  </si>
+  <si>
+    <t>peace</t>
+  </si>
+  <si>
+    <t>penh</t>
+  </si>
+  <si>
+    <t>peoples</t>
+  </si>
+  <si>
+    <t>phnom</t>
+  </si>
+  <si>
+    <t>pillar</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>platform</t>
   </si>
   <si>
     <t>poverty</t>
   </si>
   <si>
-    <t>preparations</t>
-  </si>
-  <si>
-    <t>president</t>
+    <t>practical</t>
+  </si>
+  <si>
+    <t>principles</t>
   </si>
   <si>
     <t>progress</t>
   </si>
   <si>
-    <t>promising</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>protein</t>
-  </si>
-  <si>
-    <t>qq</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>ramaphosa</t>
-  </si>
-  <si>
-    <t>rate</t>
-  </si>
-  <si>
-    <t>rates</t>
-  </si>
-  <si>
-    <t>received</t>
-  </si>
-  <si>
-    <t>refined</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>response</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>rounds</t>
-  </si>
-  <si>
-    <t>sachs</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>sales</t>
-  </si>
-  <si>
-    <t>samaranch</t>
-  </si>
-  <si>
-    <t>savings</t>
-  </si>
-  <si>
-    <t>scenarios</t>
-  </si>
-  <si>
-    <t>schools</t>
-  </si>
-  <si>
-    <t>season</t>
-  </si>
-  <si>
-    <t>seasons</t>
+    <t>projects</t>
+  </si>
+  <si>
+    <t>promote</t>
+  </si>
+  <si>
+    <t>promoting</t>
+  </si>
+  <si>
+    <t>promotion</t>
+  </si>
+  <si>
+    <t>prosperity</t>
+  </si>
+  <si>
+    <t>reaffirmed</t>
+  </si>
+  <si>
+    <t>reaffirming</t>
+  </si>
+  <si>
+    <t>reduction</t>
+  </si>
+  <si>
+    <t>reform</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>regional</t>
+  </si>
+  <si>
+    <t>relations</t>
+  </si>
+  <si>
+    <t>republic</t>
+  </si>
+  <si>
+    <t>resources</t>
+  </si>
+  <si>
+    <t>respective</t>
+  </si>
+  <si>
+    <t>revolution</t>
+  </si>
+  <si>
+    <t>river</t>
+  </si>
+  <si>
+    <t>road</t>
+  </si>
+  <si>
+    <t>safeguard</t>
+  </si>
+  <si>
+    <t>sectoral</t>
   </si>
   <si>
     <t>security</t>
   </si>
   <si>
-    <t>sept</t>
-  </si>
-  <si>
-    <t>september</t>
-  </si>
-  <si>
-    <t>smes</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>south</t>
-  </si>
-  <si>
-    <t>spread</t>
-  </si>
-  <si>
-    <t>standards</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>subsidies</t>
+    <t>settlement</t>
+  </si>
+  <si>
+    <t>shared</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>sihanoukville</t>
+  </si>
+  <si>
+    <t>silk</t>
+  </si>
+  <si>
+    <t>socioeconomic</t>
+  </si>
+  <si>
+    <t>solidarity</t>
+  </si>
+  <si>
+    <t>southsouth</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>spirit</t>
+  </si>
+  <si>
+    <t>steadily</t>
+  </si>
+  <si>
+    <t>strategies</t>
+  </si>
+  <si>
+    <t>strengthen</t>
+  </si>
+  <si>
+    <t>strengthening</t>
+  </si>
+  <si>
+    <t>stronger</t>
+  </si>
+  <si>
+    <t>subregion</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>sustainable</t>
   </si>
   <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>synairgen</t>
-  </si>
-  <si>
-    <t>system</t>
-  </si>
-  <si>
-    <t>tax</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>testua</t>
-  </si>
-  <si>
-    <t>theotino</t>
-  </si>
-  <si>
-    <t>therapies</t>
-  </si>
-  <si>
-    <t>tokyo</t>
-  </si>
-  <si>
-    <t>toll</t>
-  </si>
-  <si>
-    <t>traditional</t>
-  </si>
-  <si>
-    <t>tranche</t>
-  </si>
-  <si>
-    <t>treat</t>
-  </si>
-  <si>
-    <t>treated</t>
-  </si>
-  <si>
-    <t>treatment</t>
-  </si>
-  <si>
-    <t>treatments</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>trump</t>
-  </si>
-  <si>
-    <t>ua</t>
-  </si>
-  <si>
-    <t>uks</t>
-  </si>
-  <si>
-    <t>unlawfully</t>
-  </si>
-  <si>
-    <t>urge</t>
-  </si>
-  <si>
-    <t>urged</t>
-  </si>
-  <si>
-    <t>vaccine</t>
-  </si>
-  <si>
-    <t>vaccines</t>
-  </si>
-  <si>
-    <t>wage</t>
-  </si>
-  <si>
-    <t>wang</t>
-  </si>
-  <si>
-    <t>waves</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>window</t>
-  </si>
-  <si>
-    <t>wing</t>
-  </si>
-  <si>
-    <t>winter</t>
-  </si>
-  <si>
-    <t>yip</t>
-  </si>
-  <si>
-    <t>zhou</t>
+    <t>synergy</t>
+  </si>
+  <si>
+    <t>tangible</t>
+  </si>
+  <si>
+    <t>theme</t>
+  </si>
+  <si>
+    <t>threeyear</t>
+  </si>
+  <si>
+    <t>tourism</t>
+  </si>
+  <si>
+    <t>trade</t>
+  </si>
+  <si>
+    <t>trafficking</t>
+  </si>
+  <si>
+    <t>trajectory</t>
+  </si>
+  <si>
+    <t>transboundary</t>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>utilization</t>
+  </si>
+  <si>
+    <t>utilize</t>
+  </si>
+  <si>
+    <t>visions</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>welcoming</t>
+  </si>
+  <si>
+    <t>wellbeing</t>
+  </si>
+  <si>
+    <t>winwin</t>
+  </si>
+  <si>
+    <t>zone</t>
   </si>
   <si>
     <t>主题1</t>
@@ -1593,604 +1593,604 @@
         <v>200</v>
       </c>
       <c r="B2">
-        <v>7.333194306077094</v>
+        <v>2.330231989349027</v>
       </c>
       <c r="C2">
-        <v>11.34427439451331</v>
+        <v>15.23712269735103</v>
       </c>
       <c r="D2">
-        <v>3.333158430843699</v>
+        <v>5.308167567096587</v>
       </c>
       <c r="E2">
-        <v>1.332349647981025</v>
+        <v>0.745437304732722</v>
       </c>
       <c r="F2">
-        <v>8.332921292455397</v>
+        <v>4.359414858155148</v>
       </c>
       <c r="G2">
-        <v>0.3333570320971175</v>
+        <v>8.335665205416747</v>
       </c>
       <c r="H2">
-        <v>2.333926512045668</v>
+        <v>12.23327284865149</v>
       </c>
       <c r="I2">
-        <v>4.333188038866344</v>
+        <v>5.219316720261736</v>
       </c>
       <c r="J2">
-        <v>0.3333532632597886</v>
+        <v>2.327001383093256</v>
       </c>
       <c r="K2">
-        <v>0.3333555914695053</v>
+        <v>3.333328254238967</v>
       </c>
       <c r="L2">
-        <v>0.3333540994927461</v>
+        <v>16.73598539799963</v>
       </c>
       <c r="M2">
-        <v>9.338179822844484</v>
+        <v>2.290957766409638</v>
       </c>
       <c r="N2">
-        <v>0.333364139849317</v>
+        <v>4.299084928817231</v>
       </c>
       <c r="O2">
-        <v>7.283980148777117</v>
+        <v>7.283256272202747</v>
       </c>
       <c r="P2">
-        <v>0.3333567418659009</v>
+        <v>8.705390691263792</v>
       </c>
       <c r="Q2">
-        <v>2.328988643755781</v>
+        <v>3.601680272314268</v>
       </c>
       <c r="R2">
-        <v>0.3333569196655638</v>
+        <v>0.3387969337570725</v>
       </c>
       <c r="S2">
-        <v>4.331819449953396</v>
+        <v>7.898983212129917</v>
       </c>
       <c r="T2">
-        <v>2.333182873453158</v>
+        <v>14.77691887902718</v>
       </c>
       <c r="U2">
-        <v>1.332172507259508</v>
+        <v>17.95051149610581</v>
       </c>
       <c r="V2">
-        <v>5.333946232499264</v>
+        <v>18.73718703449055</v>
       </c>
       <c r="W2">
-        <v>8.332921292455397</v>
+        <v>18.23761855584639</v>
       </c>
       <c r="X2">
-        <v>0.333355902438901</v>
+        <v>7.995376838938827</v>
       </c>
       <c r="Y2">
-        <v>1.33485819216789</v>
+        <v>2.461079323950408</v>
       </c>
       <c r="Z2">
-        <v>2.334319312653695</v>
+        <v>9.578419218896066</v>
       </c>
       <c r="AA2">
-        <v>4.333215646784562</v>
+        <v>3.327747787761737</v>
       </c>
       <c r="AB2">
-        <v>3.333158430843699</v>
+        <v>4.377414777053451</v>
       </c>
       <c r="AC2">
-        <v>3.335651502773854</v>
+        <v>0.3733521746066685</v>
       </c>
       <c r="AD2">
-        <v>9.32915785218019</v>
+        <v>0.3569553035398721</v>
       </c>
       <c r="AE2">
-        <v>17.31157023860529</v>
+        <v>7.225140028471103</v>
       </c>
       <c r="AF2">
-        <v>2.332546814978174</v>
+        <v>1.333519651640044</v>
       </c>
       <c r="AG2">
-        <v>3.333186235818449</v>
+        <v>4.299439433843716</v>
       </c>
       <c r="AH2">
-        <v>6.337516994142035</v>
+        <v>3.321058417695945</v>
       </c>
       <c r="AI2">
-        <v>1.333444990149322</v>
+        <v>4.968243191543007</v>
       </c>
       <c r="AJ2">
-        <v>2.332382998042036</v>
+        <v>0.3333444377214012</v>
       </c>
       <c r="AK2">
-        <v>0.3333643449564395</v>
+        <v>19.38470248485123</v>
       </c>
       <c r="AL2">
-        <v>0.3333617340982109</v>
+        <v>3.370425921055051</v>
       </c>
       <c r="AM2">
-        <v>0.3333709969037477</v>
+        <v>3.234502238473087</v>
       </c>
       <c r="AN2">
-        <v>4.333215646784562</v>
+        <v>4.327176740558923</v>
       </c>
       <c r="AO2">
-        <v>4.333188038866344</v>
+        <v>2.333328135509793</v>
       </c>
       <c r="AP2">
-        <v>5.333189143956115</v>
+        <v>160.3473796330908</v>
       </c>
       <c r="AQ2">
-        <v>2.333211398550286</v>
+        <v>2.333328135509793</v>
       </c>
       <c r="AR2">
-        <v>1.331936564822915</v>
+        <v>7.35947301691913</v>
       </c>
       <c r="AS2">
-        <v>0.3333973709108599</v>
+        <v>6.27474312485723</v>
       </c>
       <c r="AT2">
-        <v>6.33318988959017</v>
+        <v>71.84196168230142</v>
       </c>
       <c r="AU2">
-        <v>2.33290648392869</v>
+        <v>5.663417789485207</v>
       </c>
       <c r="AV2">
-        <v>7.336016217993111</v>
+        <v>10.12216107013109</v>
       </c>
       <c r="AW2">
-        <v>6.334648598313235</v>
+        <v>2.330231989349027</v>
       </c>
       <c r="AX2">
-        <v>2.33315433624551</v>
+        <v>2.363416761252683</v>
       </c>
       <c r="AY2">
-        <v>2.332200649613504</v>
+        <v>3.919600222597252</v>
       </c>
       <c r="AZ2">
-        <v>0.3333771994503821</v>
+        <v>0.3333449864635119</v>
       </c>
       <c r="BA2">
-        <v>4.333215646784562</v>
+        <v>71.54462229974664</v>
       </c>
       <c r="BB2">
-        <v>5.333216541704004</v>
+        <v>5.011536658631775</v>
       </c>
       <c r="BC2">
-        <v>2.333211398550286</v>
+        <v>7.595351986511671</v>
       </c>
       <c r="BD2">
-        <v>3.333186235818449</v>
+        <v>3.208874109177718</v>
       </c>
       <c r="BE2">
-        <v>0.33336480861437</v>
+        <v>0.3333445808348174</v>
       </c>
       <c r="BF2">
-        <v>3.335125455095394</v>
+        <v>2.330231989349027</v>
       </c>
       <c r="BG2">
-        <v>8.335035582701815</v>
+        <v>5.308908628609944</v>
       </c>
       <c r="BH2">
-        <v>0.3333771994503821</v>
+        <v>43.33293880585163</v>
       </c>
       <c r="BI2">
-        <v>6.337244411203647</v>
+        <v>10.46868308227853</v>
       </c>
       <c r="BJ2">
-        <v>0.3333533417346271</v>
+        <v>8.619748144665529</v>
       </c>
       <c r="BK2">
-        <v>2.332200649613504</v>
+        <v>4.333328316420896</v>
       </c>
       <c r="BL2">
-        <v>4.331638932147454</v>
+        <v>1.339574104295612</v>
       </c>
       <c r="BM2">
-        <v>0.3333771994503821</v>
+        <v>12.90487363212777</v>
       </c>
       <c r="BN2">
-        <v>11.33635123938901</v>
+        <v>24.30129124907433</v>
       </c>
       <c r="BO2">
-        <v>0.3333574712287889</v>
+        <v>19.41352830203158</v>
       </c>
       <c r="BP2">
-        <v>2.333926512045668</v>
+        <v>0.3333449864635119</v>
       </c>
       <c r="BQ2">
-        <v>2.333211398550286</v>
+        <v>10.95267915554237</v>
       </c>
       <c r="BR2">
-        <v>1.333444990149322</v>
+        <v>16.61677821200021</v>
       </c>
       <c r="BS2">
-        <v>2.333211398550286</v>
+        <v>4.76689570791165</v>
       </c>
       <c r="BT2">
-        <v>3.333214186658497</v>
+        <v>9.042913553839254</v>
       </c>
       <c r="BU2">
-        <v>13.33321879699333</v>
+        <v>0.3333925279032589</v>
       </c>
       <c r="BV2">
-        <v>1.33254274688007</v>
+        <v>5.302917496682913</v>
       </c>
       <c r="BW2">
-        <v>0.3333574712287889</v>
+        <v>2.330231989349027</v>
       </c>
       <c r="BX2">
-        <v>3.333186235818449</v>
+        <v>3.742060058492343</v>
       </c>
       <c r="BY2">
-        <v>0.333364139849317</v>
+        <v>3.233129995718445</v>
       </c>
       <c r="BZ2">
-        <v>3.333186235818449</v>
+        <v>18.94560123980665</v>
       </c>
       <c r="CA2">
-        <v>0.3333560176794554</v>
+        <v>13.62971974591384</v>
       </c>
       <c r="CB2">
-        <v>0.3333596308642947</v>
+        <v>4.888465195081036</v>
       </c>
       <c r="CC2">
-        <v>3.333214186658497</v>
+        <v>1.604876766185659</v>
       </c>
       <c r="CD2">
-        <v>0.3333655519328401</v>
+        <v>8.309332867756986</v>
       </c>
       <c r="CE2">
-        <v>0.3333535841464168</v>
+        <v>15.55064776040087</v>
       </c>
       <c r="CF2">
-        <v>0.3333771994503821</v>
+        <v>0.3333445808348174</v>
       </c>
       <c r="CG2">
-        <v>3.333024524623465</v>
+        <v>5.336789670054054</v>
       </c>
       <c r="CH2">
-        <v>2.334040736541948</v>
+        <v>1.359077973129821</v>
       </c>
       <c r="CI2">
-        <v>1.333157913000541</v>
+        <v>0.3333502563335839</v>
       </c>
       <c r="CJ2">
-        <v>8.332921292455397</v>
+        <v>5.329191618459694</v>
       </c>
       <c r="CK2">
-        <v>2.33315433624551</v>
+        <v>2.231845147505616</v>
       </c>
       <c r="CL2">
-        <v>9.333218163707393</v>
+        <v>9.176151013833858</v>
       </c>
       <c r="CM2">
-        <v>2.333211398550286</v>
+        <v>19.2793282347876</v>
       </c>
       <c r="CN2">
-        <v>1.333096268819678</v>
+        <v>1.333519651640044</v>
       </c>
       <c r="CO2">
-        <v>2.333182873453158</v>
+        <v>2.456608806064183</v>
       </c>
       <c r="CP2">
-        <v>0.3333627117792545</v>
+        <v>17.94633060132629</v>
       </c>
       <c r="CQ2">
-        <v>0.3333574712287889</v>
+        <v>3.329266962479017</v>
       </c>
       <c r="CR2">
-        <v>2.333211398550286</v>
+        <v>5.283541387968645</v>
       </c>
       <c r="CS2">
-        <v>0.3334373183615583</v>
+        <v>2.333328135509793</v>
       </c>
       <c r="CT2">
-        <v>1.333157913000541</v>
+        <v>0.943271192470688</v>
       </c>
       <c r="CU2">
-        <v>0.3333655519328401</v>
+        <v>12.57079920088551</v>
       </c>
       <c r="CV2">
-        <v>8.332921292455397</v>
+        <v>2.333328135509793</v>
       </c>
       <c r="CW2">
-        <v>0.3334349390769945</v>
+        <v>16.29480094373483</v>
       </c>
       <c r="CX2">
-        <v>8.333163895542148</v>
+        <v>24.0023221637379</v>
       </c>
       <c r="CY2">
-        <v>4.333160575118919</v>
+        <v>0.3343124458456471</v>
       </c>
       <c r="CZ2">
-        <v>0.3333545693382715</v>
+        <v>2.333328135509793</v>
       </c>
       <c r="DA2">
-        <v>8.332921292455397</v>
+        <v>7.329036505343322</v>
       </c>
       <c r="DB2">
-        <v>0.3333574712287889</v>
+        <v>20.32772529478516</v>
       </c>
       <c r="DC2">
-        <v>0.3334373183615583</v>
+        <v>4.329226336359248</v>
       </c>
       <c r="DD2">
-        <v>0.3333651573134955</v>
+        <v>1.223965259487317</v>
       </c>
       <c r="DE2">
-        <v>0.3333651573134955</v>
+        <v>4.331848406491056</v>
       </c>
       <c r="DF2">
-        <v>7.335709191031969</v>
+        <v>2.380961242492768</v>
       </c>
       <c r="DG2">
-        <v>2.333791306319521</v>
+        <v>5.683588597721682</v>
       </c>
       <c r="DH2">
-        <v>9.333191146868144</v>
+        <v>22.9921654405333</v>
       </c>
       <c r="DI2">
-        <v>0.3333574712287889</v>
+        <v>2.330231989349027</v>
       </c>
       <c r="DJ2">
-        <v>2.333211398550286</v>
+        <v>0.3333449864635119</v>
       </c>
       <c r="DK2">
-        <v>1.33011674238302</v>
+        <v>3.333328254238967</v>
       </c>
       <c r="DL2">
-        <v>2.333211398550286</v>
+        <v>2.327001383093256</v>
       </c>
       <c r="DM2">
-        <v>0.33335605454324</v>
+        <v>27.32790583132769</v>
       </c>
       <c r="DN2">
-        <v>3.333158430843699</v>
+        <v>11.25814226550593</v>
       </c>
       <c r="DO2">
-        <v>0.3333538451835325</v>
+        <v>46.21659316658739</v>
       </c>
       <c r="DP2">
-        <v>1.333444990149322</v>
+        <v>34.32880658346372</v>
       </c>
       <c r="DQ2">
-        <v>8.332921292455397</v>
+        <v>41.3333284924105</v>
       </c>
       <c r="DR2">
-        <v>3.333214186658497</v>
+        <v>7.939915756207079</v>
       </c>
       <c r="DS2">
-        <v>1.333157913000541</v>
+        <v>42.3333284928752</v>
       </c>
       <c r="DT2">
-        <v>2.320471417173012</v>
+        <v>2.330231989349027</v>
       </c>
       <c r="DU2">
-        <v>26.34686163672534</v>
+        <v>1.353707951638865</v>
       </c>
       <c r="DV2">
-        <v>0.3333617704368512</v>
+        <v>2.330231989349027</v>
       </c>
       <c r="DW2">
-        <v>8.332921292455397</v>
+        <v>2.330231989349027</v>
       </c>
       <c r="DX2">
-        <v>0.3333771994503821</v>
+        <v>10.34643667593054</v>
       </c>
       <c r="DY2">
-        <v>2.331420511502297</v>
+        <v>1.798605133002661</v>
       </c>
       <c r="DZ2">
-        <v>0.3333727079030681</v>
+        <v>2.156038112512086</v>
       </c>
       <c r="EA2">
-        <v>0.3333540994927461</v>
+        <v>4.179975766332912</v>
       </c>
       <c r="EB2">
-        <v>4.335646209590482</v>
+        <v>18.12357033286259</v>
       </c>
       <c r="EC2">
-        <v>0.3333538451835325</v>
+        <v>3.331324539569382</v>
       </c>
       <c r="ED2">
-        <v>0.3333574712287889</v>
+        <v>10.27211684047141</v>
       </c>
       <c r="EE2">
-        <v>0.3333617704368512</v>
+        <v>2.330231989349027</v>
       </c>
       <c r="EF2">
-        <v>0.3333574712287889</v>
+        <v>13.92297751159435</v>
       </c>
       <c r="EG2">
-        <v>8.332921292455397</v>
+        <v>2.330231989349027</v>
       </c>
       <c r="EH2">
-        <v>2.333182873453158</v>
+        <v>4.261914948563441</v>
       </c>
       <c r="EI2">
-        <v>2.33315433624551</v>
+        <v>26.08185643280155</v>
       </c>
       <c r="EJ2">
-        <v>10.34021776792671</v>
+        <v>6.067260542060938</v>
       </c>
       <c r="EK2">
-        <v>5.333189143956115</v>
+        <v>6.243665871933659</v>
       </c>
       <c r="EL2">
-        <v>0.333364139849317</v>
+        <v>4.186475568967592</v>
       </c>
       <c r="EM2">
-        <v>2.333211398550286</v>
+        <v>4.133360480897815</v>
       </c>
       <c r="EN2">
-        <v>5.333211063055117</v>
+        <v>6.847682366918773</v>
       </c>
       <c r="EO2">
-        <v>3.335125455095394</v>
+        <v>24.03520615771694</v>
       </c>
       <c r="EP2">
-        <v>1.333019837003305</v>
+        <v>22.64017117506075</v>
       </c>
       <c r="EQ2">
-        <v>2.333211398550286</v>
+        <v>8.902256635021535</v>
       </c>
       <c r="ER2">
-        <v>0.3333745817186255</v>
+        <v>4.344988831066112</v>
       </c>
       <c r="ES2">
-        <v>0.3333563242918302</v>
+        <v>10.83127435861902</v>
       </c>
       <c r="ET2">
-        <v>2.333211398550286</v>
+        <v>0.3333449864635119</v>
       </c>
       <c r="EU2">
-        <v>0.3333540994927461</v>
+        <v>2.333328135509793</v>
       </c>
       <c r="EV2">
-        <v>16.33319226051738</v>
+        <v>9.726017119428947</v>
       </c>
       <c r="EW2">
-        <v>0.3333540994927461</v>
+        <v>0.5271501172878614</v>
       </c>
       <c r="EX2">
-        <v>5.335599346189055</v>
+        <v>24.94674733808924</v>
       </c>
       <c r="EY2">
-        <v>3.332226769026937</v>
+        <v>41.53308319673333</v>
       </c>
       <c r="EZ2">
-        <v>2.332200649613504</v>
+        <v>0.34674041506481</v>
       </c>
       <c r="FA2">
-        <v>1.321878424487186</v>
+        <v>7.893111524527572</v>
       </c>
       <c r="FB2">
-        <v>0.3333573971357047</v>
+        <v>41.75907555383769</v>
       </c>
       <c r="FC2">
-        <v>1.333444990149322</v>
+        <v>4.337738724997143</v>
       </c>
       <c r="FD2">
-        <v>8.333217907850926</v>
+        <v>4.038144203330438</v>
       </c>
       <c r="FE2">
-        <v>1.333157913000541</v>
+        <v>24.30291313879248</v>
       </c>
       <c r="FF2">
-        <v>3.333158430843699</v>
+        <v>5.882670792899056</v>
       </c>
       <c r="FG2">
-        <v>6.3379910894075</v>
+        <v>0.3337165050345722</v>
       </c>
       <c r="FH2">
-        <v>3.333177021127746</v>
+        <v>2.333328135509793</v>
       </c>
       <c r="FI2">
-        <v>2.333211398550286</v>
+        <v>8.287674503710718</v>
       </c>
       <c r="FJ2">
-        <v>5.333216541704004</v>
+        <v>0.3333710306868292</v>
       </c>
       <c r="FK2">
-        <v>0.3333756716969746</v>
+        <v>12.94563199563432</v>
       </c>
       <c r="FL2">
-        <v>1.333157913000541</v>
+        <v>10.22304805123306</v>
       </c>
       <c r="FM2">
-        <v>0.3333574712287889</v>
+        <v>2.327001383093256</v>
       </c>
       <c r="FN2">
-        <v>0.3333574712287889</v>
+        <v>0.3339245148399001</v>
       </c>
       <c r="FO2">
-        <v>2.333211398550286</v>
+        <v>9.200432439993421</v>
       </c>
       <c r="FP2">
-        <v>0.3333570320971175</v>
+        <v>4.099604350590764</v>
       </c>
       <c r="FQ2">
-        <v>8.332921292455397</v>
+        <v>2.333708673659296</v>
       </c>
       <c r="FR2">
-        <v>8.332921292455397</v>
+        <v>19.29602312910633</v>
       </c>
       <c r="FS2">
-        <v>3.339897185544887</v>
+        <v>6.216198581338551</v>
       </c>
       <c r="FT2">
-        <v>0.3333536893155143</v>
+        <v>0.5632940142780174</v>
       </c>
       <c r="FU2">
-        <v>0.3333651573134955</v>
+        <v>5.831570871310746</v>
       </c>
       <c r="FV2">
-        <v>11.33316481994201</v>
+        <v>17.4088331371352</v>
       </c>
       <c r="FW2">
-        <v>2.333211398550286</v>
+        <v>5.444698183800027</v>
       </c>
       <c r="FX2">
-        <v>2.332611781209583</v>
+        <v>3.736773865483372</v>
       </c>
       <c r="FY2">
-        <v>0.3333574712287889</v>
+        <v>4.328801117862171</v>
       </c>
       <c r="FZ2">
-        <v>1.331333378423343</v>
+        <v>36.19668362369705</v>
       </c>
       <c r="GA2">
-        <v>0.3333973709108599</v>
+        <v>22.30994599160054</v>
       </c>
       <c r="GB2">
-        <v>3.333186235818449</v>
+        <v>4.313689560039536</v>
       </c>
       <c r="GC2">
-        <v>0.3333627117792545</v>
+        <v>3.328484509071783</v>
       </c>
       <c r="GD2">
-        <v>12.33292404474548</v>
+        <v>2.286771681258586</v>
       </c>
       <c r="GE2">
-        <v>0.3333574712287889</v>
+        <v>3.331324539569382</v>
       </c>
       <c r="GF2">
-        <v>0.3333574712287889</v>
+        <v>59.19723025561265</v>
       </c>
       <c r="GG2">
-        <v>2.333905178520791</v>
+        <v>28.986940981376</v>
       </c>
       <c r="GH2">
-        <v>2.333182873453158</v>
+        <v>3.333328254238967</v>
       </c>
       <c r="GI2">
-        <v>2.328138926837422</v>
+        <v>2.2693223120283</v>
       </c>
       <c r="GJ2">
-        <v>1.318931446525889</v>
+        <v>2.333328135509793</v>
       </c>
       <c r="GK2">
-        <v>2.333211398550286</v>
+        <v>1.333519651640044</v>
       </c>
       <c r="GL2">
-        <v>3.332691703071212</v>
+        <v>3.333328254238967</v>
       </c>
       <c r="GM2">
-        <v>2.332200649613504</v>
+        <v>3.263684329045088</v>
       </c>
       <c r="GN2">
-        <v>0.3334089146076702</v>
+        <v>2.333328135509793</v>
       </c>
       <c r="GO2">
-        <v>13.33287435737061</v>
+        <v>47.31068033948099</v>
       </c>
       <c r="GP2">
-        <v>2.333211398550286</v>
+        <v>3.333328254238967</v>
       </c>
       <c r="GQ2">
-        <v>0.3333601478377599</v>
+        <v>9.98567969145501</v>
       </c>
       <c r="GR2">
-        <v>2.333211398550286</v>
+        <v>2.335655686141538</v>
       </c>
       <c r="GS2">
-        <v>0.3333635312661467</v>
+        <v>6.24111324553945</v>
       </c>
     </row>
     <row r="3" spans="1:201">
@@ -2198,604 +2198,604 @@
         <v>201</v>
       </c>
       <c r="B3">
-        <v>0.3334556904248986</v>
+        <v>0.3356261378822332</v>
       </c>
       <c r="C3">
-        <v>0.3338263570475144</v>
+        <v>1.445244694667231</v>
       </c>
       <c r="D3">
-        <v>0.3334841053166739</v>
+        <v>0.3907554367353636</v>
       </c>
       <c r="E3">
-        <v>0.3336651339595292</v>
+        <v>13.90801675020999</v>
       </c>
       <c r="F3">
-        <v>0.3336963015490386</v>
+        <v>0.3676398171380146</v>
       </c>
       <c r="G3">
-        <v>0.3335187404532235</v>
+        <v>9.274322184020241</v>
       </c>
       <c r="H3">
-        <v>0.333666913182968</v>
+        <v>7.404192803355252</v>
       </c>
       <c r="I3">
-        <v>0.3334610238055545</v>
+        <v>7.435212193118001</v>
       </c>
       <c r="J3">
-        <v>0.3335169511402625</v>
+        <v>0.3380345460239832</v>
       </c>
       <c r="K3">
-        <v>0.3335321452577144</v>
+        <v>0.3333360407109393</v>
       </c>
       <c r="L3">
-        <v>0.3335246687739964</v>
+        <v>11.89985731819211</v>
       </c>
       <c r="M3">
-        <v>0.3336370448930867</v>
+        <v>1.341463145049664</v>
       </c>
       <c r="N3">
-        <v>0.3336012696215048</v>
+        <v>16.34480764127873</v>
       </c>
       <c r="O3">
-        <v>0.3339284951434532</v>
+        <v>16.29704496992599</v>
       </c>
       <c r="P3">
-        <v>0.3335164661686915</v>
+        <v>7.369434732932614</v>
       </c>
       <c r="Q3">
-        <v>0.3336251099084013</v>
+        <v>2.211600218394716</v>
       </c>
       <c r="R3">
-        <v>0.3335202370398223</v>
+        <v>21.92784195899521</v>
       </c>
       <c r="S3">
-        <v>0.333709269370752</v>
+        <v>18.20680873530039</v>
       </c>
       <c r="T3">
-        <v>0.3334647040634101</v>
+        <v>9.795423549287328</v>
       </c>
       <c r="U3">
-        <v>0.3336722335665994</v>
+        <v>4.472923808122099</v>
       </c>
       <c r="V3">
-        <v>0.3336728656977525</v>
+        <v>0.4055910528629753</v>
       </c>
       <c r="W3">
-        <v>0.3336963015490386</v>
+        <v>3.736585024346829</v>
       </c>
       <c r="X3">
-        <v>0.3335135040821225</v>
+        <v>29.53729573075979</v>
       </c>
       <c r="Y3">
-        <v>0.3343953874249319</v>
+        <v>8.19936691024294</v>
       </c>
       <c r="Z3">
-        <v>0.3337319192449624</v>
+        <v>351.2924549044755</v>
       </c>
       <c r="AA3">
-        <v>0.3334380049694566</v>
+        <v>0.3363562385395005</v>
       </c>
       <c r="AB3">
-        <v>0.3334841053166739</v>
+        <v>28.51830970648308</v>
       </c>
       <c r="AC3">
-        <v>0.3340518002402336</v>
+        <v>33.85958676435257</v>
       </c>
       <c r="AD3">
-        <v>0.3337884874784899</v>
+        <v>5.036179768262624</v>
       </c>
       <c r="AE3">
-        <v>0.3339092021044043</v>
+        <v>17.42853468763483</v>
       </c>
       <c r="AF3">
-        <v>0.334046804336341</v>
+        <v>1.333134881089413</v>
       </c>
       <c r="AG3">
-        <v>0.3334626086106283</v>
+        <v>0.3334259273910384</v>
       </c>
       <c r="AH3">
-        <v>0.3337608055059016</v>
+        <v>31.0510579765627</v>
       </c>
       <c r="AI3">
-        <v>0.3336509885571262</v>
+        <v>1.673532503364351</v>
       </c>
       <c r="AJ3">
-        <v>0.3336749427609301</v>
+        <v>6.333313617795824</v>
       </c>
       <c r="AK3">
-        <v>0.333580422225115</v>
+        <v>4.237458343940964</v>
       </c>
       <c r="AL3">
-        <v>0.3335606163897717</v>
+        <v>5.279783791405291</v>
       </c>
       <c r="AM3">
-        <v>0.3336262543044583</v>
+        <v>6.160437748237068</v>
       </c>
       <c r="AN3">
-        <v>0.3334380049694566</v>
+        <v>0.405469298934693</v>
       </c>
       <c r="AO3">
-        <v>0.3334610238055545</v>
+        <v>0.3333361039988464</v>
       </c>
       <c r="AP3">
-        <v>0.3334600524796295</v>
+        <v>230.2747153231246</v>
       </c>
       <c r="AQ3">
-        <v>0.3334417837934479</v>
+        <v>0.3333361039988464</v>
       </c>
       <c r="AR3">
-        <v>0.3336840320523869</v>
+        <v>21.24687179083198</v>
       </c>
       <c r="AS3">
-        <v>0.3338510450715169</v>
+        <v>1.390147995381533</v>
       </c>
       <c r="AT3">
-        <v>0.3334593971007958</v>
+        <v>321.2744331698327</v>
       </c>
       <c r="AU3">
-        <v>0.3337989016413151</v>
+        <v>3.832269681746872</v>
       </c>
       <c r="AV3">
-        <v>0.3336906344022634</v>
+        <v>11.48225915780264</v>
       </c>
       <c r="AW3">
-        <v>0.3336303676912697</v>
+        <v>0.3356261378822332</v>
       </c>
       <c r="AX3">
-        <v>0.3334876356383691</v>
+        <v>2.27831562135996</v>
       </c>
       <c r="AY3">
-        <v>0.3343204723121995</v>
+        <v>3.44656211126799</v>
       </c>
       <c r="AZ3">
-        <v>0.3336607876239461</v>
+        <v>2.33331264353053</v>
       </c>
       <c r="BA3">
-        <v>0.3334380049694566</v>
+        <v>168.2818219413828</v>
       </c>
       <c r="BB3">
-        <v>0.3334372089380405</v>
+        <v>1.653386170590289</v>
       </c>
       <c r="BC3">
-        <v>0.3334417837934479</v>
+        <v>59.99721773484867</v>
       </c>
       <c r="BD3">
-        <v>0.3334626086106283</v>
+        <v>5.433581794609977</v>
       </c>
       <c r="BE3">
-        <v>0.3335811865094146</v>
+        <v>4.333313363704717</v>
       </c>
       <c r="BF3">
-        <v>0.3337289010522448</v>
+        <v>0.3356261378822332</v>
       </c>
       <c r="BG3">
-        <v>0.3337455131515616</v>
+        <v>1.349552370517979</v>
       </c>
       <c r="BH3">
-        <v>0.3336607876239461</v>
+        <v>38.65783437545159</v>
       </c>
       <c r="BI3">
-        <v>0.3336956026631579</v>
+        <v>28.81460780290034</v>
       </c>
       <c r="BJ3">
-        <v>0.3335176753427164</v>
+        <v>0.3366024152526672</v>
       </c>
       <c r="BK3">
-        <v>0.3343204723121995</v>
+        <v>0.3333360075652195</v>
       </c>
       <c r="BL3">
-        <v>0.3336755067199408</v>
+        <v>5.185973641299661</v>
       </c>
       <c r="BM3">
-        <v>0.3336607876239461</v>
+        <v>8.390057148060045</v>
       </c>
       <c r="BN3">
-        <v>0.3336358396409914</v>
+        <v>0.3524121540587574</v>
       </c>
       <c r="BO3">
-        <v>0.3335246151389157</v>
+        <v>2.096849739318535</v>
       </c>
       <c r="BP3">
-        <v>0.333666913182968</v>
+        <v>2.33331264353053</v>
       </c>
       <c r="BQ3">
-        <v>0.3334417837934479</v>
+        <v>4.72699855775359</v>
       </c>
       <c r="BR3">
-        <v>0.3336509885571262</v>
+        <v>27.03274084271581</v>
       </c>
       <c r="BS3">
-        <v>0.3334417837934479</v>
+        <v>4.295736726678424</v>
       </c>
       <c r="BT3">
-        <v>0.3334393037551839</v>
+        <v>0.3521006909348359</v>
       </c>
       <c r="BU3">
-        <v>0.3334352028622313</v>
+        <v>6.332180312600141</v>
       </c>
       <c r="BV3">
-        <v>0.3336884128470276</v>
+        <v>0.368726785559348</v>
       </c>
       <c r="BW3">
-        <v>0.3335246151389157</v>
+        <v>0.3356261378822332</v>
       </c>
       <c r="BX3">
-        <v>0.3334626086106283</v>
+        <v>24.88098224091983</v>
       </c>
       <c r="BY3">
-        <v>0.3336012696215048</v>
+        <v>2.683726646684497</v>
       </c>
       <c r="BZ3">
-        <v>0.3334626086106283</v>
+        <v>5.206455652740035</v>
       </c>
       <c r="CA3">
-        <v>0.3335179299680361</v>
+        <v>36.47482370806526</v>
       </c>
       <c r="CB3">
-        <v>0.3335366436710362</v>
+        <v>208.0145465246753</v>
       </c>
       <c r="CC3">
-        <v>0.3334393037551839</v>
+        <v>36.01103857521934</v>
       </c>
       <c r="CD3">
-        <v>0.3335786003910108</v>
+        <v>16.3394271963143</v>
       </c>
       <c r="CE3">
-        <v>0.3335199124915058</v>
+        <v>12.17807385008321</v>
       </c>
       <c r="CF3">
-        <v>0.3336607876239461</v>
+        <v>4.333313363704717</v>
       </c>
       <c r="CG3">
-        <v>0.3336581205458382</v>
+        <v>0.3365592901675428</v>
       </c>
       <c r="CH3">
-        <v>0.333644624154229</v>
+        <v>3.230576654120647</v>
       </c>
       <c r="CI3">
-        <v>0.3336996548198269</v>
+        <v>3.333305372502454</v>
       </c>
       <c r="CJ3">
-        <v>0.3336963015490386</v>
+        <v>0.3350959470169044</v>
       </c>
       <c r="CK3">
-        <v>0.3334876356383691</v>
+        <v>1.433176789496464</v>
       </c>
       <c r="CL3">
-        <v>0.3334357661681403</v>
+        <v>6.132039426161629</v>
       </c>
       <c r="CM3">
-        <v>0.3334417837934479</v>
+        <v>0.3726307051407695</v>
       </c>
       <c r="CN3">
-        <v>0.3336397489264566</v>
+        <v>1.333134881089413</v>
       </c>
       <c r="CO3">
-        <v>0.3334647040634101</v>
+        <v>1.192410038015767</v>
       </c>
       <c r="CP3">
-        <v>0.333558638726522</v>
+        <v>9.646501551295273</v>
       </c>
       <c r="CQ3">
-        <v>0.3335246151389157</v>
+        <v>0.3363435641324458</v>
       </c>
       <c r="CR3">
-        <v>0.3334417837934479</v>
+        <v>0.3682864484931976</v>
       </c>
       <c r="CS3">
-        <v>0.3341797659336674</v>
+        <v>0.3333361039988464</v>
       </c>
       <c r="CT3">
-        <v>0.3336996548198269</v>
+        <v>4.716695157572632</v>
       </c>
       <c r="CU3">
-        <v>0.3335786003910108</v>
+        <v>223.4339250835864</v>
       </c>
       <c r="CV3">
-        <v>0.3336963015490386</v>
+        <v>0.3333361039988464</v>
       </c>
       <c r="CW3">
-        <v>0.3341602563985059</v>
+        <v>12.55023498088375</v>
       </c>
       <c r="CX3">
-        <v>0.3334793937535674</v>
+        <v>14.1330744209444</v>
       </c>
       <c r="CY3">
-        <v>0.3334822565555961</v>
+        <v>9.331618083058389</v>
       </c>
       <c r="CZ3">
-        <v>0.3335208576980748</v>
+        <v>0.3333361039988464</v>
       </c>
       <c r="DA3">
-        <v>0.3336963015490386</v>
+        <v>0.3345817281958272</v>
       </c>
       <c r="DB3">
-        <v>0.3335246151389157</v>
+        <v>0.3361492280933858</v>
       </c>
       <c r="DC3">
-        <v>0.3341797659336674</v>
+        <v>0.3355548821339313</v>
       </c>
       <c r="DD3">
-        <v>0.3335755899293072</v>
+        <v>1.440945647349751</v>
       </c>
       <c r="DE3">
-        <v>0.3335755899293072</v>
+        <v>0.3344283936287715</v>
       </c>
       <c r="DF3">
-        <v>0.333687663806009</v>
+        <v>3.28114140844914</v>
       </c>
       <c r="DG3">
-        <v>0.3336733589619187</v>
+        <v>1.282524589610023</v>
       </c>
       <c r="DH3">
-        <v>0.33345829201199</v>
+        <v>26.50010187430093</v>
       </c>
       <c r="DI3">
-        <v>0.3335246151389157</v>
+        <v>0.3356261378822332</v>
       </c>
       <c r="DJ3">
-        <v>0.3334417837934479</v>
+        <v>2.33331264353053</v>
       </c>
       <c r="DK3">
-        <v>0.3347310543039739</v>
+        <v>0.3333360407109393</v>
       </c>
       <c r="DL3">
-        <v>0.3334417837934479</v>
+        <v>0.3380345460239832</v>
       </c>
       <c r="DM3">
-        <v>0.3335207164800147</v>
+        <v>0.3352476083267745</v>
       </c>
       <c r="DN3">
-        <v>0.3334841053166739</v>
+        <v>0.3550724720971568</v>
       </c>
       <c r="DO3">
-        <v>0.3335223216287737</v>
+        <v>1.068986691799628</v>
       </c>
       <c r="DP3">
-        <v>0.3336509885571262</v>
+        <v>0.3357360041216792</v>
       </c>
       <c r="DQ3">
-        <v>0.3336963015490386</v>
+        <v>0.3333359137549847</v>
       </c>
       <c r="DR3">
-        <v>0.3334393037551839</v>
+        <v>0.7085755187160219</v>
       </c>
       <c r="DS3">
-        <v>0.3336996548198269</v>
+        <v>0.3333359135072778</v>
       </c>
       <c r="DT3">
-        <v>0.3340948427393586</v>
+        <v>0.3356261378822332</v>
       </c>
       <c r="DU3">
-        <v>0.3336729142268785</v>
+        <v>50.30599709671986</v>
       </c>
       <c r="DV3">
-        <v>0.3335737440535258</v>
+        <v>0.3356261378822332</v>
       </c>
       <c r="DW3">
-        <v>0.3336963015490386</v>
+        <v>0.3356261378822332</v>
       </c>
       <c r="DX3">
-        <v>0.3336607876239461</v>
+        <v>22.27747356594796</v>
       </c>
       <c r="DY3">
-        <v>0.3336712439233767</v>
+        <v>3.867987072819147</v>
       </c>
       <c r="DZ3">
-        <v>0.333628112641462</v>
+        <v>6.495399586522904</v>
       </c>
       <c r="EA3">
-        <v>0.3335246687739964</v>
+        <v>32.14807405845875</v>
       </c>
       <c r="EB3">
-        <v>0.3338079907428048</v>
+        <v>23.48501675322151</v>
       </c>
       <c r="EC3">
-        <v>0.3335223216287737</v>
+        <v>0.3348160416961522</v>
       </c>
       <c r="ED3">
-        <v>0.3335246151389157</v>
+        <v>39.3680192493246</v>
       </c>
       <c r="EE3">
-        <v>0.3335737440535258</v>
+        <v>0.3356261378822332</v>
       </c>
       <c r="EF3">
-        <v>0.3335246151389157</v>
+        <v>9.903411617334161</v>
       </c>
       <c r="EG3">
-        <v>0.3336963015490386</v>
+        <v>0.3356261378822332</v>
       </c>
       <c r="EH3">
-        <v>0.3334647040634101</v>
+        <v>1.336498767964157</v>
       </c>
       <c r="EI3">
-        <v>0.3334876356383691</v>
+        <v>4.21835969296501</v>
       </c>
       <c r="EJ3">
-        <v>0.333724200265371</v>
+        <v>2.971669807581675</v>
       </c>
       <c r="EK3">
-        <v>0.3334600524796295</v>
+        <v>12.45009238682342</v>
       </c>
       <c r="EL3">
-        <v>0.3336012696215048</v>
+        <v>7.46969717386352</v>
       </c>
       <c r="EM3">
-        <v>0.3334417837934479</v>
+        <v>9.48052532059169</v>
       </c>
       <c r="EN3">
-        <v>0.3334417767832161</v>
+        <v>17.21891500971811</v>
       </c>
       <c r="EO3">
-        <v>0.3337289010522448</v>
+        <v>13.5895405109259</v>
       </c>
       <c r="EP3">
-        <v>0.3337365485664296</v>
+        <v>37.60844865603635</v>
       </c>
       <c r="EQ3">
-        <v>0.3334417837934479</v>
+        <v>12.84597508069372</v>
       </c>
       <c r="ER3">
-        <v>0.333641193968479</v>
+        <v>1.294190325811319</v>
       </c>
       <c r="ES3">
-        <v>0.333541225115378</v>
+        <v>3.832903554861374</v>
       </c>
       <c r="ET3">
-        <v>0.3334417837934479</v>
+        <v>2.33331264353053</v>
       </c>
       <c r="EU3">
-        <v>0.3335246687739964</v>
+        <v>0.3333361039988464</v>
       </c>
       <c r="EV3">
-        <v>0.3334573131683096</v>
+        <v>3.80340540615542</v>
       </c>
       <c r="EW3">
-        <v>0.3335246687739964</v>
+        <v>7.572332699790557</v>
       </c>
       <c r="EX3">
-        <v>0.3336752818003302</v>
+        <v>4.595342866183933</v>
       </c>
       <c r="EY3">
-        <v>0.3342976849363166</v>
+        <v>33.10063260089944</v>
       </c>
       <c r="EZ3">
-        <v>0.3343204723121995</v>
+        <v>70.27625682445236</v>
       </c>
       <c r="FA3">
-        <v>0.3341107186456806</v>
+        <v>1.509952489966143</v>
       </c>
       <c r="FB3">
-        <v>0.3335341688373461</v>
+        <v>0.4161708750897884</v>
       </c>
       <c r="FC3">
-        <v>0.3336509885571262</v>
+        <v>2.315362005626676</v>
       </c>
       <c r="FD3">
-        <v>0.3334359937518667</v>
+        <v>1.333873216430353</v>
       </c>
       <c r="FE3">
-        <v>0.3336996548198269</v>
+        <v>0.3346391992496861</v>
       </c>
       <c r="FF3">
-        <v>0.3334841053166739</v>
+        <v>23.72276400186678</v>
       </c>
       <c r="FG3">
-        <v>0.3343887083256177</v>
+        <v>22.31087297941092</v>
       </c>
       <c r="FH3">
-        <v>0.3334691667673273</v>
+        <v>0.3333361039988464</v>
       </c>
       <c r="FI3">
-        <v>0.3334417837934479</v>
+        <v>34.50620652640886</v>
       </c>
       <c r="FJ3">
-        <v>0.3334372089380405</v>
+        <v>3.321934731178614</v>
       </c>
       <c r="FK3">
-        <v>0.3336493516135592</v>
+        <v>36.03437792197023</v>
       </c>
       <c r="FL3">
-        <v>0.3336996548198269</v>
+        <v>7.780958121242406</v>
       </c>
       <c r="FM3">
-        <v>0.3335246151389157</v>
+        <v>0.3380345460239832</v>
       </c>
       <c r="FN3">
-        <v>0.3335246151389157</v>
+        <v>6.319195864496008</v>
       </c>
       <c r="FO3">
-        <v>0.3334417837934479</v>
+        <v>2.430534262882361</v>
       </c>
       <c r="FP3">
-        <v>0.3335187404532235</v>
+        <v>19.75637459763154</v>
       </c>
       <c r="FQ3">
-        <v>0.3336963015490386</v>
+        <v>2.332946529794814</v>
       </c>
       <c r="FR3">
-        <v>0.3336963015490386</v>
+        <v>0.3458656425031132</v>
       </c>
       <c r="FS3">
-        <v>0.3343830711937399</v>
+        <v>3.119518444505927</v>
       </c>
       <c r="FT3">
-        <v>0.3335208830949115</v>
+        <v>7.091191262604064</v>
       </c>
       <c r="FU3">
-        <v>0.3335755899293072</v>
+        <v>1.667647228438093</v>
       </c>
       <c r="FV3">
-        <v>0.3334785967580362</v>
+        <v>47.00098371388282</v>
       </c>
       <c r="FW3">
-        <v>0.3334417837934479</v>
+        <v>13.2002609234422</v>
       </c>
       <c r="FX3">
-        <v>0.3339702713466876</v>
+        <v>4.219745336674078</v>
       </c>
       <c r="FY3">
-        <v>0.3335246151389157</v>
+        <v>0.3366905034447299</v>
       </c>
       <c r="FZ3">
-        <v>0.3336817428774365</v>
+        <v>50.4161955966774</v>
       </c>
       <c r="GA3">
-        <v>0.3338510450715169</v>
+        <v>32.02196011238014</v>
       </c>
       <c r="GB3">
-        <v>0.3334626086106283</v>
+        <v>1.352577028798142</v>
       </c>
       <c r="GC3">
-        <v>0.333558638726522</v>
+        <v>0.3333607875110237</v>
       </c>
       <c r="GD3">
-        <v>0.3336938761738353</v>
+        <v>1.379094541461376</v>
       </c>
       <c r="GE3">
-        <v>0.3335246151389157</v>
+        <v>0.3348160416961522</v>
       </c>
       <c r="GF3">
-        <v>0.3335246151389157</v>
+        <v>0.3529325064745037</v>
       </c>
       <c r="GG3">
-        <v>0.333667599470476</v>
+        <v>65.8671590313019</v>
       </c>
       <c r="GH3">
-        <v>0.3334647040634101</v>
+        <v>0.3333360407109393</v>
       </c>
       <c r="GI3">
-        <v>0.3336534783400251</v>
+        <v>1.337698313959877</v>
       </c>
       <c r="GJ3">
-        <v>0.3337764970113359</v>
+        <v>0.3333361039988464</v>
       </c>
       <c r="GK3">
-        <v>0.3334417837934479</v>
+        <v>1.333134881089413</v>
       </c>
       <c r="GL3">
-        <v>0.3338809809326269</v>
+        <v>0.3333360407109393</v>
       </c>
       <c r="GM3">
-        <v>0.3343204723121995</v>
+        <v>0.3338447643035296</v>
       </c>
       <c r="GN3">
-        <v>0.3339459622291777</v>
+        <v>0.3333361039988464</v>
       </c>
       <c r="GO3">
-        <v>0.3337368499794994</v>
+        <v>0.347957671774644</v>
       </c>
       <c r="GP3">
-        <v>0.3334417837934479</v>
+        <v>0.3333360407109393</v>
       </c>
       <c r="GQ3">
-        <v>0.3335570343323327</v>
+        <v>1.457809628348685</v>
       </c>
       <c r="GR3">
-        <v>0.3334417837934479</v>
+        <v>4.327770103110177</v>
       </c>
       <c r="GS3">
-        <v>0.3335959641029027</v>
+        <v>0.3890115859897065</v>
       </c>
     </row>
     <row r="4" spans="1:201">
@@ -2803,604 +2803,604 @@
         <v>202</v>
       </c>
       <c r="B4">
-        <v>0.3333500034978622</v>
+        <v>0.3341418727682018</v>
       </c>
       <c r="C4">
-        <v>1.321899248438874</v>
+        <v>16.31763260797966</v>
       </c>
       <c r="D4">
-        <v>0.3333574638394761</v>
+        <v>6.301076996166179</v>
       </c>
       <c r="E4">
-        <v>3.333985218059136</v>
+        <v>0.3465459450557981</v>
       </c>
       <c r="F4">
-        <v>0.3333824059954156</v>
+        <v>2.272945324705104</v>
       </c>
       <c r="G4">
-        <v>3.333124227449512</v>
+        <v>0.390012610561175</v>
       </c>
       <c r="H4">
-        <v>1.332406574771051</v>
+        <v>1.362534347991178</v>
       </c>
       <c r="I4">
-        <v>0.3333509373279541</v>
+        <v>0.3454710866188762</v>
       </c>
       <c r="J4">
-        <v>15.33312978559981</v>
+        <v>0.3349640708821719</v>
       </c>
       <c r="K4">
-        <v>10.33311226327264</v>
+        <v>0.3333357050496172</v>
       </c>
       <c r="L4">
-        <v>3.33312123173311</v>
+        <v>0.3641572838066696</v>
       </c>
       <c r="M4">
-        <v>1.328183132262125</v>
+        <v>0.3675790885389637</v>
       </c>
       <c r="N4">
-        <v>3.33303459052903</v>
+        <v>0.356107429902522</v>
       </c>
       <c r="O4">
-        <v>39.38209135607914</v>
+        <v>0.419698757869311</v>
       </c>
       <c r="P4">
-        <v>4.333126791965261</v>
+        <v>20.92517457580158</v>
       </c>
       <c r="Q4">
-        <v>17.33738624633552</v>
+        <v>1.186719509288875</v>
       </c>
       <c r="R4">
-        <v>3.333122843294467</v>
+        <v>52.73336110724614</v>
       </c>
       <c r="S4">
-        <v>7.334471280675561</v>
+        <v>23.89420805256772</v>
       </c>
       <c r="T4">
-        <v>0.3333524224832781</v>
+        <v>28.42765757168352</v>
       </c>
       <c r="U4">
-        <v>5.334155259173585</v>
+        <v>64.57656469577012</v>
       </c>
       <c r="V4">
-        <v>3.33238090180269</v>
+        <v>31.85722191264455</v>
       </c>
       <c r="W4">
-        <v>0.3333824059954156</v>
+        <v>74.02579641980476</v>
       </c>
       <c r="X4">
-        <v>9.333130593478835</v>
+        <v>31.46732743029942</v>
       </c>
       <c r="Y4">
-        <v>1.330746420406853</v>
+        <v>0.339553765805334</v>
       </c>
       <c r="Z4">
-        <v>1.33194876810103</v>
+        <v>562.1291258766267</v>
       </c>
       <c r="AA4">
-        <v>0.3333463482458324</v>
+        <v>0.3358959736981928</v>
       </c>
       <c r="AB4">
-        <v>0.3333574638394761</v>
+        <v>162.1042755164615</v>
       </c>
       <c r="AC4">
-        <v>5.330296696985614</v>
+        <v>253.767061061039</v>
       </c>
       <c r="AD4">
-        <v>12.33705366034103</v>
+        <v>4.606864928195741</v>
       </c>
       <c r="AE4">
-        <v>32.35452055929002</v>
+        <v>0.3463252838926712</v>
       </c>
       <c r="AF4">
-        <v>0.3334063806853284</v>
+        <v>0.333345467269222</v>
       </c>
       <c r="AG4">
-        <v>0.3333511555707726</v>
+        <v>0.3671346387643191</v>
       </c>
       <c r="AH4">
-        <v>2.328722200351767</v>
+        <v>23.62788360573936</v>
       </c>
       <c r="AI4">
-        <v>1.33290402129323</v>
+        <v>0.3582243050910373</v>
       </c>
       <c r="AJ4">
-        <v>4.333942059196735</v>
+        <v>0.3333419444820493</v>
       </c>
       <c r="AK4">
-        <v>11.3330552328183</v>
+        <v>0.3778391712060653</v>
       </c>
       <c r="AL4">
-        <v>3.33307764951187</v>
+        <v>0.3497902875381788</v>
       </c>
       <c r="AM4">
-        <v>9.333002748791653</v>
+        <v>10.60506001328785</v>
       </c>
       <c r="AN4">
-        <v>0.3333463482458324</v>
+        <v>2.267353960504438</v>
       </c>
       <c r="AO4">
-        <v>0.3333509373279541</v>
+        <v>0.3333357604908727</v>
       </c>
       <c r="AP4">
-        <v>0.3333508035641077</v>
+        <v>0.3779050437830637</v>
       </c>
       <c r="AQ4">
-        <v>0.3333468176561123</v>
+        <v>0.3333357604908727</v>
       </c>
       <c r="AR4">
-        <v>3.334379403124388</v>
+        <v>0.3936551922470558</v>
       </c>
       <c r="AS4">
-        <v>2.332751584017471</v>
+        <v>0.3351088797599384</v>
       </c>
       <c r="AT4">
-        <v>0.3333507133088883</v>
+        <v>202.8836051478637</v>
       </c>
       <c r="AU4">
-        <v>5.333294614429697</v>
+        <v>0.5043125287657617</v>
       </c>
       <c r="AV4">
-        <v>5.330293147604333</v>
+        <v>0.3955797720644165</v>
       </c>
       <c r="AW4">
-        <v>5.331721033995204</v>
+        <v>0.3341418727682018</v>
       </c>
       <c r="AX4">
-        <v>0.3333580281159678</v>
+        <v>0.3582676173856912</v>
       </c>
       <c r="AY4">
-        <v>0.3334788780741383</v>
+        <v>0.6338376661325739</v>
       </c>
       <c r="AZ4">
-        <v>2.33296201292552</v>
+        <v>0.3333423700051963</v>
       </c>
       <c r="BA4">
-        <v>0.3333463482458324</v>
+        <v>128.1735557588686</v>
       </c>
       <c r="BB4">
-        <v>0.3333462493578085</v>
+        <v>0.3350771707766254</v>
       </c>
       <c r="BC4">
-        <v>0.3333468176561123</v>
+        <v>0.4074302786377761</v>
       </c>
       <c r="BD4">
-        <v>0.3333511555707726</v>
+        <v>0.3575440962107302</v>
       </c>
       <c r="BE4">
-        <v>4.33305400487607</v>
+        <v>0.3333420554597317</v>
       </c>
       <c r="BF4">
-        <v>1.331145643852051</v>
+        <v>0.3341418727682018</v>
       </c>
       <c r="BG4">
-        <v>3.331218904146331</v>
+        <v>0.3415390008706601</v>
       </c>
       <c r="BH4">
-        <v>2.33296201292552</v>
+        <v>125.0092268186948</v>
       </c>
       <c r="BI4">
-        <v>2.329059986132898</v>
+        <v>130.7167091148192</v>
       </c>
       <c r="BJ4">
-        <v>11.33312898292251</v>
+        <v>9.043649440080488</v>
       </c>
       <c r="BK4">
-        <v>0.3334788780741383</v>
+        <v>0.3333356760134137</v>
       </c>
       <c r="BL4">
-        <v>12.33468556113232</v>
+        <v>1.474452254402591</v>
       </c>
       <c r="BM4">
-        <v>2.33296201292552</v>
+        <v>3.705069219810176</v>
       </c>
       <c r="BN4">
-        <v>9.330012920969704</v>
+        <v>0.3462965968659898</v>
       </c>
       <c r="BO4">
-        <v>2.333117913632145</v>
+        <v>3.489621958647827</v>
       </c>
       <c r="BP4">
-        <v>1.332406574771051</v>
+        <v>0.3333423700051963</v>
       </c>
       <c r="BQ4">
-        <v>0.3333468176561123</v>
+        <v>7.320322286702015</v>
       </c>
       <c r="BR4">
-        <v>1.33290402129323</v>
+        <v>0.3504809452825528</v>
       </c>
       <c r="BS4">
-        <v>0.3333468176561123</v>
+        <v>8.937367565407893</v>
       </c>
       <c r="BT4">
-        <v>0.3333465095861687</v>
+        <v>3.604985755224345</v>
       </c>
       <c r="BU4">
-        <v>0.3333460001442963</v>
+        <v>0.3344271594958504</v>
       </c>
       <c r="BV4">
-        <v>2.333768840272589</v>
+        <v>3.328355717756045</v>
       </c>
       <c r="BW4">
-        <v>2.333117913632145</v>
+        <v>0.3341418727682018</v>
       </c>
       <c r="BX4">
-        <v>0.3333511555707726</v>
+        <v>8.376957700585802</v>
       </c>
       <c r="BY4">
-        <v>3.33303459052903</v>
+        <v>6.083143357595002</v>
       </c>
       <c r="BZ4">
-        <v>0.3333511555707726</v>
+        <v>22.8479431074513</v>
       </c>
       <c r="CA4">
-        <v>4.333126052352363</v>
+        <v>32.89545654601888</v>
       </c>
       <c r="CB4">
-        <v>8.333103725464527</v>
+        <v>153.0969882802419</v>
       </c>
       <c r="CC4">
-        <v>0.3333465095861687</v>
+        <v>0.3840846585932024</v>
       </c>
       <c r="CD4">
-        <v>3.333055847676002</v>
+        <v>0.3512399359272443</v>
       </c>
       <c r="CE4">
-        <v>6.333126503361934</v>
+        <v>46.27127838951397</v>
       </c>
       <c r="CF4">
-        <v>2.33296201292552</v>
+        <v>0.3333420554597317</v>
       </c>
       <c r="CG4">
-        <v>6.333317354830403</v>
+        <v>1.326651039776999</v>
       </c>
       <c r="CH4">
-        <v>1.33231463930351</v>
+        <v>1.410345372747385</v>
       </c>
       <c r="CI4">
-        <v>1.33314243217931</v>
+        <v>0.3333443711632182</v>
       </c>
       <c r="CJ4">
-        <v>0.3333824059954156</v>
+        <v>0.3357124345228648</v>
       </c>
       <c r="CK4">
-        <v>0.3333580281159678</v>
+        <v>0.3349780629966038</v>
       </c>
       <c r="CL4">
-        <v>0.3333460701243207</v>
+        <v>5.691809560002485</v>
       </c>
       <c r="CM4">
-        <v>0.3333468176561123</v>
+        <v>0.3480410600704894</v>
       </c>
       <c r="CN4">
-        <v>2.333263982253552</v>
+        <v>0.333345467269222</v>
       </c>
       <c r="CO4">
-        <v>0.3333524224832781</v>
+        <v>0.3509811559184787</v>
       </c>
       <c r="CP4">
-        <v>3.333078649494076</v>
+        <v>0.4071678473765188</v>
       </c>
       <c r="CQ4">
-        <v>2.333117913632145</v>
+        <v>0.3343894733879955</v>
       </c>
       <c r="CR4">
-        <v>0.3333468176561123</v>
+        <v>0.3481721635370419</v>
       </c>
       <c r="CS4">
-        <v>2.332382915704621</v>
+        <v>0.3333357604908727</v>
       </c>
       <c r="CT4">
-        <v>1.33314243217931</v>
+        <v>0.3400336499552908</v>
       </c>
       <c r="CU4">
-        <v>3.333055847676002</v>
+        <v>53.99527571552617</v>
       </c>
       <c r="CV4">
-        <v>0.3333824059954156</v>
+        <v>0.3333357604908727</v>
       </c>
       <c r="CW4">
-        <v>3.33240480452435</v>
+        <v>39.15496407537947</v>
       </c>
       <c r="CX4">
-        <v>0.333356710704137</v>
+        <v>9.864603415315717</v>
       </c>
       <c r="CY4">
-        <v>0.3333571683253367</v>
+        <v>0.3340694710952175</v>
       </c>
       <c r="CZ4">
-        <v>4.333124572963508</v>
+        <v>0.3333357604908727</v>
       </c>
       <c r="DA4">
-        <v>0.3333824059954156</v>
+        <v>0.3363817664603135</v>
       </c>
       <c r="DB4">
-        <v>2.333117913632145</v>
+        <v>0.3361254771208994</v>
       </c>
       <c r="DC4">
-        <v>2.332382915704621</v>
+        <v>0.3352187815062804</v>
       </c>
       <c r="DD4">
-        <v>4.333059252757051</v>
+        <v>0.3350890931615815</v>
       </c>
       <c r="DE4">
-        <v>4.333059252757051</v>
+        <v>0.3337231998796781</v>
       </c>
       <c r="DF4">
-        <v>4.33060314516173</v>
+        <v>0.3378973490567813</v>
       </c>
       <c r="DG4">
-        <v>1.332535334718247</v>
+        <v>5.033886812666113</v>
       </c>
       <c r="DH4">
-        <v>0.3333505611197186</v>
+        <v>12.50773268516379</v>
       </c>
       <c r="DI4">
-        <v>2.333117913632145</v>
+        <v>0.3341418727682018</v>
       </c>
       <c r="DJ4">
-        <v>0.3333468176561123</v>
+        <v>0.3333423700051963</v>
       </c>
       <c r="DK4">
-        <v>1.335152203312679</v>
+        <v>0.3333357050496172</v>
       </c>
       <c r="DL4">
-        <v>0.3333468176561123</v>
+        <v>0.3349640708821719</v>
       </c>
       <c r="DM4">
-        <v>3.333123228976599</v>
+        <v>0.3368465603449822</v>
       </c>
       <c r="DN4">
-        <v>0.3333574638394761</v>
+        <v>14.38678526239537</v>
       </c>
       <c r="DO4">
-        <v>4.333123833187549</v>
+        <v>36.71442014161096</v>
       </c>
       <c r="DP4">
-        <v>1.33290402129323</v>
+        <v>0.3354574124140652</v>
       </c>
       <c r="DQ4">
-        <v>0.3333824059954156</v>
+        <v>0.3333355938340691</v>
       </c>
       <c r="DR4">
-        <v>0.3333465095861687</v>
+        <v>0.351508725075291</v>
       </c>
       <c r="DS4">
-        <v>1.33314243217931</v>
+        <v>0.3333355936170737</v>
       </c>
       <c r="DT4">
-        <v>7.345433740087331</v>
+        <v>0.3341418727682018</v>
       </c>
       <c r="DU4">
-        <v>10.31946544904749</v>
+        <v>0.3402949516399377</v>
       </c>
       <c r="DV4">
-        <v>3.333064485509476</v>
+        <v>0.3341418727682018</v>
       </c>
       <c r="DW4">
-        <v>0.3333824059954156</v>
+        <v>0.3341418727682018</v>
       </c>
       <c r="DX4">
-        <v>2.33296201292552</v>
+        <v>0.3760897581198019</v>
       </c>
       <c r="DY4">
-        <v>5.33490824457403</v>
+        <v>0.3334077941769406</v>
       </c>
       <c r="DZ4">
-        <v>9.33299917945533</v>
+        <v>0.3485623009635558</v>
       </c>
       <c r="EA4">
-        <v>3.33312123173311</v>
+        <v>462.6719501752061</v>
       </c>
       <c r="EB4">
-        <v>4.330545799666419</v>
+        <v>0.3914129139140892</v>
       </c>
       <c r="EC4">
-        <v>4.333123833187549</v>
+        <v>0.3338594187339564</v>
       </c>
       <c r="ED4">
-        <v>2.333117913632145</v>
+        <v>0.3598639102024215</v>
       </c>
       <c r="EE4">
-        <v>3.333064485509476</v>
+        <v>0.3341418727682018</v>
       </c>
       <c r="EF4">
-        <v>2.333117913632145</v>
+        <v>43.17361087106951</v>
       </c>
       <c r="EG4">
-        <v>0.3333824059954156</v>
+        <v>0.3341418727682018</v>
       </c>
       <c r="EH4">
-        <v>0.3333524224832781</v>
+        <v>0.4015862834704273</v>
       </c>
       <c r="EI4">
-        <v>0.3333580281159678</v>
+        <v>33.69978387423144</v>
       </c>
       <c r="EJ4">
-        <v>3.326058031807623</v>
+        <v>13.96106965035535</v>
       </c>
       <c r="EK4">
-        <v>0.3333508035641077</v>
+        <v>10.30624174124096</v>
       </c>
       <c r="EL4">
-        <v>3.33303459052903</v>
+        <v>0.3438272571675239</v>
       </c>
       <c r="EM4">
-        <v>0.3333468176561123</v>
+        <v>1.386114198508402</v>
       </c>
       <c r="EN4">
-        <v>0.3333471601615193</v>
+        <v>23.93340262336114</v>
       </c>
       <c r="EO4">
-        <v>1.331145643852051</v>
+        <v>0.3752533313554445</v>
       </c>
       <c r="EP4">
-        <v>2.333243614429952</v>
+        <v>7.751380168900917</v>
       </c>
       <c r="EQ4">
-        <v>0.3333468176561123</v>
+        <v>5.251768284282767</v>
       </c>
       <c r="ER4">
-        <v>12.33298422431275</v>
+        <v>0.3608208431209066</v>
       </c>
       <c r="ES4">
-        <v>4.333102450592646</v>
+        <v>0.3358220865183633</v>
       </c>
       <c r="ET4">
-        <v>0.3333468176561123</v>
+        <v>0.3333423700051963</v>
       </c>
       <c r="EU4">
-        <v>3.33312123173311</v>
+        <v>0.3333357604908727</v>
       </c>
       <c r="EV4">
-        <v>0.3333504263141651</v>
+        <v>0.4705774744135333</v>
       </c>
       <c r="EW4">
-        <v>3.33312123173311</v>
+        <v>7.900517182919492</v>
       </c>
       <c r="EX4">
-        <v>1.330725372010307</v>
+        <v>30.45790979572481</v>
       </c>
       <c r="EY4">
-        <v>0.3334755460365929</v>
+        <v>0.3662842023656065</v>
       </c>
       <c r="EZ4">
-        <v>0.3334788780741383</v>
+        <v>0.3770027604814623</v>
       </c>
       <c r="FA4">
-        <v>5.344010856866824</v>
+        <v>14.5969359855042</v>
       </c>
       <c r="FB4">
-        <v>4.333108434026803</v>
+        <v>24.82475357107059</v>
       </c>
       <c r="FC4">
-        <v>1.33290402129323</v>
+        <v>0.3468992693747379</v>
       </c>
       <c r="FD4">
-        <v>0.333346098397064</v>
+        <v>1.627982580237066</v>
       </c>
       <c r="FE4">
-        <v>1.33314243217931</v>
+        <v>0.3624476619569503</v>
       </c>
       <c r="FF4">
-        <v>0.3333574638394761</v>
+        <v>0.3945652052323568</v>
       </c>
       <c r="FG4">
-        <v>2.327620202266581</v>
+        <v>0.355410515553464</v>
       </c>
       <c r="FH4">
-        <v>0.333353812104776</v>
+        <v>0.3333357604908727</v>
       </c>
       <c r="FI4">
-        <v>0.3333468176561123</v>
+        <v>27.20611896987844</v>
       </c>
       <c r="FJ4">
-        <v>0.3333462493578085</v>
+        <v>0.3446942381336318</v>
       </c>
       <c r="FK4">
-        <v>4.33297497668932</v>
+        <v>25.01999008239348</v>
       </c>
       <c r="FL4">
-        <v>1.33314243217931</v>
+        <v>14.99599382752254</v>
       </c>
       <c r="FM4">
-        <v>2.333117913632145</v>
+        <v>0.3349640708821719</v>
       </c>
       <c r="FN4">
-        <v>2.333117913632145</v>
+        <v>0.3468796206631472</v>
       </c>
       <c r="FO4">
-        <v>0.3333468176561123</v>
+        <v>0.3690332971225374</v>
       </c>
       <c r="FP4">
-        <v>3.333124227449512</v>
+        <v>20.14402105177571</v>
       </c>
       <c r="FQ4">
-        <v>0.3333824059954156</v>
+        <v>0.3333447965446406</v>
       </c>
       <c r="FR4">
-        <v>0.3333824059954156</v>
+        <v>21.35811122838909</v>
       </c>
       <c r="FS4">
-        <v>1.325719743261061</v>
+        <v>1.664282974153469</v>
       </c>
       <c r="FT4">
-        <v>5.33312542758943</v>
+        <v>0.3455147231164438</v>
       </c>
       <c r="FU4">
-        <v>4.333059252757051</v>
+        <v>6.500781900249111</v>
       </c>
       <c r="FV4">
-        <v>0.3333565832998104</v>
+        <v>5.590183148979982</v>
       </c>
       <c r="FW4">
-        <v>0.3333468176561123</v>
+        <v>0.3550408927562666</v>
       </c>
       <c r="FX4">
-        <v>0.3334179474435727</v>
+        <v>5.043480797840522</v>
       </c>
       <c r="FY4">
-        <v>2.333117913632145</v>
+        <v>0.3345083786925549</v>
       </c>
       <c r="FZ4">
-        <v>4.334984878698912</v>
+        <v>87.38712077962356</v>
       </c>
       <c r="GA4">
-        <v>2.332751584017471</v>
+        <v>1.668093896017283</v>
       </c>
       <c r="GB4">
-        <v>0.3333511555707726</v>
+        <v>0.3337334111610407</v>
       </c>
       <c r="GC4">
-        <v>3.333078649494076</v>
+        <v>0.3381547034166341</v>
       </c>
       <c r="GD4">
-        <v>0.3333820790805382</v>
+        <v>0.334133777278734</v>
       </c>
       <c r="GE4">
-        <v>2.333117913632145</v>
+        <v>0.3338594187339564</v>
       </c>
       <c r="GF4">
-        <v>2.333117913632145</v>
+        <v>0.4498372379112627</v>
       </c>
       <c r="GG4">
-        <v>1.332427222008421</v>
+        <v>26.14589998732016</v>
       </c>
       <c r="GH4">
-        <v>0.3333524224832781</v>
+        <v>0.3333357050496172</v>
       </c>
       <c r="GI4">
-        <v>17.33820759482226</v>
+        <v>0.3929793740098524</v>
       </c>
       <c r="GJ4">
-        <v>25.34729205646247</v>
+        <v>0.3333357604908727</v>
       </c>
       <c r="GK4">
-        <v>0.3333468176561123</v>
+        <v>0.333345467269222</v>
       </c>
       <c r="GL4">
-        <v>0.3334273159960086</v>
+        <v>0.3333357050496172</v>
       </c>
       <c r="GM4">
-        <v>0.3334788780741383</v>
+        <v>0.4024709066501166</v>
       </c>
       <c r="GN4">
-        <v>3.332645123163003</v>
+        <v>0.3333357604908727</v>
       </c>
       <c r="GO4">
-        <v>0.333388792649746</v>
+        <v>0.3413619887435558</v>
       </c>
       <c r="GP4">
-        <v>0.3333468176561123</v>
+        <v>0.3333357050496172</v>
       </c>
       <c r="GQ4">
-        <v>5.333082817829762</v>
+        <v>5.556510680194206</v>
       </c>
       <c r="GR4">
-        <v>0.3333468176561123</v>
+        <v>0.3365742107470043</v>
       </c>
       <c r="GS4">
-        <v>5.333040504630805</v>
+        <v>0.369875168469342</v>
       </c>
     </row>
   </sheetData>

--- a/word_features/季/ENG,2020-7~2020-10,主题_词矩阵.xlsx
+++ b/word_features/季/ENG,2020-7~2020-10,主题_词矩阵.xlsx
@@ -14,606 +14,1206 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
-  <si>
-    <t>acmecs</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="403">
+  <si>
+    <t>abiy</t>
+  </si>
+  <si>
+    <t>abrog</t>
+  </si>
+  <si>
+    <t>abundantli</t>
+  </si>
+  <si>
+    <t>acknowledg</t>
+  </si>
+  <si>
+    <t>acmec</t>
   </si>
   <si>
     <t>action</t>
   </si>
   <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>actively</t>
-  </si>
-  <si>
-    <t>advancing</t>
-  </si>
-  <si>
-    <t>agenda</t>
-  </si>
-  <si>
-    <t>agricultural</t>
-  </si>
-  <si>
-    <t>agriculture</t>
+    <t>advanc</t>
+  </si>
+  <si>
+    <t>afghan</t>
   </si>
   <si>
     <t>agroproduct</t>
   </si>
   <si>
-    <t>appreciating</t>
-  </si>
-  <si>
-    <t>asean</t>
-  </si>
-  <si>
-    <t>basin</t>
+    <t>ahead</t>
+  </si>
+  <si>
+    <t>ahmadian</t>
+  </si>
+  <si>
+    <t>airlift</t>
+  </si>
+  <si>
+    <t>alleg</t>
+  </si>
+  <si>
+    <t>allout</t>
+  </si>
+  <si>
+    <t>alp</t>
+  </si>
+  <si>
+    <t>alvi</t>
+  </si>
+  <si>
+    <t>andrey</t>
+  </si>
+  <si>
+    <t>animos</t>
+  </si>
+  <si>
+    <t>antifascist</t>
+  </si>
+  <si>
+    <t>argentin</t>
+  </si>
+  <si>
+    <t>arif</t>
+  </si>
+  <si>
+    <t>asia</t>
+  </si>
+  <si>
+    <t>aspir</t>
+  </si>
+  <si>
+    <t>assembl</t>
+  </si>
+  <si>
+    <t>assist</t>
+  </si>
+  <si>
+    <t>astray</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>aylward</t>
+  </si>
+  <si>
+    <t>backward</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>basi</t>
+  </si>
+  <si>
+    <t>bat</t>
+  </si>
+  <si>
+    <t>battulga</t>
+  </si>
+  <si>
+    <t>baucu</t>
+  </si>
+  <si>
+    <t>becaus</t>
+  </si>
+  <si>
+    <t>becom</t>
+  </si>
+  <si>
+    <t>belief</t>
   </si>
   <si>
     <t>belt</t>
   </si>
   <si>
-    <t>benefit</t>
-  </si>
-  <si>
-    <t>benefits</t>
-  </si>
-  <si>
-    <t>biodiversity</t>
-  </si>
-  <si>
-    <t>brazil</t>
-  </si>
-  <si>
-    <t>build</t>
-  </si>
-  <si>
-    <t>building</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>capacity</t>
-  </si>
-  <si>
-    <t>center</t>
-  </si>
-  <si>
-    <t>challenges</t>
-  </si>
-  <si>
-    <t>charter</t>
-  </si>
-  <si>
-    <t>china</t>
-  </si>
-  <si>
-    <t>chinalaos</t>
-  </si>
-  <si>
-    <t>chinas</t>
-  </si>
-  <si>
-    <t>chinese</t>
-  </si>
-  <si>
-    <t>choice</t>
-  </si>
-  <si>
-    <t>climate</t>
-  </si>
-  <si>
-    <t>commemoration</t>
-  </si>
-  <si>
-    <t>commending</t>
+    <t>billion</t>
+  </si>
+  <si>
+    <t>biodivers</t>
+  </si>
+  <si>
+    <t>bitter</t>
+  </si>
+  <si>
+    <t>blind</t>
+  </si>
+  <si>
+    <t>bode</t>
+  </si>
+  <si>
+    <t>botch</t>
+  </si>
+  <si>
+    <t>bounnhang</t>
+  </si>
+  <si>
+    <t>bulli</t>
+  </si>
+  <si>
+    <t>busi</t>
+  </si>
+  <si>
+    <t>capacitybuild</t>
+  </si>
+  <si>
+    <t>carbon</t>
+  </si>
+  <si>
+    <t>carter</t>
+  </si>
+  <si>
+    <t>casablanca</t>
+  </si>
+  <si>
+    <t>centuri</t>
+  </si>
+  <si>
+    <t>challeng</t>
+  </si>
+  <si>
+    <t>chang</t>
+  </si>
+  <si>
+    <t>chinaat</t>
+  </si>
+  <si>
+    <t>chinabash</t>
+  </si>
+  <si>
+    <t>choic</t>
+  </si>
+  <si>
+    <t>clearmind</t>
+  </si>
+  <si>
+    <t>climat</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>commit</t>
   </si>
   <si>
     <t>common</t>
   </si>
   <si>
-    <t>complementarity</t>
-  </si>
-  <si>
-    <t>confrontation</t>
-  </si>
-  <si>
-    <t>connectivity</t>
-  </si>
-  <si>
-    <t>consultation</t>
-  </si>
-  <si>
-    <t>contribute</t>
-  </si>
-  <si>
-    <t>contributing</t>
-  </si>
-  <si>
-    <t>convening</t>
-  </si>
-  <si>
-    <t>cooperation</t>
-  </si>
-  <si>
-    <t>cooperationthe</t>
-  </si>
-  <si>
-    <t>coordination</t>
-  </si>
-  <si>
-    <t>corridor</t>
-  </si>
-  <si>
-    <t>countries</t>
-  </si>
-  <si>
-    <t>crossborder</t>
-  </si>
-  <si>
-    <t>cultural</t>
-  </si>
-  <si>
-    <t>dam</t>
-  </si>
-  <si>
-    <t>declaration</t>
-  </si>
-  <si>
-    <t>deepening</t>
+    <t>communiqu</t>
+  </si>
+  <si>
+    <t>comprehens</t>
+  </si>
+  <si>
+    <t>concern</t>
+  </si>
+  <si>
+    <t>confidencebuild</t>
+  </si>
+  <si>
+    <t>congratulatori</t>
+  </si>
+  <si>
+    <t>conjur</t>
+  </si>
+  <si>
+    <t>consequenti</t>
+  </si>
+  <si>
+    <t>continu</t>
+  </si>
+  <si>
+    <t>contribut</t>
+  </si>
+  <si>
+    <t>coordin</t>
+  </si>
+  <si>
+    <t>core</t>
+  </si>
+  <si>
+    <t>counterargu</t>
+  </si>
+  <si>
+    <t>counternarcot</t>
+  </si>
+  <si>
+    <t>counterterror</t>
+  </si>
+  <si>
+    <t>courag</t>
+  </si>
+  <si>
+    <t>coverup</t>
+  </si>
+  <si>
+    <t>covidth</t>
+  </si>
+  <si>
+    <t>cpc</t>
+  </si>
+  <si>
+    <t>crank</t>
+  </si>
+  <si>
+    <t>credibl</t>
+  </si>
+  <si>
+    <t>crisi</t>
+  </si>
+  <si>
+    <t>cuban</t>
+  </si>
+  <si>
+    <t>daili</t>
+  </si>
+  <si>
+    <t>daszak</t>
+  </si>
+  <si>
+    <t>daydream</t>
+  </si>
+  <si>
+    <t>decad</t>
+  </si>
+  <si>
+    <t>deceiv</t>
+  </si>
+  <si>
+    <t>deepen</t>
+  </si>
+  <si>
+    <t>deepwat</t>
   </si>
   <si>
     <t>defend</t>
   </si>
   <si>
-    <t>development</t>
-  </si>
-  <si>
-    <t>dialogues</t>
-  </si>
-  <si>
-    <t>digital</t>
-  </si>
-  <si>
-    <t>disaster</t>
-  </si>
-  <si>
-    <t>distinguished</t>
-  </si>
-  <si>
-    <t>drought</t>
-  </si>
-  <si>
-    <t>droughts</t>
-  </si>
-  <si>
-    <t>economic</t>
-  </si>
-  <si>
-    <t>economy</t>
-  </si>
-  <si>
-    <t>encourage</t>
+    <t>deliber</t>
+  </si>
+  <si>
+    <t>deplor</t>
+  </si>
+  <si>
+    <t>detain</t>
+  </si>
+  <si>
+    <t>dialogu</t>
+  </si>
+  <si>
+    <t>diazcanel</t>
+  </si>
+  <si>
+    <t>difficulti</t>
+  </si>
+  <si>
+    <t>dioxid</t>
+  </si>
+  <si>
+    <t>disarma</t>
+  </si>
+  <si>
+    <t>discredit</t>
+  </si>
+  <si>
+    <t>distort</t>
+  </si>
+  <si>
+    <t>doom</t>
+  </si>
+  <si>
+    <t>earth</t>
+  </si>
+  <si>
+    <t>ecmo</t>
+  </si>
+  <si>
+    <t>ecoenviron</t>
+  </si>
+  <si>
+    <t>econom</t>
+  </si>
+  <si>
+    <t>economi</t>
+  </si>
+  <si>
+    <t>effort</t>
+  </si>
+  <si>
+    <t>embodi</t>
+  </si>
+  <si>
+    <t>emergingmarket</t>
+  </si>
+  <si>
+    <t>emiss</t>
+  </si>
+  <si>
+    <t>encircl</t>
+  </si>
+  <si>
+    <t>encount</t>
   </si>
   <si>
     <t>endeavor</t>
   </si>
   <si>
-    <t>engage</t>
-  </si>
-  <si>
-    <t>enhance</t>
-  </si>
-  <si>
-    <t>enhancing</t>
-  </si>
-  <si>
-    <t>environmental</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>exchange</t>
-  </si>
-  <si>
-    <t>exchanges</t>
-  </si>
-  <si>
-    <t>existing</t>
-  </si>
-  <si>
-    <t>explore</t>
-  </si>
-  <si>
-    <t>fairness</t>
-  </si>
-  <si>
-    <t>fiveyear</t>
-  </si>
-  <si>
-    <t>flood</t>
+    <t>energi</t>
+  </si>
+  <si>
+    <t>enlai</t>
+  </si>
+  <si>
+    <t>enorm</t>
+  </si>
+  <si>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>erron</t>
+  </si>
+  <si>
+    <t>essenc</t>
+  </si>
+  <si>
+    <t>esteem</t>
+  </si>
+  <si>
+    <t>europ</t>
+  </si>
+  <si>
+    <t>experi</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>explicit</t>
+  </si>
+  <si>
+    <t>expound</t>
+  </si>
+  <si>
+    <t>extracorpor</t>
+  </si>
+  <si>
+    <t>factual</t>
+  </si>
+  <si>
+    <t>fanfar</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>financi</t>
+  </si>
+  <si>
+    <t>fingerpoint</t>
+  </si>
+  <si>
+    <t>firmli</t>
+  </si>
+  <si>
+    <t>fivememb</t>
+  </si>
+  <si>
+    <t>folli</t>
+  </si>
+  <si>
+    <t>follow</t>
+  </si>
+  <si>
+    <t>forc</t>
+  </si>
+  <si>
+    <t>fortifi</t>
   </si>
   <si>
     <t>forward</t>
   </si>
   <si>
-    <t>framework</t>
-  </si>
-  <si>
-    <t>fund</t>
-  </si>
-  <si>
-    <t>future</t>
+    <t>foundat</t>
+  </si>
+  <si>
+    <t>fourth</t>
+  </si>
+  <si>
+    <t>fuell</t>
+  </si>
+  <si>
+    <t>fulfil</t>
+  </si>
+  <si>
+    <t>fungu</t>
+  </si>
+  <si>
+    <t>futur</t>
+  </si>
+  <si>
+    <t>geingob</t>
+  </si>
+  <si>
+    <t>geospati</t>
   </si>
   <si>
     <t>global</t>
   </si>
   <si>
-    <t>governance</t>
-  </si>
-  <si>
-    <t>green</t>
+    <t>gm</t>
+  </si>
+  <si>
+    <t>goal</t>
+  </si>
+  <si>
+    <t>govern</t>
+  </si>
+  <si>
+    <t>govt</t>
   </si>
   <si>
     <t>growth</t>
   </si>
   <si>
-    <t>guests</t>
-  </si>
-  <si>
-    <t>heritage</t>
-  </si>
-  <si>
-    <t>historical</t>
+    <t>guid</t>
+  </si>
+  <si>
+    <t>haass</t>
+  </si>
+  <si>
+    <t>hage</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>heed</t>
+  </si>
+  <si>
+    <t>henri</t>
+  </si>
+  <si>
+    <t>herebi</t>
+  </si>
+  <si>
+    <t>homeland</t>
   </si>
   <si>
     <t>hotspot</t>
   </si>
   <si>
-    <t>hydrological</t>
-  </si>
-  <si>
-    <t>impetus</t>
-  </si>
-  <si>
-    <t>implement</t>
-  </si>
-  <si>
-    <t>implementation</t>
-  </si>
-  <si>
-    <t>improvement</t>
-  </si>
-  <si>
-    <t>inclusiveness</t>
-  </si>
-  <si>
-    <t>industrial</t>
-  </si>
-  <si>
-    <t>integrated</t>
-  </si>
-  <si>
-    <t>integration</t>
-  </si>
-  <si>
-    <t>inter</t>
-  </si>
-  <si>
-    <t>interconnected</t>
-  </si>
-  <si>
-    <t>international</t>
-  </si>
-  <si>
-    <t>intra</t>
-  </si>
-  <si>
-    <t>investment</t>
+    <t>howev</t>
+  </si>
+  <si>
+    <t>human</t>
+  </si>
+  <si>
+    <t>icebreak</t>
+  </si>
+  <si>
+    <t>ideolog</t>
+  </si>
+  <si>
+    <t>ideologydriven</t>
+  </si>
+  <si>
+    <t>ignor</t>
+  </si>
+  <si>
+    <t>ii</t>
+  </si>
+  <si>
+    <t>iii</t>
+  </si>
+  <si>
+    <t>impact</t>
+  </si>
+  <si>
+    <t>impetu</t>
+  </si>
+  <si>
+    <t>implicitli</t>
+  </si>
+  <si>
+    <t>improv</t>
+  </si>
+  <si>
+    <t>imran</t>
+  </si>
+  <si>
+    <t>inclus</t>
+  </si>
+  <si>
+    <t>incorrect</t>
+  </si>
+  <si>
+    <t>increas</t>
+  </si>
+  <si>
+    <t>increasingli</t>
+  </si>
+  <si>
+    <t>indisput</t>
+  </si>
+  <si>
+    <t>institut</t>
+  </si>
+  <si>
+    <t>insurmount</t>
+  </si>
+  <si>
+    <t>interact</t>
+  </si>
+  <si>
+    <t>interconnect</t>
+  </si>
+  <si>
+    <t>interf</t>
+  </si>
+  <si>
+    <t>interfer</t>
+  </si>
+  <si>
+    <t>intl</t>
+  </si>
+  <si>
+    <t>invest</t>
+  </si>
+  <si>
+    <t>iv</t>
+  </si>
+  <si>
+    <t>jimmi</t>
+  </si>
+  <si>
+    <t>jinmi</t>
+  </si>
+  <si>
+    <t>jixian</t>
   </si>
   <si>
     <t>joint</t>
   </si>
   <si>
-    <t>justice</t>
-  </si>
-  <si>
-    <t>jwgs</t>
-  </si>
-  <si>
-    <t>lancang</t>
-  </si>
-  <si>
-    <t>lancangmekong</t>
-  </si>
-  <si>
-    <t>landsea</t>
-  </si>
-  <si>
-    <t>lanes</t>
-  </si>
-  <si>
-    <t>lao</t>
-  </si>
-  <si>
-    <t>lasting</t>
-  </si>
-  <si>
-    <t>laws</t>
-  </si>
-  <si>
-    <t>leaders</t>
-  </si>
-  <si>
-    <t>leveraging</t>
-  </si>
-  <si>
-    <t>lie</t>
-  </si>
-  <si>
-    <t>linkages</t>
-  </si>
-  <si>
-    <t>linking</t>
-  </si>
-  <si>
-    <t>lmc</t>
-  </si>
-  <si>
-    <t>management</t>
-  </si>
-  <si>
-    <t>meeting</t>
-  </si>
-  <si>
-    <t>mekong</t>
-  </si>
-  <si>
-    <t>mekonglancang</t>
-  </si>
-  <si>
-    <t>ministerial</t>
-  </si>
-  <si>
-    <t>mlc</t>
+    <t>jong</t>
+  </si>
+  <si>
+    <t>judgment</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>khaltmaa</t>
+  </si>
+  <si>
+    <t>khurelsukh</t>
+  </si>
+  <si>
+    <t>kissing</t>
+  </si>
+  <si>
+    <t>konyndyk</t>
+  </si>
+  <si>
+    <t>kuhn</t>
+  </si>
+  <si>
+    <t>kyoto</t>
+  </si>
+  <si>
+    <t>law</t>
+  </si>
+  <si>
+    <t>lawbas</t>
+  </si>
+  <si>
+    <t>lead</t>
+  </si>
+  <si>
+    <t>leader</t>
+  </si>
+  <si>
+    <t>leak</t>
+  </si>
+  <si>
+    <t>legal</t>
+  </si>
+  <si>
+    <t>legitim</t>
+  </si>
+  <si>
+    <t>leverag</t>
+  </si>
+  <si>
+    <t>liangjiah</t>
+  </si>
+  <si>
+    <t>lockdown</t>
+  </si>
+  <si>
+    <t>loess</t>
+  </si>
+  <si>
+    <t>longarm</t>
+  </si>
+  <si>
+    <t>longterm</t>
+  </si>
+  <si>
+    <t>lowcarbon</t>
+  </si>
+  <si>
+    <t>madeinchina</t>
+  </si>
+  <si>
+    <t>mainstay</t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>majorcountri</t>
+  </si>
+  <si>
+    <t>mani</t>
+  </si>
+  <si>
+    <t>mankind</t>
+  </si>
+  <si>
+    <t>martyr</t>
+  </si>
+  <si>
+    <t>mccarthi</t>
+  </si>
+  <si>
+    <t>meddl</t>
+  </si>
+  <si>
+    <t>memorandum</t>
+  </si>
+  <si>
+    <t>miguel</t>
+  </si>
+  <si>
+    <t>miltomil</t>
+  </si>
+  <si>
+    <t>miscalcul</t>
+  </si>
+  <si>
+    <t>misread</t>
+  </si>
+  <si>
+    <t>mission</t>
+  </si>
+  <si>
+    <t>misstep</t>
+  </si>
+  <si>
+    <t>mln</t>
+  </si>
+  <si>
+    <t>moder</t>
+  </si>
+  <si>
+    <t>mongolian</t>
   </si>
   <si>
     <t>mrc</t>
   </si>
   <si>
-    <t>multilateralism</t>
-  </si>
-  <si>
-    <t>multination</t>
+    <t>multilater</t>
   </si>
   <si>
     <t>multipark</t>
   </si>
   <si>
-    <t>mutual</t>
-  </si>
-  <si>
-    <t>negotiation</t>
-  </si>
-  <si>
-    <t>openness</t>
-  </si>
-  <si>
-    <t>pandemic</t>
-  </si>
-  <si>
-    <t>partnership</t>
+    <t>namibian</t>
+  </si>
+  <si>
+    <t>narcot</t>
+  </si>
+  <si>
+    <t>natur</t>
+  </si>
+  <si>
+    <t>necessarili</t>
+  </si>
+  <si>
+    <t>neutral</t>
+  </si>
+  <si>
+    <t>nicer</t>
+  </si>
+  <si>
+    <t>nineday</t>
+  </si>
+  <si>
+    <t>nonconflict</t>
+  </si>
+  <si>
+    <t>nonconfront</t>
+  </si>
+  <si>
+    <t>noncpc</t>
+  </si>
+  <si>
+    <t>nonfossil</t>
+  </si>
+  <si>
+    <t>nonprolifer</t>
+  </si>
+  <si>
+    <t>nuclear</t>
+  </si>
+  <si>
+    <t>nyt</t>
+  </si>
+  <si>
+    <t>obamaera</t>
+  </si>
+  <si>
+    <t>oblig</t>
+  </si>
+  <si>
+    <t>ofth</t>
+  </si>
+  <si>
+    <t>onli</t>
+  </si>
+  <si>
+    <t>openaccess</t>
+  </si>
+  <si>
+    <t>ophthalmologist</t>
+  </si>
+  <si>
+    <t>opinion</t>
+  </si>
+  <si>
+    <t>ostrovski</t>
+  </si>
+  <si>
+    <t>overstress</t>
+  </si>
+  <si>
+    <t>pair</t>
+  </si>
+  <si>
+    <t>pandem</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>paramet</t>
+  </si>
+  <si>
+    <t>path</t>
   </si>
   <si>
     <t>pdr</t>
   </si>
   <si>
-    <t>peace</t>
-  </si>
-  <si>
-    <t>penh</t>
-  </si>
-  <si>
-    <t>peoples</t>
-  </si>
-  <si>
-    <t>phnom</t>
-  </si>
-  <si>
-    <t>pillar</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>platform</t>
-  </si>
-  <si>
-    <t>poverty</t>
-  </si>
-  <si>
-    <t>practical</t>
-  </si>
-  <si>
-    <t>principles</t>
-  </si>
-  <si>
-    <t>progress</t>
-  </si>
-  <si>
-    <t>projects</t>
-  </si>
-  <si>
-    <t>promote</t>
-  </si>
-  <si>
-    <t>promoting</t>
-  </si>
-  <si>
-    <t>promotion</t>
-  </si>
-  <si>
-    <t>prosperity</t>
-  </si>
-  <si>
-    <t>reaffirmed</t>
-  </si>
-  <si>
-    <t>reaffirming</t>
-  </si>
-  <si>
-    <t>reduction</t>
+    <t>peasant</t>
+  </si>
+  <si>
+    <t>peoplefirst</t>
+  </si>
+  <si>
+    <t>perceiv</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>peruvian</t>
+  </si>
+  <si>
+    <t>polici</t>
+  </si>
+  <si>
+    <t>polit</t>
+  </si>
+  <si>
+    <t>popul</t>
+  </si>
+  <si>
+    <t>portray</t>
+  </si>
+  <si>
+    <t>potenti</t>
+  </si>
+  <si>
+    <t>poverti</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>principl</t>
+  </si>
+  <si>
+    <t>prism</t>
+  </si>
+  <si>
+    <t>profound</t>
+  </si>
+  <si>
+    <t>proper</t>
+  </si>
+  <si>
+    <t>prosper</t>
+  </si>
+  <si>
+    <t>protrump</t>
+  </si>
+  <si>
+    <t>provincesst</t>
+  </si>
+  <si>
+    <t>provoc</t>
+  </si>
+  <si>
+    <t>prudenc</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>pursu</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>redress</t>
+  </si>
+  <si>
+    <t>reduct</t>
   </si>
   <si>
     <t>reform</t>
   </si>
   <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>regional</t>
-  </si>
-  <si>
-    <t>relations</t>
-  </si>
-  <si>
-    <t>republic</t>
-  </si>
-  <si>
-    <t>resources</t>
-  </si>
-  <si>
-    <t>respective</t>
-  </si>
-  <si>
-    <t>revolution</t>
-  </si>
-  <si>
-    <t>river</t>
-  </si>
-  <si>
-    <t>road</t>
-  </si>
-  <si>
-    <t>safeguard</t>
-  </si>
-  <si>
-    <t>sectoral</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>settlement</t>
-  </si>
-  <si>
-    <t>shared</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>sihanoukville</t>
-  </si>
-  <si>
-    <t>silk</t>
-  </si>
-  <si>
-    <t>socioeconomic</t>
-  </si>
-  <si>
-    <t>solidarity</t>
+    <t>refut</t>
+  </si>
+  <si>
+    <t>regress</t>
+  </si>
+  <si>
+    <t>rejuven</t>
+  </si>
+  <si>
+    <t>republ</t>
+  </si>
+  <si>
+    <t>resili</t>
+  </si>
+  <si>
+    <t>resort</t>
+  </si>
+  <si>
+    <t>restrict</t>
+  </si>
+  <si>
+    <t>retrospect</t>
+  </si>
+  <si>
+    <t>revolut</t>
+  </si>
+  <si>
+    <t>revolutionari</t>
+  </si>
+  <si>
+    <t>richard</t>
+  </si>
+  <si>
+    <t>rise</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>salah</t>
+  </si>
+  <si>
+    <t>sarscovsuch</t>
+  </si>
+  <si>
+    <t>seek</t>
+  </si>
+  <si>
+    <t>selfserv</t>
+  </si>
+  <si>
+    <t>serial</t>
+  </si>
+  <si>
+    <t>session</t>
+  </si>
+  <si>
+    <t>sevenplu</t>
+  </si>
+  <si>
+    <t>sever</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>shortcom</t>
+  </si>
+  <si>
+    <t>slander</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>socialist</t>
+  </si>
+  <si>
+    <t>solemnli</t>
+  </si>
+  <si>
+    <t>solidar</t>
+  </si>
+  <si>
+    <t>sophist</t>
+  </si>
+  <si>
+    <t>sour</t>
+  </si>
+  <si>
+    <t>southampton</t>
   </si>
   <si>
     <t>southsouth</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>spirit</t>
   </si>
   <si>
-    <t>steadily</t>
-  </si>
-  <si>
-    <t>strategies</t>
-  </si>
-  <si>
-    <t>strengthen</t>
-  </si>
-  <si>
-    <t>strengthening</t>
-  </si>
-  <si>
-    <t>stronger</t>
-  </si>
-  <si>
-    <t>subregion</t>
+    <t>stabil</t>
+  </si>
+  <si>
+    <t>statesmen</t>
+  </si>
+  <si>
+    <t>stigmat</t>
+  </si>
+  <si>
+    <t>stitch</t>
+  </si>
+  <si>
+    <t>strateg</t>
+  </si>
+  <si>
+    <t>strategi</t>
+  </si>
+  <si>
+    <t>strength</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>submiss</t>
+  </si>
+  <si>
+    <t>succeed</t>
+  </si>
+  <si>
+    <t>summon</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>sustainable</t>
-  </si>
-  <si>
-    <t>synergy</t>
-  </si>
-  <si>
-    <t>tangible</t>
-  </si>
-  <si>
-    <t>theme</t>
+    <t>sympathi</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>systemat</t>
+  </si>
+  <si>
+    <t>tamper</t>
+  </si>
+  <si>
+    <t>teamwork</t>
+  </si>
+  <si>
+    <t>tenaci</t>
+  </si>
+  <si>
+    <t>terror</t>
+  </si>
+  <si>
+    <t>thereaft</t>
+  </si>
+  <si>
+    <t>thi</t>
   </si>
   <si>
     <t>threeyear</t>
   </si>
   <si>
-    <t>tourism</t>
-  </si>
-  <si>
-    <t>trade</t>
-  </si>
-  <si>
-    <t>trafficking</t>
-  </si>
-  <si>
-    <t>trajectory</t>
-  </si>
-  <si>
-    <t>transboundary</t>
-  </si>
-  <si>
-    <t>unique</t>
-  </si>
-  <si>
-    <t>utilization</t>
-  </si>
-  <si>
-    <t>utilize</t>
-  </si>
-  <si>
-    <t>visions</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>welcoming</t>
-  </si>
-  <si>
-    <t>wellbeing</t>
+    <t>time</t>
+  </si>
+  <si>
+    <t>timorlest</t>
+  </si>
+  <si>
+    <t>togeth</t>
+  </si>
+  <si>
+    <t>totalitarian</t>
+  </si>
+  <si>
+    <t>traffick</t>
+  </si>
+  <si>
+    <t>treati</t>
+  </si>
+  <si>
+    <t>treeplant</t>
+  </si>
+  <si>
+    <t>tremend</t>
+  </si>
+  <si>
+    <t>tugofwar</t>
+  </si>
+  <si>
+    <t>twist</t>
+  </si>
+  <si>
+    <t>ukhnaa</t>
+  </si>
+  <si>
+    <t>underlin</t>
+  </si>
+  <si>
+    <t>undesir</t>
+  </si>
+  <si>
+    <t>unearth</t>
+  </si>
+  <si>
+    <t>unequivoc</t>
+  </si>
+  <si>
+    <t>unfavor</t>
+  </si>
+  <si>
+    <t>unilater</t>
+  </si>
+  <si>
+    <t>univers</t>
+  </si>
+  <si>
+    <t>unseen</t>
+  </si>
+  <si>
+    <t>unshak</t>
+  </si>
+  <si>
+    <t>untrustworthi</t>
+  </si>
+  <si>
+    <t>upheld</t>
+  </si>
+  <si>
+    <t>uphold</t>
+  </si>
+  <si>
+    <t>vein</t>
+  </si>
+  <si>
+    <t>vicious</t>
+  </si>
+  <si>
+    <t>view</t>
+  </si>
+  <si>
+    <t>vigor</t>
+  </si>
+  <si>
+    <t>viru</t>
+  </si>
+  <si>
+    <t>vision</t>
+  </si>
+  <si>
+    <t>visionari</t>
+  </si>
+  <si>
+    <t>vizcarra</t>
+  </si>
+  <si>
+    <t>voa</t>
+  </si>
+  <si>
+    <t>vorachith</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>waver</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>wellb</t>
+  </si>
+  <si>
+    <t>wellpublic</t>
+  </si>
+  <si>
+    <t>wenliang</t>
+  </si>
+  <si>
+    <t>whochina</t>
+  </si>
+  <si>
+    <t>wholeheart</t>
+  </si>
+  <si>
+    <t>wholeheartedli</t>
+  </si>
+  <si>
+    <t>whoorgan</t>
   </si>
   <si>
     <t>winwin</t>
   </si>
   <si>
-    <t>zone</t>
+    <t>wrath</t>
+  </si>
+  <si>
+    <t>xi</t>
+  </si>
+  <si>
+    <t>yahui</t>
+  </si>
+  <si>
+    <t>zedong</t>
+  </si>
+  <si>
+    <t>zerosum</t>
+  </si>
+  <si>
+    <t>zhime</t>
   </si>
   <si>
     <t>主题1</t>
@@ -980,13 +1580,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GS4"/>
+  <dimension ref="A1:OK4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:201">
+    <row r="1" spans="1:401">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1587,1820 +2187,4220 @@
       <c r="GS1" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="GT1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="GU1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="GV1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="GW1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="GX1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="GY1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="GZ1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="HA1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="HB1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="HC1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="HD1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="HE1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="HF1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="HG1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="HH1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="HI1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="HJ1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="HK1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="HL1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="HM1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="HN1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="HO1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="HP1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="HQ1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="HR1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="HS1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="HT1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="HU1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="HV1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="HW1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="HX1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="HY1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="HZ1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="IA1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="IB1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="IC1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="ID1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="IE1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="IF1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="IG1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="IH1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="II1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="IJ1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="IK1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="IL1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="IM1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="IN1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="IO1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="IP1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="IQ1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="IR1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="IS1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="IT1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="IU1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="IV1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="IW1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="IX1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="IY1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="IZ1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="JA1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="JB1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="JC1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="JD1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="JE1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="JF1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="JG1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="JH1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="JI1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="JJ1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="JK1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="JL1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="JM1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="JN1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="JO1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="JP1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="JQ1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="JR1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="JS1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="JT1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="JU1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="JV1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="JW1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="JX1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="JY1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="JZ1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="KA1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="KB1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="KC1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="KD1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="KE1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="KF1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="KG1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="KH1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="KI1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="KJ1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="KK1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="KL1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="KM1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="KN1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="KO1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="KP1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="KQ1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="KR1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="KS1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="KT1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="KU1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="KV1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="KW1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="KX1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="KY1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="KZ1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="LA1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="LB1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="LC1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="LD1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="LE1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="LF1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="LG1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="LH1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="LI1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="LJ1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="LK1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="LL1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="LM1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="LN1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="LO1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="LP1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="LQ1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="LR1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="LS1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="LT1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="LU1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="LV1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="LW1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="LX1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="LY1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="LZ1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="MA1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="MB1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="MC1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="MD1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="ME1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="MF1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="MG1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="MH1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="MI1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="MJ1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="MK1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="ML1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="MM1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="MN1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="MO1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="MP1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="MQ1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="MR1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="MS1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="MT1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="MU1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="MV1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="MW1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="MX1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="MY1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="MZ1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="NA1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="NB1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="NC1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="ND1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="NE1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="NF1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="NG1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="NH1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="NI1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="NJ1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="NK1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="NL1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="NM1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="NN1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="NO1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="NP1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="NQ1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="NR1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="NS1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="NT1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="NU1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="NV1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="NW1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="NX1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="NY1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="NZ1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="OA1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="OB1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="OC1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="OD1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="OE1" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="OF1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="OG1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="OH1" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="OI1" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="OJ1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="OK1" s="1" t="s">
+        <v>399</v>
+      </c>
     </row>
-    <row r="2" spans="1:201">
+    <row r="2" spans="1:401">
       <c r="A2" s="1" t="s">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="B2">
-        <v>2.330231989349027</v>
+        <v>0.3359453520882622</v>
       </c>
       <c r="C2">
-        <v>15.23712269735103</v>
+        <v>0.337173691000752</v>
       </c>
       <c r="D2">
-        <v>5.308167567096587</v>
+        <v>0.335863767425523</v>
       </c>
       <c r="E2">
-        <v>0.745437304732722</v>
+        <v>0.3681664170385928</v>
       </c>
       <c r="F2">
-        <v>4.359414858155148</v>
+        <v>0.3642427384247662</v>
       </c>
       <c r="G2">
-        <v>8.335665205416747</v>
+        <v>4.482770189807807</v>
       </c>
       <c r="H2">
-        <v>12.23327284865149</v>
+        <v>187.6164292557876</v>
       </c>
       <c r="I2">
-        <v>5.219316720261736</v>
+        <v>0.3455777065104523</v>
       </c>
       <c r="J2">
-        <v>2.327001383093256</v>
+        <v>0.3693924456201798</v>
       </c>
       <c r="K2">
-        <v>3.333328254238967</v>
+        <v>36.87844225407769</v>
       </c>
       <c r="L2">
-        <v>16.73598539799963</v>
+        <v>0.337031283509965</v>
       </c>
       <c r="M2">
-        <v>2.290957766409638</v>
+        <v>0.337031283509965</v>
       </c>
       <c r="N2">
-        <v>4.299084928817231</v>
+        <v>0.3753632741995729</v>
       </c>
       <c r="O2">
-        <v>7.283256272202747</v>
+        <v>0.3460846013033562</v>
       </c>
       <c r="P2">
-        <v>8.705390691263792</v>
+        <v>0.337031283509965</v>
       </c>
       <c r="Q2">
-        <v>3.601680272314268</v>
+        <v>0.337031283509965</v>
       </c>
       <c r="R2">
-        <v>0.3387969337570725</v>
+        <v>0.337031283509965</v>
       </c>
       <c r="S2">
-        <v>7.898983212129917</v>
+        <v>0.3359645674704015</v>
       </c>
       <c r="T2">
-        <v>14.77691887902718</v>
+        <v>0.3405605699899581</v>
       </c>
       <c r="U2">
-        <v>17.95051149610581</v>
+        <v>0.351169152497307</v>
       </c>
       <c r="V2">
-        <v>18.73718703449055</v>
+        <v>0.337031283509965</v>
       </c>
       <c r="W2">
-        <v>18.23761855584639</v>
+        <v>62.94299296229859</v>
       </c>
       <c r="X2">
-        <v>7.995376838938827</v>
+        <v>0.3906777536853492</v>
       </c>
       <c r="Y2">
-        <v>2.461079323950408</v>
+        <v>0.3786647109477376</v>
       </c>
       <c r="Z2">
-        <v>9.578419218896066</v>
+        <v>114.8713082636212</v>
       </c>
       <c r="AA2">
-        <v>3.327747787761737</v>
+        <v>0.3344071681060342</v>
       </c>
       <c r="AB2">
-        <v>4.377414777053451</v>
+        <v>120.4311891144283</v>
       </c>
       <c r="AC2">
-        <v>0.3733521746066685</v>
+        <v>0.3459683950088872</v>
       </c>
       <c r="AD2">
-        <v>0.3569553035398721</v>
+        <v>0.3563815172561312</v>
       </c>
       <c r="AE2">
-        <v>7.225140028471103</v>
+        <v>115.4015693184862</v>
       </c>
       <c r="AF2">
-        <v>1.333519651640044</v>
+        <v>58.76800513059372</v>
       </c>
       <c r="AG2">
-        <v>4.299439433843716</v>
+        <v>0.345601759264097</v>
       </c>
       <c r="AH2">
-        <v>3.321058417695945</v>
+        <v>0.337031283509965</v>
       </c>
       <c r="AI2">
-        <v>4.968243191543007</v>
+        <v>0.3348886413005362</v>
       </c>
       <c r="AJ2">
-        <v>0.3333444377214012</v>
+        <v>1.412255424646291</v>
       </c>
       <c r="AK2">
-        <v>19.38470248485123</v>
+        <v>169.1244397312222</v>
       </c>
       <c r="AL2">
-        <v>3.370425921055051</v>
+        <v>0.3625915548376151</v>
       </c>
       <c r="AM2">
-        <v>3.234502238473087</v>
+        <v>78.39947791905618</v>
       </c>
       <c r="AN2">
-        <v>4.327176740558923</v>
+        <v>378.9476849952209</v>
       </c>
       <c r="AO2">
-        <v>2.333328135509793</v>
+        <v>11.12163750965034</v>
       </c>
       <c r="AP2">
-        <v>160.3473796330908</v>
+        <v>0.3499833352157611</v>
       </c>
       <c r="AQ2">
-        <v>2.333328135509793</v>
+        <v>0.3528902319829236</v>
       </c>
       <c r="AR2">
-        <v>7.35947301691913</v>
+        <v>0.4234117821355804</v>
       </c>
       <c r="AS2">
-        <v>6.27474312485723</v>
+        <v>0.3585660966332606</v>
       </c>
       <c r="AT2">
-        <v>71.84196168230142</v>
+        <v>0.337031283509965</v>
       </c>
       <c r="AU2">
-        <v>5.663417789485207</v>
+        <v>0.3657901255849403</v>
       </c>
       <c r="AV2">
-        <v>10.12216107013109</v>
+        <v>231.7552850628942</v>
       </c>
       <c r="AW2">
-        <v>2.330231989349027</v>
+        <v>0.337173691000752</v>
       </c>
       <c r="AX2">
-        <v>2.363416761252683</v>
+        <v>1.210439889348089</v>
       </c>
       <c r="AY2">
-        <v>3.919600222597252</v>
+        <v>0.3893625559397894</v>
       </c>
       <c r="AZ2">
-        <v>0.3333449864635119</v>
+        <v>0.337031283509965</v>
       </c>
       <c r="BA2">
-        <v>71.54462229974664</v>
+        <v>16.69049690394934</v>
       </c>
       <c r="BB2">
-        <v>5.011536658631775</v>
+        <v>118.0648389253649</v>
       </c>
       <c r="BC2">
-        <v>7.595351986511671</v>
+        <v>87.02106527429923</v>
       </c>
       <c r="BD2">
-        <v>3.208874109177718</v>
+        <v>0.3579279067440105</v>
       </c>
       <c r="BE2">
-        <v>0.3333445808348174</v>
+        <v>0.3359645674704015</v>
       </c>
       <c r="BF2">
-        <v>2.330231989349027</v>
+        <v>0.3962825740853879</v>
       </c>
       <c r="BG2">
-        <v>5.308908628609944</v>
+        <v>0.337173691000752</v>
       </c>
       <c r="BH2">
-        <v>43.33293880585163</v>
+        <v>15.42122936851554</v>
       </c>
       <c r="BI2">
-        <v>10.46868308227853</v>
+        <v>75.62654947766673</v>
       </c>
       <c r="BJ2">
-        <v>8.619748144665529</v>
+        <v>103.752988663865</v>
       </c>
       <c r="BK2">
-        <v>4.333328316420896</v>
+        <v>24.07468551906143</v>
       </c>
       <c r="BL2">
-        <v>1.339574104295612</v>
+        <v>2.217847455162625</v>
       </c>
       <c r="BM2">
-        <v>12.90487363212777</v>
+        <v>59.55872994230986</v>
       </c>
       <c r="BN2">
-        <v>24.30129124907433</v>
+        <v>12.18077185151328</v>
       </c>
       <c r="BO2">
-        <v>19.41352830203158</v>
+        <v>0.337173691000752</v>
       </c>
       <c r="BP2">
-        <v>0.3333449864635119</v>
+        <v>0.3412078701880688</v>
       </c>
       <c r="BQ2">
-        <v>10.95267915554237</v>
+        <v>0.4085056483551744</v>
       </c>
       <c r="BR2">
-        <v>16.61677821200021</v>
+        <v>0.3578501716348993</v>
       </c>
       <c r="BS2">
-        <v>4.76689570791165</v>
+        <v>282.4362284827984</v>
       </c>
       <c r="BT2">
-        <v>9.042913553839254</v>
+        <v>146.9684199752822</v>
       </c>
       <c r="BU2">
-        <v>0.3333925279032589</v>
+        <v>106.2410968504449</v>
       </c>
       <c r="BV2">
-        <v>5.302917496682913</v>
+        <v>20.70764149173562</v>
       </c>
       <c r="BW2">
-        <v>2.330231989349027</v>
+        <v>0.3348886413005362</v>
       </c>
       <c r="BX2">
-        <v>3.742060058492343</v>
+        <v>0.337173691000752</v>
       </c>
       <c r="BY2">
-        <v>3.233129995718445</v>
+        <v>0.3400026313484485</v>
       </c>
       <c r="BZ2">
-        <v>18.94560123980665</v>
+        <v>0.3599623396388421</v>
       </c>
       <c r="CA2">
-        <v>13.62971974591384</v>
+        <v>0.3352966713390519</v>
       </c>
       <c r="CB2">
-        <v>4.888465195081036</v>
+        <v>0.3348886413005362</v>
       </c>
       <c r="CC2">
-        <v>1.604876766185659</v>
+        <v>0.3620586906761637</v>
       </c>
       <c r="CD2">
-        <v>8.309332867756986</v>
+        <v>0.337031283509965</v>
       </c>
       <c r="CE2">
-        <v>15.55064776040087</v>
+        <v>0.387406077911549</v>
       </c>
       <c r="CF2">
-        <v>0.3333445808348174</v>
+        <v>85.59762453342717</v>
       </c>
       <c r="CG2">
-        <v>5.336789670054054</v>
+        <v>0.3358157885095835</v>
       </c>
       <c r="CH2">
-        <v>1.359077973129821</v>
+        <v>153.525836838147</v>
       </c>
       <c r="CI2">
-        <v>0.3333502563335839</v>
+        <v>0.3359645674704015</v>
       </c>
       <c r="CJ2">
-        <v>5.329191618459694</v>
+        <v>0.335849527089375</v>
       </c>
       <c r="CK2">
-        <v>2.231845147505616</v>
+        <v>127.6022321244982</v>
       </c>
       <c r="CL2">
-        <v>9.176151013833858</v>
+        <v>0.3403570895349968</v>
       </c>
       <c r="CM2">
-        <v>19.2793282347876</v>
+        <v>35.10332462817664</v>
       </c>
       <c r="CN2">
-        <v>1.333519651640044</v>
+        <v>3.087120645793726</v>
       </c>
       <c r="CO2">
-        <v>2.456608806064183</v>
+        <v>0.3471232273847401</v>
       </c>
       <c r="CP2">
-        <v>17.94633060132629</v>
+        <v>0.3718093214646152</v>
       </c>
       <c r="CQ2">
-        <v>3.329266962479017</v>
+        <v>0.3401054699031004</v>
       </c>
       <c r="CR2">
-        <v>5.283541387968645</v>
+        <v>0.3506762258864082</v>
       </c>
       <c r="CS2">
-        <v>2.333328135509793</v>
+        <v>0.3782992129690447</v>
       </c>
       <c r="CT2">
-        <v>0.943271192470688</v>
+        <v>0.3358157885095835</v>
       </c>
       <c r="CU2">
-        <v>12.57079920088551</v>
+        <v>28.42778658183436</v>
       </c>
       <c r="CV2">
-        <v>2.333328135509793</v>
+        <v>0.8421100396113881</v>
       </c>
       <c r="CW2">
-        <v>16.29480094373483</v>
+        <v>0.3486528422809628</v>
       </c>
       <c r="CX2">
-        <v>24.0023221637379</v>
+        <v>0.3391792886560743</v>
       </c>
       <c r="CY2">
-        <v>0.3343124458456471</v>
+        <v>0.3382509076406449</v>
       </c>
       <c r="CZ2">
-        <v>2.333328135509793</v>
+        <v>0.3666701764366826</v>
       </c>
       <c r="DA2">
-        <v>7.329036505343322</v>
+        <v>0.3989860545241249</v>
       </c>
       <c r="DB2">
-        <v>20.32772529478516</v>
+        <v>0.337031283509965</v>
       </c>
       <c r="DC2">
-        <v>4.329226336359248</v>
+        <v>0.3651066877273316</v>
       </c>
       <c r="DD2">
-        <v>1.223965259487317</v>
+        <v>421.2657721246262</v>
       </c>
       <c r="DE2">
-        <v>4.331848406491056</v>
+        <v>365.6415880803725</v>
       </c>
       <c r="DF2">
-        <v>2.380961242492768</v>
+        <v>232.8509692497634</v>
       </c>
       <c r="DG2">
-        <v>5.683588597721682</v>
+        <v>0.3697224699530618</v>
       </c>
       <c r="DH2">
-        <v>22.9921654405333</v>
+        <v>0.337031283509965</v>
       </c>
       <c r="DI2">
-        <v>2.330231989349027</v>
+        <v>4.67588707335062</v>
       </c>
       <c r="DJ2">
-        <v>0.3333449864635119</v>
+        <v>0.3400537778575361</v>
       </c>
       <c r="DK2">
-        <v>3.333328254238967</v>
+        <v>1.182994515304499</v>
       </c>
       <c r="DL2">
-        <v>2.327001383093256</v>
+        <v>11.86763027697051</v>
       </c>
       <c r="DM2">
-        <v>27.32790583132769</v>
+        <v>78.39820140781266</v>
       </c>
       <c r="DN2">
-        <v>11.25814226550593</v>
+        <v>0.345290095351922</v>
       </c>
       <c r="DO2">
-        <v>46.21659316658739</v>
+        <v>7.149566783950072</v>
       </c>
       <c r="DP2">
-        <v>34.32880658346372</v>
+        <v>38.52821610868673</v>
       </c>
       <c r="DQ2">
-        <v>41.3333284924105</v>
+        <v>0.337173691000752</v>
       </c>
       <c r="DR2">
-        <v>7.939915756207079</v>
+        <v>0.3552546461286979</v>
       </c>
       <c r="DS2">
-        <v>42.3333284928752</v>
+        <v>0.3348886413005362</v>
       </c>
       <c r="DT2">
-        <v>2.330231989349027</v>
+        <v>56.40146117049697</v>
       </c>
       <c r="DU2">
-        <v>1.353707951638865</v>
+        <v>89.29882056953321</v>
       </c>
       <c r="DV2">
-        <v>2.330231989349027</v>
+        <v>58.88505922647468</v>
       </c>
       <c r="DW2">
-        <v>2.330231989349027</v>
+        <v>0.337173691000752</v>
       </c>
       <c r="DX2">
-        <v>10.34643667593054</v>
+        <v>0.3358973046712845</v>
       </c>
       <c r="DY2">
-        <v>1.798605133002661</v>
+        <v>0.337031283509965</v>
       </c>
       <c r="DZ2">
-        <v>2.156038112512086</v>
+        <v>0.3351861072262814</v>
       </c>
       <c r="EA2">
-        <v>4.179975766332912</v>
+        <v>0.3808141200925118</v>
       </c>
       <c r="EB2">
-        <v>18.12357033286259</v>
+        <v>0.337173691000752</v>
       </c>
       <c r="EC2">
-        <v>3.331324539569382</v>
+        <v>168.757522325358</v>
       </c>
       <c r="ED2">
-        <v>10.27211684047141</v>
+        <v>0.3419448191097589</v>
       </c>
       <c r="EE2">
-        <v>2.330231989349027</v>
+        <v>0.369927298156198</v>
       </c>
       <c r="EF2">
-        <v>13.92297751159435</v>
+        <v>0.3348886413005362</v>
       </c>
       <c r="EG2">
-        <v>2.330231989349027</v>
+        <v>0.3348886413005362</v>
       </c>
       <c r="EH2">
-        <v>4.261914948563441</v>
+        <v>34.53466566390451</v>
       </c>
       <c r="EI2">
-        <v>26.08185643280155</v>
+        <v>31.21737501346969</v>
       </c>
       <c r="EJ2">
-        <v>6.067260542060938</v>
+        <v>0.3559518224708883</v>
       </c>
       <c r="EK2">
-        <v>6.243665871933659</v>
+        <v>97.28888124610907</v>
       </c>
       <c r="EL2">
-        <v>4.186475568967592</v>
+        <v>92.93028217774588</v>
       </c>
       <c r="EM2">
-        <v>4.133360480897815</v>
+        <v>17.54450992198337</v>
       </c>
       <c r="EN2">
-        <v>6.847682366918773</v>
+        <v>0.3348886413005362</v>
       </c>
       <c r="EO2">
-        <v>24.03520615771694</v>
+        <v>0.3626193588416441</v>
       </c>
       <c r="EP2">
-        <v>22.64017117506075</v>
+        <v>0.3359764144452866</v>
       </c>
       <c r="EQ2">
-        <v>8.902256635021535</v>
+        <v>193.1145172102071</v>
       </c>
       <c r="ER2">
-        <v>4.344988831066112</v>
+        <v>0.337031283509965</v>
       </c>
       <c r="ES2">
-        <v>10.83127435861902</v>
+        <v>0.3426138922757206</v>
       </c>
       <c r="ET2">
-        <v>0.3333449864635119</v>
+        <v>305.4980785789382</v>
       </c>
       <c r="EU2">
-        <v>2.333328135509793</v>
+        <v>3.076625594898831</v>
       </c>
       <c r="EV2">
-        <v>9.726017119428947</v>
+        <v>101.1391010719525</v>
       </c>
       <c r="EW2">
-        <v>0.5271501172878614</v>
+        <v>225.1535578906435</v>
       </c>
       <c r="EX2">
-        <v>24.94674733808924</v>
+        <v>0.4527838204645636</v>
       </c>
       <c r="EY2">
-        <v>41.53308319673333</v>
+        <v>269.2529966681757</v>
       </c>
       <c r="EZ2">
-        <v>0.34674041506481</v>
+        <v>19.54419955757804</v>
       </c>
       <c r="FA2">
-        <v>7.893111524527572</v>
+        <v>0.3348886413005362</v>
       </c>
       <c r="FB2">
-        <v>41.75907555383769</v>
+        <v>0.337031283509965</v>
       </c>
       <c r="FC2">
-        <v>4.337738724997143</v>
+        <v>0.3904551087539702</v>
       </c>
       <c r="FD2">
-        <v>4.038144203330438</v>
+        <v>0.3407276880394118</v>
       </c>
       <c r="FE2">
-        <v>24.30291313879248</v>
+        <v>0.3615733197255442</v>
       </c>
       <c r="FF2">
-        <v>5.882670792899056</v>
+        <v>0.3420656009088948</v>
       </c>
       <c r="FG2">
-        <v>0.3337165050345722</v>
+        <v>8.022523929129857</v>
       </c>
       <c r="FH2">
-        <v>2.333328135509793</v>
+        <v>0.3579209290195822</v>
       </c>
       <c r="FI2">
-        <v>8.287674503710718</v>
+        <v>82.39574636357524</v>
       </c>
       <c r="FJ2">
-        <v>0.3333710306868292</v>
+        <v>29.517878339903</v>
       </c>
       <c r="FK2">
-        <v>12.94563199563432</v>
+        <v>0.337173691000752</v>
       </c>
       <c r="FL2">
-        <v>10.22304805123306</v>
+        <v>0.3590285139427836</v>
       </c>
       <c r="FM2">
-        <v>2.327001383093256</v>
+        <v>0.3348886413005362</v>
       </c>
       <c r="FN2">
-        <v>0.3339245148399001</v>
+        <v>0.3909283279285947</v>
       </c>
       <c r="FO2">
-        <v>9.200432439993421</v>
+        <v>0.3630314444210086</v>
       </c>
       <c r="FP2">
-        <v>4.099604350590764</v>
+        <v>0.3730834568378483</v>
       </c>
       <c r="FQ2">
-        <v>2.333708673659296</v>
+        <v>207.0491508688214</v>
       </c>
       <c r="FR2">
-        <v>19.29602312910633</v>
+        <v>21.6159257443814</v>
       </c>
       <c r="FS2">
-        <v>6.216198581338551</v>
+        <v>0.3356673078000418</v>
       </c>
       <c r="FT2">
-        <v>0.5632940142780174</v>
+        <v>206.9355640591502</v>
       </c>
       <c r="FU2">
-        <v>5.831570871310746</v>
+        <v>0.337031283509965</v>
       </c>
       <c r="FV2">
-        <v>17.4088331371352</v>
+        <v>6.559435758667769</v>
       </c>
       <c r="FW2">
-        <v>5.444698183800027</v>
+        <v>0.3528442521191173</v>
       </c>
       <c r="FX2">
-        <v>3.736773865483372</v>
+        <v>247.3876524606904</v>
       </c>
       <c r="FY2">
-        <v>4.328801117862171</v>
+        <v>43.34476658181177</v>
       </c>
       <c r="FZ2">
-        <v>36.19668362369705</v>
+        <v>0.3426138922757206</v>
       </c>
       <c r="GA2">
-        <v>22.30994599160054</v>
+        <v>182.125440403718</v>
       </c>
       <c r="GB2">
-        <v>4.313689560039536</v>
+        <v>0.394939874395175</v>
       </c>
       <c r="GC2">
-        <v>3.328484509071783</v>
+        <v>41.13683860729045</v>
       </c>
       <c r="GD2">
-        <v>2.286771681258586</v>
+        <v>2.878930130474467</v>
       </c>
       <c r="GE2">
-        <v>3.331324539569382</v>
+        <v>0.3596089826166699</v>
       </c>
       <c r="GF2">
-        <v>59.19723025561265</v>
+        <v>0.3520898182379643</v>
       </c>
       <c r="GG2">
-        <v>28.986940981376</v>
+        <v>0.3648245645206248</v>
       </c>
       <c r="GH2">
-        <v>3.333328254238967</v>
+        <v>264.2480181987289</v>
       </c>
       <c r="GI2">
-        <v>2.2693223120283</v>
+        <v>0.3594071278800564</v>
       </c>
       <c r="GJ2">
-        <v>2.333328135509793</v>
+        <v>0.384952234742428</v>
       </c>
       <c r="GK2">
-        <v>1.333519651640044</v>
+        <v>0.337031283509965</v>
       </c>
       <c r="GL2">
-        <v>3.333328254238967</v>
+        <v>0.3352966713390519</v>
       </c>
       <c r="GM2">
-        <v>3.263684329045088</v>
+        <v>87.41874309272332</v>
       </c>
       <c r="GN2">
-        <v>2.333328135509793</v>
+        <v>0.337031283509965</v>
       </c>
       <c r="GO2">
-        <v>47.31068033948099</v>
+        <v>0.5257989151633575</v>
       </c>
       <c r="GP2">
-        <v>3.333328254238967</v>
+        <v>184.6378187382439</v>
       </c>
       <c r="GQ2">
-        <v>9.98567969145501</v>
+        <v>0.337031283509965</v>
       </c>
       <c r="GR2">
-        <v>2.335655686141538</v>
+        <v>0.335754122991804</v>
       </c>
       <c r="GS2">
-        <v>6.24111324553945</v>
+        <v>0.3376221230892453</v>
+      </c>
+      <c r="GT2">
+        <v>0.3359645674704015</v>
+      </c>
+      <c r="GU2">
+        <v>0.3387553413456031</v>
+      </c>
+      <c r="GV2">
+        <v>0.342896830303539</v>
+      </c>
+      <c r="GW2">
+        <v>25.28057568076946</v>
+      </c>
+      <c r="GX2">
+        <v>0.3401829103345484</v>
+      </c>
+      <c r="GY2">
+        <v>138.4369761462724</v>
+      </c>
+      <c r="GZ2">
+        <v>73.79102031738874</v>
+      </c>
+      <c r="HA2">
+        <v>0.3346360234234135</v>
+      </c>
+      <c r="HB2">
+        <v>0.3907816288964147</v>
+      </c>
+      <c r="HC2">
+        <v>0.3731935190793525</v>
+      </c>
+      <c r="HD2">
+        <v>33.4031916217218</v>
+      </c>
+      <c r="HE2">
+        <v>0.337031283509965</v>
+      </c>
+      <c r="HF2">
+        <v>0.3856346607712584</v>
+      </c>
+      <c r="HG2">
+        <v>0.337031283509965</v>
+      </c>
+      <c r="HH2">
+        <v>0.3423314184802128</v>
+      </c>
+      <c r="HI2">
+        <v>133.147914025026</v>
+      </c>
+      <c r="HJ2">
+        <v>0.3891679638976243</v>
+      </c>
+      <c r="HK2">
+        <v>1.38960664923469</v>
+      </c>
+      <c r="HL2">
+        <v>6.674824425769203</v>
+      </c>
+      <c r="HM2">
+        <v>209.6065707796253</v>
+      </c>
+      <c r="HN2">
+        <v>0.337173691000752</v>
+      </c>
+      <c r="HO2">
+        <v>146.2748338059276</v>
+      </c>
+      <c r="HP2">
+        <v>0.3664696266398758</v>
+      </c>
+      <c r="HQ2">
+        <v>0.3358134965206676</v>
+      </c>
+      <c r="HR2">
+        <v>0.3709957926607095</v>
+      </c>
+      <c r="HS2">
+        <v>0.339714228201246</v>
+      </c>
+      <c r="HT2">
+        <v>4.168751265731841</v>
+      </c>
+      <c r="HU2">
+        <v>0.3358157885095835</v>
+      </c>
+      <c r="HV2">
+        <v>0.337173691000752</v>
+      </c>
+      <c r="HW2">
+        <v>0.339714228201246</v>
+      </c>
+      <c r="HX2">
+        <v>0.3352410455893275</v>
+      </c>
+      <c r="HY2">
+        <v>0.3649902245693865</v>
+      </c>
+      <c r="HZ2">
+        <v>0.336200357471413</v>
+      </c>
+      <c r="IA2">
+        <v>0.3626652253165713</v>
+      </c>
+      <c r="IB2">
+        <v>17.15597311762373</v>
+      </c>
+      <c r="IC2">
+        <v>0.335754122991804</v>
+      </c>
+      <c r="ID2">
+        <v>0.3642427384247662</v>
+      </c>
+      <c r="IE2">
+        <v>19.51822555523206</v>
+      </c>
+      <c r="IF2">
+        <v>0.3642427384247662</v>
+      </c>
+      <c r="IG2">
+        <v>0.3358246414016379</v>
+      </c>
+      <c r="IH2">
+        <v>0.337173691000752</v>
+      </c>
+      <c r="II2">
+        <v>35.14441297911701</v>
+      </c>
+      <c r="IJ2">
+        <v>87.98453734567676</v>
+      </c>
+      <c r="IK2">
+        <v>11.37708302744561</v>
+      </c>
+      <c r="IL2">
+        <v>0.3359645674704015</v>
+      </c>
+      <c r="IM2">
+        <v>0.3360986166683277</v>
+      </c>
+      <c r="IN2">
+        <v>0.337173691000752</v>
+      </c>
+      <c r="IO2">
+        <v>0.337173691000752</v>
+      </c>
+      <c r="IP2">
+        <v>0.337031283509965</v>
+      </c>
+      <c r="IQ2">
+        <v>0.3619812664683806</v>
+      </c>
+      <c r="IR2">
+        <v>0.3397104786943754</v>
+      </c>
+      <c r="IS2">
+        <v>4.630104091826895</v>
+      </c>
+      <c r="IT2">
+        <v>0.334435115386532</v>
+      </c>
+      <c r="IU2">
+        <v>0.339051999951788</v>
+      </c>
+      <c r="IV2">
+        <v>1.581138280851185</v>
+      </c>
+      <c r="IW2">
+        <v>0.3581051512934077</v>
+      </c>
+      <c r="IX2">
+        <v>144.106270504285</v>
+      </c>
+      <c r="IY2">
+        <v>0.3348886413005362</v>
+      </c>
+      <c r="IZ2">
+        <v>0.337031283509965</v>
+      </c>
+      <c r="JA2">
+        <v>6.178938048223076</v>
+      </c>
+      <c r="JB2">
+        <v>0.337031283509965</v>
+      </c>
+      <c r="JC2">
+        <v>0.3348886413005362</v>
+      </c>
+      <c r="JD2">
+        <v>0.4552069615607484</v>
+      </c>
+      <c r="JE2">
+        <v>282.1219896228928</v>
+      </c>
+      <c r="JF2">
+        <v>0.3883350144070178</v>
+      </c>
+      <c r="JG2">
+        <v>0.3737941464501171</v>
+      </c>
+      <c r="JH2">
+        <v>52.01297585815521</v>
+      </c>
+      <c r="JI2">
+        <v>0.3642427384247662</v>
+      </c>
+      <c r="JJ2">
+        <v>0.337031283509965</v>
+      </c>
+      <c r="JK2">
+        <v>0.337031283509965</v>
+      </c>
+      <c r="JL2">
+        <v>0.3383734469047326</v>
+      </c>
+      <c r="JM2">
+        <v>273.9305661624224</v>
+      </c>
+      <c r="JN2">
+        <v>0.3532993029753604</v>
+      </c>
+      <c r="JO2">
+        <v>202.1757124023639</v>
+      </c>
+      <c r="JP2">
+        <v>0.4671105768882866</v>
+      </c>
+      <c r="JQ2">
+        <v>19.44258772751197</v>
+      </c>
+      <c r="JR2">
+        <v>0.3398221813568616</v>
+      </c>
+      <c r="JS2">
+        <v>115.3491068734307</v>
+      </c>
+      <c r="JT2">
+        <v>55.98832951758502</v>
+      </c>
+      <c r="JU2">
+        <v>68.71521348688587</v>
+      </c>
+      <c r="JV2">
+        <v>0.3648210501170394</v>
+      </c>
+      <c r="JW2">
+        <v>0.3348886413005362</v>
+      </c>
+      <c r="JX2">
+        <v>0.3684149274816088</v>
+      </c>
+      <c r="JY2">
+        <v>0.376284994421383</v>
+      </c>
+      <c r="JZ2">
+        <v>27.53672106075185</v>
+      </c>
+      <c r="KA2">
+        <v>0.3348886413005362</v>
+      </c>
+      <c r="KB2">
+        <v>0.337173691000752</v>
+      </c>
+      <c r="KC2">
+        <v>0.3499235252743281</v>
+      </c>
+      <c r="KD2">
+        <v>0.337173691000752</v>
+      </c>
+      <c r="KE2">
+        <v>90.47576430645489</v>
+      </c>
+      <c r="KF2">
+        <v>21.24385037656281</v>
+      </c>
+      <c r="KG2">
+        <v>62.78991291827946</v>
+      </c>
+      <c r="KH2">
+        <v>0.335836337970615</v>
+      </c>
+      <c r="KI2">
+        <v>47.54452417324266</v>
+      </c>
+      <c r="KJ2">
+        <v>80.21108085175216</v>
+      </c>
+      <c r="KK2">
+        <v>0.344234575870805</v>
+      </c>
+      <c r="KL2">
+        <v>0.3374453027939958</v>
+      </c>
+      <c r="KM2">
+        <v>0.3573243605382738</v>
+      </c>
+      <c r="KN2">
+        <v>0.3832983773288827</v>
+      </c>
+      <c r="KO2">
+        <v>66.87573021059812</v>
+      </c>
+      <c r="KP2">
+        <v>0.396065914707471</v>
+      </c>
+      <c r="KQ2">
+        <v>0.3818796926526079</v>
+      </c>
+      <c r="KR2">
+        <v>0.3359645674704015</v>
+      </c>
+      <c r="KS2">
+        <v>7.525512211230154</v>
+      </c>
+      <c r="KT2">
+        <v>0.337031283509965</v>
+      </c>
+      <c r="KU2">
+        <v>0.3501257183901211</v>
+      </c>
+      <c r="KV2">
+        <v>108.317511298841</v>
+      </c>
+      <c r="KW2">
+        <v>0.406371755807984</v>
+      </c>
+      <c r="KX2">
+        <v>0.3746982272810081</v>
+      </c>
+      <c r="KY2">
+        <v>0.3348886413005362</v>
+      </c>
+      <c r="KZ2">
+        <v>55.27838019446753</v>
+      </c>
+      <c r="LA2">
+        <v>0.3379543351492779</v>
+      </c>
+      <c r="LB2">
+        <v>0.3362512035178786</v>
+      </c>
+      <c r="LC2">
+        <v>11.3451035817096</v>
+      </c>
+      <c r="LD2">
+        <v>0.337031283509965</v>
+      </c>
+      <c r="LE2">
+        <v>104.3757323010091</v>
+      </c>
+      <c r="LF2">
+        <v>175.919728801673</v>
+      </c>
+      <c r="LG2">
+        <v>0.3541136570742911</v>
+      </c>
+      <c r="LH2">
+        <v>0.3388066095871277</v>
+      </c>
+      <c r="LI2">
+        <v>110.8158706666485</v>
+      </c>
+      <c r="LJ2">
+        <v>0.3772698406988099</v>
+      </c>
+      <c r="LK2">
+        <v>0.3358405466151015</v>
+      </c>
+      <c r="LL2">
+        <v>0.3966043636369011</v>
+      </c>
+      <c r="LM2">
+        <v>0.3703577140576559</v>
+      </c>
+      <c r="LN2">
+        <v>0.3359645674704015</v>
+      </c>
+      <c r="LO2">
+        <v>0.3387639432927839</v>
+      </c>
+      <c r="LP2">
+        <v>0.352376260589779</v>
+      </c>
+      <c r="LQ2">
+        <v>0.3605780712675465</v>
+      </c>
+      <c r="LR2">
+        <v>118.7705522201361</v>
+      </c>
+      <c r="LS2">
+        <v>0.337173691000752</v>
+      </c>
+      <c r="LT2">
+        <v>0.3539971647378596</v>
+      </c>
+      <c r="LU2">
+        <v>0.3361680239154324</v>
+      </c>
+      <c r="LV2">
+        <v>56.02792876206027</v>
+      </c>
+      <c r="LW2">
+        <v>73.79026318985275</v>
+      </c>
+      <c r="LX2">
+        <v>55.24006608708113</v>
+      </c>
+      <c r="LY2">
+        <v>119.1844753809399</v>
+      </c>
+      <c r="LZ2">
+        <v>0.3722798446940339</v>
+      </c>
+      <c r="MA2">
+        <v>14.93665147913795</v>
+      </c>
+      <c r="MB2">
+        <v>0.337503766310878</v>
+      </c>
+      <c r="MC2">
+        <v>319.3074261662069</v>
+      </c>
+      <c r="MD2">
+        <v>0.3593889176102973</v>
+      </c>
+      <c r="ME2">
+        <v>142.2800062232583</v>
+      </c>
+      <c r="MF2">
+        <v>0.4121643651120839</v>
+      </c>
+      <c r="MG2">
+        <v>0.337173691000752</v>
+      </c>
+      <c r="MH2">
+        <v>0.3437658970122681</v>
+      </c>
+      <c r="MI2">
+        <v>0.3827538733383617</v>
+      </c>
+      <c r="MJ2">
+        <v>0.3455082426898981</v>
+      </c>
+      <c r="MK2">
+        <v>0.3354951423467423</v>
+      </c>
+      <c r="ML2">
+        <v>357.7108403689624</v>
+      </c>
+      <c r="MM2">
+        <v>4.852859385568791</v>
+      </c>
+      <c r="MN2">
+        <v>173.3025400010433</v>
+      </c>
+      <c r="MO2">
+        <v>0.337173691000752</v>
+      </c>
+      <c r="MP2">
+        <v>80.45772350999582</v>
+      </c>
+      <c r="MQ2">
+        <v>0.3348886413005362</v>
+      </c>
+      <c r="MR2">
+        <v>0.3424909929422832</v>
+      </c>
+      <c r="MS2">
+        <v>0.3644050354880677</v>
+      </c>
+      <c r="MT2">
+        <v>0.337031283509965</v>
+      </c>
+      <c r="MU2">
+        <v>17.10958408569523</v>
+      </c>
+      <c r="MV2">
+        <v>0.3359645674704015</v>
+      </c>
+      <c r="MW2">
+        <v>0.3703424629861569</v>
+      </c>
+      <c r="MX2">
+        <v>0.335754122991804</v>
+      </c>
+      <c r="MY2">
+        <v>3.279857413948766</v>
+      </c>
+      <c r="MZ2">
+        <v>0.3548394587302536</v>
+      </c>
+      <c r="NA2">
+        <v>0.335364216268068</v>
+      </c>
+      <c r="NB2">
+        <v>0.3446550781148059</v>
+      </c>
+      <c r="NC2">
+        <v>1.4390628183643</v>
+      </c>
+      <c r="ND2">
+        <v>0.3794522822697045</v>
+      </c>
+      <c r="NE2">
+        <v>1.47673846086434</v>
+      </c>
+      <c r="NF2">
+        <v>0.3557270033650524</v>
+      </c>
+      <c r="NG2">
+        <v>0.337173691000752</v>
+      </c>
+      <c r="NH2">
+        <v>0.3821187125282451</v>
+      </c>
+      <c r="NI2">
+        <v>0.4572687998269584</v>
+      </c>
+      <c r="NJ2">
+        <v>0.3652599942595917</v>
+      </c>
+      <c r="NK2">
+        <v>0.3348886413005362</v>
+      </c>
+      <c r="NL2">
+        <v>0.337173691000752</v>
+      </c>
+      <c r="NM2">
+        <v>109.639022880291</v>
+      </c>
+      <c r="NN2">
+        <v>1.887392189091464</v>
+      </c>
+      <c r="NO2">
+        <v>0.4497696516118846</v>
+      </c>
+      <c r="NP2">
+        <v>0.4023184724374043</v>
+      </c>
+      <c r="NQ2">
+        <v>0.3576485265577564</v>
+      </c>
+      <c r="NR2">
+        <v>0.3532993029753604</v>
+      </c>
+      <c r="NS2">
+        <v>0.3348886413005362</v>
+      </c>
+      <c r="NT2">
+        <v>0.337031283509965</v>
+      </c>
+      <c r="NU2">
+        <v>0.3817907355009723</v>
+      </c>
+      <c r="NV2">
+        <v>0.35248273311436</v>
+      </c>
+      <c r="NW2">
+        <v>0.3353133315368647</v>
+      </c>
+      <c r="NX2">
+        <v>14.60254800475685</v>
+      </c>
+      <c r="NY2">
+        <v>0.3359645674704015</v>
+      </c>
+      <c r="NZ2">
+        <v>0.3357483490415272</v>
+      </c>
+      <c r="OA2">
+        <v>0.3362925295459656</v>
+      </c>
+      <c r="OB2">
+        <v>0.344414929067868</v>
+      </c>
+      <c r="OC2">
+        <v>0.3417186942830265</v>
+      </c>
+      <c r="OD2">
+        <v>0.337031283509965</v>
+      </c>
+      <c r="OE2">
+        <v>0.39053084231982</v>
+      </c>
+      <c r="OF2">
+        <v>0.337031283509965</v>
+      </c>
+      <c r="OG2">
+        <v>0.4061004479384721</v>
+      </c>
+      <c r="OH2">
+        <v>0.3360348035426447</v>
+      </c>
+      <c r="OI2">
+        <v>0.339203316926532</v>
+      </c>
+      <c r="OJ2">
+        <v>0.3725628001959456</v>
+      </c>
+      <c r="OK2">
+        <v>0.337031283509965</v>
       </c>
     </row>
-    <row r="3" spans="1:201">
+    <row r="3" spans="1:401">
       <c r="A3" s="1" t="s">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="B3">
-        <v>0.3356261378822332</v>
+        <v>3.324220067662249</v>
       </c>
       <c r="C3">
-        <v>1.445244694667231</v>
+        <v>2.329486367292909</v>
       </c>
       <c r="D3">
-        <v>0.3907554367353636</v>
+        <v>3.325156445036471</v>
       </c>
       <c r="E3">
-        <v>13.90801675020999</v>
+        <v>30.16138895654555</v>
       </c>
       <c r="F3">
-        <v>0.3676398171380146</v>
+        <v>2.302400117950278</v>
       </c>
       <c r="G3">
-        <v>9.274322184020241</v>
+        <v>96.61812652208282</v>
       </c>
       <c r="H3">
-        <v>7.404192803355252</v>
+        <v>22.9827227591331</v>
       </c>
       <c r="I3">
-        <v>7.435212193118001</v>
+        <v>2.929020173753027</v>
       </c>
       <c r="J3">
-        <v>0.3380345460239832</v>
+        <v>2.295623054326039</v>
       </c>
       <c r="K3">
-        <v>0.3333360407109393</v>
+        <v>26.02205849407558</v>
       </c>
       <c r="L3">
-        <v>11.89985731819211</v>
+        <v>2.328425639614801</v>
       </c>
       <c r="M3">
-        <v>1.341463145049664</v>
+        <v>2.328425639614801</v>
       </c>
       <c r="N3">
-        <v>16.34480764127873</v>
+        <v>31.34831031694592</v>
       </c>
       <c r="O3">
-        <v>16.29704496992599</v>
+        <v>9.316140544058353</v>
       </c>
       <c r="P3">
-        <v>7.369434732932614</v>
+        <v>2.328425639614801</v>
       </c>
       <c r="Q3">
-        <v>2.211600218394716</v>
+        <v>2.328425639614801</v>
       </c>
       <c r="R3">
-        <v>21.92784195899521</v>
+        <v>2.328425639614801</v>
       </c>
       <c r="S3">
-        <v>18.20680873530039</v>
+        <v>3.328548312189259</v>
       </c>
       <c r="T3">
-        <v>9.795423549287328</v>
+        <v>8.302089702020005</v>
       </c>
       <c r="U3">
-        <v>4.472923808122099</v>
+        <v>2.922207441512057</v>
       </c>
       <c r="V3">
-        <v>0.4055910528629753</v>
+        <v>2.328425639614801</v>
       </c>
       <c r="W3">
-        <v>3.736585024346829</v>
+        <v>8.697450012806048</v>
       </c>
       <c r="X3">
-        <v>29.53729573075979</v>
+        <v>31.25414464681916</v>
       </c>
       <c r="Y3">
-        <v>8.19936691024294</v>
+        <v>63.23527120852222</v>
       </c>
       <c r="Z3">
-        <v>351.2924549044755</v>
+        <v>45.16720918057656</v>
       </c>
       <c r="AA3">
-        <v>0.3363562385395005</v>
+        <v>3.3248103821784</v>
       </c>
       <c r="AB3">
-        <v>28.51830970648308</v>
+        <v>2.68015229967193</v>
       </c>
       <c r="AC3">
-        <v>33.85958676435257</v>
+        <v>4.36227141630556</v>
       </c>
       <c r="AD3">
-        <v>5.036179768262624</v>
+        <v>8.292451441779216</v>
       </c>
       <c r="AE3">
-        <v>17.42853468763483</v>
+        <v>18.69128173235957</v>
       </c>
       <c r="AF3">
-        <v>1.333134881089413</v>
+        <v>31.61185213803827</v>
       </c>
       <c r="AG3">
-        <v>0.3334259273910384</v>
+        <v>8.286914248997512</v>
       </c>
       <c r="AH3">
-        <v>31.0510579765627</v>
+        <v>2.328425639614801</v>
       </c>
       <c r="AI3">
-        <v>1.673532503364351</v>
+        <v>2.330560657751856</v>
       </c>
       <c r="AJ3">
-        <v>6.333313617795824</v>
+        <v>9.945150288879955</v>
       </c>
       <c r="AK3">
-        <v>4.237458343940964</v>
+        <v>25.45916403175376</v>
       </c>
       <c r="AL3">
-        <v>5.279783791405291</v>
+        <v>20.3627093337604</v>
       </c>
       <c r="AM3">
-        <v>6.160437748237068</v>
+        <v>24.24844499373372</v>
       </c>
       <c r="AN3">
-        <v>0.405469298934693</v>
+        <v>5.66899317434545</v>
       </c>
       <c r="AO3">
-        <v>0.3333361039988464</v>
+        <v>0.5268920006784119</v>
       </c>
       <c r="AP3">
-        <v>230.2747153231246</v>
+        <v>5.819380075733658</v>
       </c>
       <c r="AQ3">
-        <v>0.3333361039988464</v>
+        <v>25.28297407462229</v>
       </c>
       <c r="AR3">
-        <v>21.24687179083198</v>
+        <v>4.036094931471586</v>
       </c>
       <c r="AS3">
-        <v>1.390147995381533</v>
+        <v>5.287030382241212</v>
       </c>
       <c r="AT3">
-        <v>321.2744331698327</v>
+        <v>2.328425639614801</v>
       </c>
       <c r="AU3">
-        <v>3.832269681746872</v>
+        <v>15.29443770133983</v>
       </c>
       <c r="AV3">
-        <v>11.48225915780264</v>
+        <v>0.4013566004529808</v>
       </c>
       <c r="AW3">
-        <v>0.3356261378822332</v>
+        <v>2.329486367292909</v>
       </c>
       <c r="AX3">
-        <v>2.27831562135996</v>
+        <v>15.43697431292439</v>
       </c>
       <c r="AY3">
-        <v>3.44656211126799</v>
+        <v>3.339100734064783</v>
       </c>
       <c r="AZ3">
-        <v>2.33331264353053</v>
+        <v>2.328425639614801</v>
       </c>
       <c r="BA3">
-        <v>168.2818219413828</v>
+        <v>55.92852735560803</v>
       </c>
       <c r="BB3">
-        <v>1.653386170590289</v>
+        <v>91.23258841575466</v>
       </c>
       <c r="BC3">
-        <v>59.99721773484867</v>
+        <v>66.69372668262953</v>
       </c>
       <c r="BD3">
-        <v>5.433581794609977</v>
+        <v>2.308716189374967</v>
       </c>
       <c r="BE3">
-        <v>4.333313363704717</v>
+        <v>3.328548312189259</v>
       </c>
       <c r="BF3">
-        <v>0.3356261378822332</v>
+        <v>34.3577282110376</v>
       </c>
       <c r="BG3">
-        <v>1.349552370517979</v>
+        <v>2.329486367292909</v>
       </c>
       <c r="BH3">
-        <v>38.65783437545159</v>
+        <v>60.22409261081093</v>
       </c>
       <c r="BI3">
-        <v>28.81460780290034</v>
+        <v>41.89492079481249</v>
       </c>
       <c r="BJ3">
-        <v>0.3366024152526672</v>
+        <v>90.87198147809775</v>
       </c>
       <c r="BK3">
-        <v>0.3333360075652195</v>
+        <v>92.56066822225698</v>
       </c>
       <c r="BL3">
-        <v>5.185973641299661</v>
+        <v>4.440485623575433</v>
       </c>
       <c r="BM3">
-        <v>8.390057148060045</v>
+        <v>73.04584457914765</v>
       </c>
       <c r="BN3">
-        <v>0.3524121540587574</v>
+        <v>40.8561490472114</v>
       </c>
       <c r="BO3">
-        <v>2.096849739318535</v>
+        <v>2.329486367292909</v>
       </c>
       <c r="BP3">
-        <v>2.33331264353053</v>
+        <v>9.306305521148007</v>
       </c>
       <c r="BQ3">
-        <v>4.72699855775359</v>
+        <v>3.201476916559967</v>
       </c>
       <c r="BR3">
-        <v>27.03274084271581</v>
+        <v>5.301112871690348</v>
       </c>
       <c r="BS3">
-        <v>4.295736726678424</v>
+        <v>19.59064132706619</v>
       </c>
       <c r="BT3">
-        <v>0.3521006909348359</v>
+        <v>102.3454924156799</v>
       </c>
       <c r="BU3">
-        <v>6.332180312600141</v>
+        <v>83.84135434119227</v>
       </c>
       <c r="BV3">
-        <v>0.368726785559348</v>
+        <v>43.93815119302224</v>
       </c>
       <c r="BW3">
-        <v>0.3356261378822332</v>
+        <v>2.330560657751856</v>
       </c>
       <c r="BX3">
-        <v>24.88098224091983</v>
+        <v>2.329486367292909</v>
       </c>
       <c r="BY3">
-        <v>2.683726646684497</v>
+        <v>6.325883347795694</v>
       </c>
       <c r="BZ3">
-        <v>5.206455652740035</v>
+        <v>21.28509966180748</v>
       </c>
       <c r="CA3">
-        <v>36.47482370806526</v>
+        <v>4.327289899827394</v>
       </c>
       <c r="CB3">
-        <v>208.0145465246753</v>
+        <v>2.330560657751856</v>
       </c>
       <c r="CC3">
-        <v>36.01103857521934</v>
+        <v>39.29708145240439</v>
       </c>
       <c r="CD3">
-        <v>16.3394271963143</v>
+        <v>2.328425639614801</v>
       </c>
       <c r="CE3">
-        <v>12.17807385008321</v>
+        <v>6.373494659688667</v>
       </c>
       <c r="CF3">
-        <v>4.333313363704717</v>
+        <v>39.25913418736623</v>
       </c>
       <c r="CG3">
-        <v>0.3365592901675428</v>
+        <v>3.317991139479933</v>
       </c>
       <c r="CH3">
-        <v>3.230576654120647</v>
+        <v>2.183187869327309</v>
       </c>
       <c r="CI3">
-        <v>3.333305372502454</v>
+        <v>3.328548312189259</v>
       </c>
       <c r="CJ3">
-        <v>0.3350959470169044</v>
+        <v>3.322541918775418</v>
       </c>
       <c r="CK3">
-        <v>1.433176789496464</v>
+        <v>44.00644040161405</v>
       </c>
       <c r="CL3">
-        <v>6.132039426161629</v>
+        <v>6.314908643332276</v>
       </c>
       <c r="CM3">
-        <v>0.3726307051407695</v>
+        <v>62.54800261640103</v>
       </c>
       <c r="CN3">
-        <v>1.333134881089413</v>
+        <v>0.5705126492547444</v>
       </c>
       <c r="CO3">
-        <v>1.192410038015767</v>
+        <v>22.58868865455088</v>
       </c>
       <c r="CP3">
-        <v>9.646501551295273</v>
+        <v>14.33461810287063</v>
       </c>
       <c r="CQ3">
-        <v>0.3363435641324458</v>
+        <v>4.317603698052244</v>
       </c>
       <c r="CR3">
-        <v>0.3682864484931976</v>
+        <v>2.273830630862593</v>
       </c>
       <c r="CS3">
-        <v>0.3333361039988464</v>
+        <v>47.27729301995592</v>
       </c>
       <c r="CT3">
-        <v>4.716695157572632</v>
+        <v>3.317991139479933</v>
       </c>
       <c r="CU3">
-        <v>223.4339250835864</v>
+        <v>64.88231513052506</v>
       </c>
       <c r="CV3">
-        <v>0.3333361039988464</v>
+        <v>7.810939449471617</v>
       </c>
       <c r="CW3">
-        <v>12.55023498088375</v>
+        <v>3.315938999690454</v>
       </c>
       <c r="CX3">
-        <v>14.1330744209444</v>
+        <v>11.30886520857047</v>
       </c>
       <c r="CY3">
-        <v>9.331618083058389</v>
+        <v>7.270659189777006</v>
       </c>
       <c r="CZ3">
-        <v>0.3333361039988464</v>
+        <v>10.28014833369534</v>
       </c>
       <c r="DA3">
-        <v>0.3345817281958272</v>
+        <v>16.24329517680967</v>
       </c>
       <c r="DB3">
-        <v>0.3361492280933858</v>
+        <v>2.328425639614801</v>
       </c>
       <c r="DC3">
-        <v>0.3355548821339313</v>
+        <v>3.29946283337189</v>
       </c>
       <c r="DD3">
-        <v>1.440945647349751</v>
+        <v>17.49466015556779</v>
       </c>
       <c r="DE3">
-        <v>0.3344283936287715</v>
+        <v>4.34907856845113</v>
       </c>
       <c r="DF3">
-        <v>3.28114140844914</v>
+        <v>66.2533210348798</v>
       </c>
       <c r="DG3">
-        <v>1.282524589610023</v>
+        <v>12.27386911836724</v>
       </c>
       <c r="DH3">
-        <v>26.50010187430093</v>
+        <v>2.328425639614801</v>
       </c>
       <c r="DI3">
-        <v>0.3356261378822332</v>
+        <v>9.985984576313509</v>
       </c>
       <c r="DJ3">
-        <v>2.33331264353053</v>
+        <v>3.318396912717237</v>
       </c>
       <c r="DK3">
-        <v>0.3333360407109393</v>
+        <v>14.26223770022387</v>
       </c>
       <c r="DL3">
-        <v>0.3380345460239832</v>
+        <v>11.75175885529127</v>
       </c>
       <c r="DM3">
-        <v>0.3352476083267745</v>
+        <v>20.23414568183738</v>
       </c>
       <c r="DN3">
-        <v>0.3550724720971568</v>
+        <v>3.31906870489748</v>
       </c>
       <c r="DO3">
-        <v>1.068986691799628</v>
+        <v>28.30866659200876</v>
       </c>
       <c r="DP3">
-        <v>0.3357360041216792</v>
+        <v>45.08836474130636</v>
       </c>
       <c r="DQ3">
-        <v>0.3333359137549847</v>
+        <v>2.329486367292909</v>
       </c>
       <c r="DR3">
-        <v>0.7085755187160219</v>
+        <v>9.281325901397793</v>
       </c>
       <c r="DS3">
-        <v>0.3333359135072778</v>
+        <v>2.330560657751856</v>
       </c>
       <c r="DT3">
-        <v>0.3356261378822332</v>
+        <v>0.4187143759956751</v>
       </c>
       <c r="DU3">
-        <v>50.30599709671986</v>
+        <v>73.96827640900672</v>
       </c>
       <c r="DV3">
-        <v>0.3356261378822332</v>
+        <v>30.81133022507978</v>
       </c>
       <c r="DW3">
-        <v>0.3356261378822332</v>
+        <v>2.329486367292909</v>
       </c>
       <c r="DX3">
-        <v>22.27747356594796</v>
+        <v>3.319720262189054</v>
       </c>
       <c r="DY3">
-        <v>3.867987072819147</v>
+        <v>2.328425639614801</v>
       </c>
       <c r="DZ3">
-        <v>6.495399586522904</v>
+        <v>5.327038361642314</v>
       </c>
       <c r="EA3">
-        <v>32.14807405845875</v>
+        <v>3.279292035627435</v>
       </c>
       <c r="EB3">
-        <v>23.48501675322151</v>
+        <v>2.329486367292909</v>
       </c>
       <c r="EC3">
-        <v>0.3348160416961522</v>
+        <v>0.4560611147292869</v>
       </c>
       <c r="ED3">
-        <v>39.3680192493246</v>
+        <v>2.321360436314956</v>
       </c>
       <c r="EE3">
-        <v>0.3356261378822332</v>
+        <v>60.27892639072517</v>
       </c>
       <c r="EF3">
-        <v>9.903411617334161</v>
+        <v>2.330560657751856</v>
       </c>
       <c r="EG3">
-        <v>0.3356261378822332</v>
+        <v>2.330560657751856</v>
       </c>
       <c r="EH3">
-        <v>1.336498767964157</v>
+        <v>31.0058702931255</v>
       </c>
       <c r="EI3">
-        <v>4.21835969296501</v>
+        <v>54.51325615429894</v>
       </c>
       <c r="EJ3">
-        <v>2.971669807581675</v>
+        <v>3.303436140304346</v>
       </c>
       <c r="EK3">
-        <v>12.45009238682342</v>
+        <v>67.29570170332903</v>
       </c>
       <c r="EL3">
-        <v>7.46969717386352</v>
+        <v>54.69313242229078</v>
       </c>
       <c r="EM3">
-        <v>9.48052532059169</v>
+        <v>15.92852501205453</v>
       </c>
       <c r="EN3">
-        <v>17.21891500971811</v>
+        <v>2.330560657751856</v>
       </c>
       <c r="EO3">
-        <v>13.5895405109259</v>
+        <v>42.2215870323683</v>
       </c>
       <c r="EP3">
-        <v>37.60844865603635</v>
+        <v>3.305133742988858</v>
       </c>
       <c r="EQ3">
-        <v>12.84597508069372</v>
+        <v>94.1872541156055</v>
       </c>
       <c r="ER3">
-        <v>1.294190325811319</v>
+        <v>2.328425639614801</v>
       </c>
       <c r="ES3">
-        <v>3.832903554861374</v>
+        <v>2.324037903770673</v>
       </c>
       <c r="ET3">
-        <v>2.33331264353053</v>
+        <v>91.25675420128161</v>
       </c>
       <c r="EU3">
-        <v>0.3333361039988464</v>
+        <v>0.5877007466108668</v>
       </c>
       <c r="EV3">
-        <v>3.80340540615542</v>
+        <v>25.48531086990138</v>
       </c>
       <c r="EW3">
-        <v>7.572332699790557</v>
+        <v>43.45170384627671</v>
       </c>
       <c r="EX3">
-        <v>4.595342866183933</v>
+        <v>2.858933358128809</v>
       </c>
       <c r="EY3">
-        <v>33.10063260089944</v>
+        <v>0.3856418154425988</v>
       </c>
       <c r="EZ3">
-        <v>70.27625682445236</v>
+        <v>34.50377640986181</v>
       </c>
       <c r="FA3">
-        <v>1.509952489966143</v>
+        <v>2.330560657751856</v>
       </c>
       <c r="FB3">
-        <v>0.4161708750897884</v>
+        <v>2.328425639614801</v>
       </c>
       <c r="FC3">
-        <v>2.315362005626676</v>
+        <v>34.33882132458206</v>
       </c>
       <c r="FD3">
-        <v>1.333873216430353</v>
+        <v>10.83054737676748</v>
       </c>
       <c r="FE3">
-        <v>0.3346391992496861</v>
+        <v>4.790450585975225</v>
       </c>
       <c r="FF3">
-        <v>23.72276400186678</v>
+        <v>3.316301083161062</v>
       </c>
       <c r="FG3">
-        <v>22.31087297941092</v>
+        <v>6.556641355558592</v>
       </c>
       <c r="FH3">
-        <v>0.3333361039988464</v>
+        <v>7.902964664466365</v>
       </c>
       <c r="FI3">
-        <v>34.50620652640886</v>
+        <v>4.598022725545928</v>
       </c>
       <c r="FJ3">
-        <v>3.321934731178614</v>
+        <v>104.4019378433533</v>
       </c>
       <c r="FK3">
-        <v>36.03437792197023</v>
+        <v>2.329486367292909</v>
       </c>
       <c r="FL3">
-        <v>7.780958121242406</v>
+        <v>36.29260018325542</v>
       </c>
       <c r="FM3">
-        <v>0.3380345460239832</v>
+        <v>2.330560657751856</v>
       </c>
       <c r="FN3">
-        <v>6.319195864496008</v>
+        <v>22.910185743339</v>
       </c>
       <c r="FO3">
-        <v>2.430534262882361</v>
+        <v>45.27459939638187</v>
       </c>
       <c r="FP3">
-        <v>19.75637459763154</v>
+        <v>22.63999772665792</v>
       </c>
       <c r="FQ3">
-        <v>2.332946529794814</v>
+        <v>0.4092045411715616</v>
       </c>
       <c r="FR3">
-        <v>0.3458656425031132</v>
+        <v>10.04259977696849</v>
       </c>
       <c r="FS3">
-        <v>3.119518444505927</v>
+        <v>4.039519430595393</v>
       </c>
       <c r="FT3">
-        <v>7.091191262604064</v>
+        <v>14.7254451312435</v>
       </c>
       <c r="FU3">
-        <v>1.667647228438093</v>
+        <v>2.328425639614801</v>
       </c>
       <c r="FV3">
-        <v>47.00098371388282</v>
+        <v>45.0942431095628</v>
       </c>
       <c r="FW3">
-        <v>13.2002609234422</v>
+        <v>2.331469532259085</v>
       </c>
       <c r="FX3">
-        <v>4.219745336674078</v>
+        <v>0.3990773119744523</v>
       </c>
       <c r="FY3">
-        <v>0.3366905034447299</v>
+        <v>10.97567216914119</v>
       </c>
       <c r="FZ3">
-        <v>50.4161955966774</v>
+        <v>2.324037903770673</v>
       </c>
       <c r="GA3">
-        <v>32.02196011238014</v>
+        <v>26.9346924798069</v>
       </c>
       <c r="GB3">
-        <v>1.352577028798142</v>
+        <v>3.266305663009753</v>
       </c>
       <c r="GC3">
-        <v>0.3333607875110237</v>
+        <v>16.22937594889088</v>
       </c>
       <c r="GD3">
-        <v>1.379094541461376</v>
+        <v>15.77822737665393</v>
       </c>
       <c r="GE3">
-        <v>0.3348160416961522</v>
+        <v>8.30395427890859</v>
       </c>
       <c r="GF3">
-        <v>0.3529325064745037</v>
+        <v>21.3784442734283</v>
       </c>
       <c r="GG3">
-        <v>65.8671590313019</v>
+        <v>0.3695329118575624</v>
       </c>
       <c r="GH3">
-        <v>0.3333360407109393</v>
+        <v>0.3950253524553251</v>
       </c>
       <c r="GI3">
-        <v>1.337698313959877</v>
+        <v>8.254904947129228</v>
       </c>
       <c r="GJ3">
-        <v>0.3333361039988464</v>
+        <v>3.381717012215082</v>
       </c>
       <c r="GK3">
-        <v>1.333134881089413</v>
+        <v>2.328425639614801</v>
       </c>
       <c r="GL3">
-        <v>0.3333360407109393</v>
+        <v>4.327289899827394</v>
       </c>
       <c r="GM3">
-        <v>0.3338447643035296</v>
+        <v>75.17757545485811</v>
       </c>
       <c r="GN3">
-        <v>0.3333361039988464</v>
+        <v>2.328425639614801</v>
       </c>
       <c r="GO3">
-        <v>0.347957671774644</v>
+        <v>7.86913404187733</v>
       </c>
       <c r="GP3">
-        <v>0.3333360407109393</v>
+        <v>20.37986714417568</v>
       </c>
       <c r="GQ3">
-        <v>1.457809628348685</v>
+        <v>2.328425639614801</v>
       </c>
       <c r="GR3">
-        <v>4.327770103110177</v>
+        <v>3.330110987157329</v>
       </c>
       <c r="GS3">
-        <v>0.3890115859897065</v>
+        <v>5.328108161447576</v>
+      </c>
+      <c r="GT3">
+        <v>3.328548312189259</v>
+      </c>
+      <c r="GU3">
+        <v>3.3260889374917</v>
+      </c>
+      <c r="GV3">
+        <v>2.320588091588439</v>
+      </c>
+      <c r="GW3">
+        <v>79.8777508109561</v>
+      </c>
+      <c r="GX3">
+        <v>5.310168627569784</v>
+      </c>
+      <c r="GY3">
+        <v>39.27518356940008</v>
+      </c>
+      <c r="GZ3">
+        <v>92.70365541489403</v>
+      </c>
+      <c r="HA3">
+        <v>7.315285620968682</v>
+      </c>
+      <c r="HB3">
+        <v>33.02442842602093</v>
+      </c>
+      <c r="HC3">
+        <v>14.29002436596137</v>
+      </c>
+      <c r="HD3">
+        <v>6.24935770025056</v>
+      </c>
+      <c r="HE3">
+        <v>2.328425639614801</v>
+      </c>
+      <c r="HF3">
+        <v>0.391053995741812</v>
+      </c>
+      <c r="HG3">
+        <v>2.328425639614801</v>
+      </c>
+      <c r="HH3">
+        <v>2.323342230980547</v>
+      </c>
+      <c r="HI3">
+        <v>0.4792377187049262</v>
+      </c>
+      <c r="HJ3">
+        <v>3.277420098088929</v>
+      </c>
+      <c r="HK3">
+        <v>2.267304571131658</v>
+      </c>
+      <c r="HL3">
+        <v>7.973639208583821</v>
+      </c>
+      <c r="HM3">
+        <v>62.22712915443692</v>
+      </c>
+      <c r="HN3">
+        <v>2.329486367292909</v>
+      </c>
+      <c r="HO3">
+        <v>17.38811158930739</v>
+      </c>
+      <c r="HP3">
+        <v>59.2882547722025</v>
+      </c>
+      <c r="HQ3">
+        <v>3.326499092340032</v>
+      </c>
+      <c r="HR3">
+        <v>2.37900996575378</v>
+      </c>
+      <c r="HS3">
+        <v>3.326153053983764</v>
+      </c>
+      <c r="HT3">
+        <v>6.490276983495383</v>
+      </c>
+      <c r="HU3">
+        <v>3.317991139479933</v>
+      </c>
+      <c r="HV3">
+        <v>2.329486367292909</v>
+      </c>
+      <c r="HW3">
+        <v>3.326153053983764</v>
+      </c>
+      <c r="HX3">
+        <v>2.341951465979609</v>
+      </c>
+      <c r="HY3">
+        <v>74.24131518095507</v>
+      </c>
+      <c r="HZ3">
+        <v>3.227534651220496</v>
+      </c>
+      <c r="IA3">
+        <v>0.3541505259737461</v>
+      </c>
+      <c r="IB3">
+        <v>17.52974034636568</v>
+      </c>
+      <c r="IC3">
+        <v>3.330110987157329</v>
+      </c>
+      <c r="ID3">
+        <v>2.302400117950278</v>
+      </c>
+      <c r="IE3">
+        <v>95.12485179736728</v>
+      </c>
+      <c r="IF3">
+        <v>2.302400117950278</v>
+      </c>
+      <c r="IG3">
+        <v>3.320136193325605</v>
+      </c>
+      <c r="IH3">
+        <v>2.329486367292909</v>
+      </c>
+      <c r="II3">
+        <v>27.36040410793192</v>
+      </c>
+      <c r="IJ3">
+        <v>51.61913276708997</v>
+      </c>
+      <c r="IK3">
+        <v>3.250977007759055</v>
+      </c>
+      <c r="IL3">
+        <v>3.328548312189259</v>
+      </c>
+      <c r="IM3">
+        <v>3.305478262169418</v>
+      </c>
+      <c r="IN3">
+        <v>2.329486367292909</v>
+      </c>
+      <c r="IO3">
+        <v>2.329486367292909</v>
+      </c>
+      <c r="IP3">
+        <v>2.328425639614801</v>
+      </c>
+      <c r="IQ3">
+        <v>3.297871636204623</v>
+      </c>
+      <c r="IR3">
+        <v>8.325245957226539</v>
+      </c>
+      <c r="IS3">
+        <v>18.97223138217295</v>
+      </c>
+      <c r="IT3">
+        <v>3.318560219562081</v>
+      </c>
+      <c r="IU3">
+        <v>4.322562620742334</v>
+      </c>
+      <c r="IV3">
+        <v>25.34058554436671</v>
+      </c>
+      <c r="IW3">
+        <v>3.307491974152692</v>
+      </c>
+      <c r="IX3">
+        <v>46.71400034056169</v>
+      </c>
+      <c r="IY3">
+        <v>2.330560657751856</v>
+      </c>
+      <c r="IZ3">
+        <v>2.328425639614801</v>
+      </c>
+      <c r="JA3">
+        <v>39.59552260511704</v>
+      </c>
+      <c r="JB3">
+        <v>2.328425639614801</v>
+      </c>
+      <c r="JC3">
+        <v>2.330560657751856</v>
+      </c>
+      <c r="JD3">
+        <v>15.36791440386248</v>
+      </c>
+      <c r="JE3">
+        <v>53.32313777430207</v>
+      </c>
+      <c r="JF3">
+        <v>5.241788544422109</v>
+      </c>
+      <c r="JG3">
+        <v>6.063194253934426</v>
+      </c>
+      <c r="JH3">
+        <v>32.60620554846177</v>
+      </c>
+      <c r="JI3">
+        <v>2.302400117950278</v>
+      </c>
+      <c r="JJ3">
+        <v>2.328425639614801</v>
+      </c>
+      <c r="JK3">
+        <v>2.328425639614801</v>
+      </c>
+      <c r="JL3">
+        <v>6.940648665867462</v>
+      </c>
+      <c r="JM3">
+        <v>0.3646079994875012</v>
+      </c>
+      <c r="JN3">
+        <v>3.297624532213659</v>
+      </c>
+      <c r="JO3">
+        <v>35.87238699686785</v>
+      </c>
+      <c r="JP3">
+        <v>163.2056776116886</v>
+      </c>
+      <c r="JQ3">
+        <v>20.37682739800956</v>
+      </c>
+      <c r="JR3">
+        <v>8.293216660137503</v>
+      </c>
+      <c r="JS3">
+        <v>12.71532660167135</v>
+      </c>
+      <c r="JT3">
+        <v>34.64673685874675</v>
+      </c>
+      <c r="JU3">
+        <v>95.25054942051732</v>
+      </c>
+      <c r="JV3">
+        <v>82.27542150009063</v>
+      </c>
+      <c r="JW3">
+        <v>2.330560657751856</v>
+      </c>
+      <c r="JX3">
+        <v>37.26550326208741</v>
+      </c>
+      <c r="JY3">
+        <v>21.26794518380019</v>
+      </c>
+      <c r="JZ3">
+        <v>62.11113350237129</v>
+      </c>
+      <c r="KA3">
+        <v>2.330560657751856</v>
+      </c>
+      <c r="KB3">
+        <v>2.329486367292909</v>
+      </c>
+      <c r="KC3">
+        <v>6.509183098840662</v>
+      </c>
+      <c r="KD3">
+        <v>2.329486367292909</v>
+      </c>
+      <c r="KE3">
+        <v>59.79905717579897</v>
+      </c>
+      <c r="KF3">
+        <v>40.34336658410887</v>
+      </c>
+      <c r="KG3">
+        <v>0.3791014402816093</v>
+      </c>
+      <c r="KH3">
+        <v>3.327886856735583</v>
+      </c>
+      <c r="KI3">
+        <v>3.076089178915513</v>
+      </c>
+      <c r="KJ3">
+        <v>31.42435990426004</v>
+      </c>
+      <c r="KK3">
+        <v>6.09465475469885</v>
+      </c>
+      <c r="KL3">
+        <v>2.346195387481205</v>
+      </c>
+      <c r="KM3">
+        <v>22.28744982498768</v>
+      </c>
+      <c r="KN3">
+        <v>74.37345073374516</v>
+      </c>
+      <c r="KO3">
+        <v>10.76485814904612</v>
+      </c>
+      <c r="KP3">
+        <v>14.34146791939698</v>
+      </c>
+      <c r="KQ3">
+        <v>0.3913205714126501</v>
+      </c>
+      <c r="KR3">
+        <v>3.328548312189259</v>
+      </c>
+      <c r="KS3">
+        <v>10.1198869202546</v>
+      </c>
+      <c r="KT3">
+        <v>2.328425639614801</v>
+      </c>
+      <c r="KU3">
+        <v>22.29930920424932</v>
+      </c>
+      <c r="KV3">
+        <v>5.155185836729551</v>
+      </c>
+      <c r="KW3">
+        <v>31.21150278718533</v>
+      </c>
+      <c r="KX3">
+        <v>2.134354002557837</v>
+      </c>
+      <c r="KY3">
+        <v>2.330560657751856</v>
+      </c>
+      <c r="KZ3">
+        <v>27.63128100010661</v>
+      </c>
+      <c r="LA3">
+        <v>7.322813905285289</v>
+      </c>
+      <c r="LB3">
+        <v>3.417887705195732</v>
+      </c>
+      <c r="LC3">
+        <v>37.06111973517059</v>
+      </c>
+      <c r="LD3">
+        <v>2.328425639614801</v>
+      </c>
+      <c r="LE3">
+        <v>34.69439002280568</v>
+      </c>
+      <c r="LF3">
+        <v>148.9920139198035</v>
+      </c>
+      <c r="LG3">
+        <v>11.30389471829187</v>
+      </c>
+      <c r="LH3">
+        <v>7.306611920066638</v>
+      </c>
+      <c r="LI3">
+        <v>41.15181552385692</v>
+      </c>
+      <c r="LJ3">
+        <v>14.28092842783494</v>
+      </c>
+      <c r="LK3">
+        <v>3.330178354713573</v>
+      </c>
+      <c r="LL3">
+        <v>136.2213463789396</v>
+      </c>
+      <c r="LM3">
+        <v>8.270519656554132</v>
+      </c>
+      <c r="LN3">
+        <v>3.328548312189259</v>
+      </c>
+      <c r="LO3">
+        <v>5.283608026319127</v>
+      </c>
+      <c r="LP3">
+        <v>8.312337805580368</v>
+      </c>
+      <c r="LQ3">
+        <v>67.27138580787738</v>
+      </c>
+      <c r="LR3">
+        <v>31.86599730212713</v>
+      </c>
+      <c r="LS3">
+        <v>2.329486367292909</v>
+      </c>
+      <c r="LT3">
+        <v>31.27465887906872</v>
+      </c>
+      <c r="LU3">
+        <v>3.324366242130577</v>
+      </c>
+      <c r="LV3">
+        <v>73.61660488367103</v>
+      </c>
+      <c r="LW3">
+        <v>20.98298628591003</v>
+      </c>
+      <c r="LX3">
+        <v>23.38749589062611</v>
+      </c>
+      <c r="LY3">
+        <v>58.5105344528404</v>
+      </c>
+      <c r="LZ3">
+        <v>5.307957160888883</v>
+      </c>
+      <c r="MA3">
+        <v>24.65755043614323</v>
+      </c>
+      <c r="MB3">
+        <v>2.326503265454428</v>
+      </c>
+      <c r="MC3">
+        <v>71.7867123012747</v>
+      </c>
+      <c r="MD3">
+        <v>28.29540902430011</v>
+      </c>
+      <c r="ME3">
+        <v>60.20527940628642</v>
+      </c>
+      <c r="MF3">
+        <v>21.17654019660694</v>
+      </c>
+      <c r="MG3">
+        <v>2.329486367292909</v>
+      </c>
+      <c r="MH3">
+        <v>3.308796834733921</v>
+      </c>
+      <c r="MI3">
+        <v>4.243194042060003</v>
+      </c>
+      <c r="MJ3">
+        <v>11.31391924009782</v>
+      </c>
+      <c r="MK3">
+        <v>4.31121961833339</v>
+      </c>
+      <c r="ML3">
+        <v>56.05153677953306</v>
+      </c>
+      <c r="MM3">
+        <v>0.8114254578174963</v>
+      </c>
+      <c r="MN3">
+        <v>59.05625991116462</v>
+      </c>
+      <c r="MO3">
+        <v>2.329486367292909</v>
+      </c>
+      <c r="MP3">
+        <v>109.7830657819869</v>
+      </c>
+      <c r="MQ3">
+        <v>2.330560657751856</v>
+      </c>
+      <c r="MR3">
+        <v>4.309321869532711</v>
+      </c>
+      <c r="MS3">
+        <v>17.28413112051651</v>
+      </c>
+      <c r="MT3">
+        <v>2.328425639614801</v>
+      </c>
+      <c r="MU3">
+        <v>18.51354549666257</v>
+      </c>
+      <c r="MV3">
+        <v>3.328548312189259</v>
+      </c>
+      <c r="MW3">
+        <v>12.25810796596017</v>
+      </c>
+      <c r="MX3">
+        <v>3.330110987157329</v>
+      </c>
+      <c r="MY3">
+        <v>16.05398820935391</v>
+      </c>
+      <c r="MZ3">
+        <v>6.228545439732079</v>
+      </c>
+      <c r="NA3">
+        <v>4.324912446910856</v>
+      </c>
+      <c r="NB3">
+        <v>8.298261141422438</v>
+      </c>
+      <c r="NC3">
+        <v>6.220271953225748</v>
+      </c>
+      <c r="ND3">
+        <v>53.27087592622826</v>
+      </c>
+      <c r="NE3">
+        <v>41.82665214583867</v>
+      </c>
+      <c r="NF3">
+        <v>7.298999203166703</v>
+      </c>
+      <c r="NG3">
+        <v>2.329486367292909</v>
+      </c>
+      <c r="NH3">
+        <v>3.270636142149635</v>
+      </c>
+      <c r="NI3">
+        <v>13.19612015960121</v>
+      </c>
+      <c r="NJ3">
+        <v>67.29328796773861</v>
+      </c>
+      <c r="NK3">
+        <v>2.330560657751856</v>
+      </c>
+      <c r="NL3">
+        <v>2.329486367292909</v>
+      </c>
+      <c r="NM3">
+        <v>78.15142937682491</v>
+      </c>
+      <c r="NN3">
+        <v>12.7679437282908</v>
+      </c>
+      <c r="NO3">
+        <v>61.31954215846127</v>
+      </c>
+      <c r="NP3">
+        <v>46.2546632022997</v>
+      </c>
+      <c r="NQ3">
+        <v>8.301751028654335</v>
+      </c>
+      <c r="NR3">
+        <v>3.297624532213659</v>
+      </c>
+      <c r="NS3">
+        <v>2.330560657751856</v>
+      </c>
+      <c r="NT3">
+        <v>2.328425639614801</v>
+      </c>
+      <c r="NU3">
+        <v>142.249597494279</v>
+      </c>
+      <c r="NV3">
+        <v>3.354125370718579</v>
+      </c>
+      <c r="NW3">
+        <v>2.355865239768316</v>
+      </c>
+      <c r="NX3">
+        <v>47.95868588129911</v>
+      </c>
+      <c r="NY3">
+        <v>3.328548312189259</v>
+      </c>
+      <c r="NZ3">
+        <v>3.326794476483257</v>
+      </c>
+      <c r="OA3">
+        <v>5.328646641255474</v>
+      </c>
+      <c r="OB3">
+        <v>4.315714503069742</v>
+      </c>
+      <c r="OC3">
+        <v>8.322145093433056</v>
+      </c>
+      <c r="OD3">
+        <v>2.328425639614801</v>
+      </c>
+      <c r="OE3">
+        <v>47.27182822547333</v>
+      </c>
+      <c r="OF3">
+        <v>2.328425639614801</v>
+      </c>
+      <c r="OG3">
+        <v>169.2380038961032</v>
+      </c>
+      <c r="OH3">
+        <v>3.294641069133233</v>
+      </c>
+      <c r="OI3">
+        <v>3.321496471545487</v>
+      </c>
+      <c r="OJ3">
+        <v>18.28562738405925</v>
+      </c>
+      <c r="OK3">
+        <v>2.328425639614801</v>
       </c>
     </row>
-    <row r="4" spans="1:201">
+    <row r="4" spans="1:401">
       <c r="A4" s="1" t="s">
-        <v>202</v>
+        <v>402</v>
       </c>
       <c r="B4">
-        <v>0.3341418727682018</v>
+        <v>0.3398345802466522</v>
       </c>
       <c r="C4">
-        <v>16.31763260797966</v>
+        <v>0.3333399417041783</v>
       </c>
       <c r="D4">
-        <v>6.301076996166179</v>
+        <v>0.338979787535332</v>
       </c>
       <c r="E4">
-        <v>0.3465459450557981</v>
+        <v>31.47044462640722</v>
       </c>
       <c r="F4">
-        <v>2.272945324705104</v>
+        <v>0.3333571436215345</v>
       </c>
       <c r="G4">
-        <v>0.390012610561175</v>
+        <v>171.8991032880996</v>
       </c>
       <c r="H4">
-        <v>1.362534347991178</v>
+        <v>0.4008479850700761</v>
       </c>
       <c r="I4">
-        <v>0.3454710866188762</v>
+        <v>1.725402119728189</v>
       </c>
       <c r="J4">
-        <v>0.3349640708821719</v>
+        <v>0.334984500050002</v>
       </c>
       <c r="K4">
-        <v>0.3333357050496172</v>
+        <v>122.0994992518368</v>
       </c>
       <c r="L4">
-        <v>0.3641572838066696</v>
+        <v>0.3345430768729449</v>
       </c>
       <c r="M4">
-        <v>0.3675790885389637</v>
+        <v>0.3345430768729449</v>
       </c>
       <c r="N4">
-        <v>0.356107429902522</v>
+        <v>7.276326408845504</v>
       </c>
       <c r="O4">
-        <v>0.419698757869311</v>
+        <v>0.3377748546352339</v>
       </c>
       <c r="P4">
-        <v>20.92517457580158</v>
+        <v>0.3345430768729449</v>
       </c>
       <c r="Q4">
-        <v>1.186719509288875</v>
+        <v>0.3345430768729449</v>
       </c>
       <c r="R4">
-        <v>52.73336110724614</v>
+        <v>0.3345430768729449</v>
       </c>
       <c r="S4">
-        <v>23.89420805256772</v>
+        <v>0.3354871203380518</v>
       </c>
       <c r="T4">
-        <v>28.42765757168352</v>
+        <v>0.3573497279854453</v>
       </c>
       <c r="U4">
-        <v>64.57656469577012</v>
+        <v>5.726623405982393</v>
       </c>
       <c r="V4">
-        <v>31.85722191264455</v>
+        <v>0.3345430768729449</v>
       </c>
       <c r="W4">
-        <v>74.02579641980476</v>
+        <v>55.35955702488553</v>
       </c>
       <c r="X4">
-        <v>31.46732743029942</v>
+        <v>0.3551775994892847</v>
       </c>
       <c r="Y4">
-        <v>0.339553765805334</v>
+        <v>0.3860640805223128</v>
       </c>
       <c r="Z4">
-        <v>562.1291258766267</v>
+        <v>106.9614825557924</v>
       </c>
       <c r="AA4">
-        <v>0.3358959736981928</v>
+        <v>0.3407824497127896</v>
       </c>
       <c r="AB4">
-        <v>162.1042755164615</v>
+        <v>457.88865858589</v>
       </c>
       <c r="AC4">
-        <v>253.767061061039</v>
+        <v>3.291760188677603</v>
       </c>
       <c r="AD4">
-        <v>4.606864928195741</v>
+        <v>0.3511670409598159</v>
       </c>
       <c r="AE4">
-        <v>0.3463252838926712</v>
+        <v>186.9071489491445</v>
       </c>
       <c r="AF4">
-        <v>0.333345467269222</v>
+        <v>17.62014273135805</v>
       </c>
       <c r="AG4">
-        <v>0.3671346387643191</v>
+        <v>0.3674839917328158</v>
       </c>
       <c r="AH4">
-        <v>23.62788360573936</v>
+        <v>0.3345430768729449</v>
       </c>
       <c r="AI4">
-        <v>0.3582243050910373</v>
+        <v>0.3345507009454451</v>
       </c>
       <c r="AJ4">
-        <v>0.3333419444820493</v>
+        <v>547.6425942864638</v>
       </c>
       <c r="AK4">
-        <v>0.3778391712060653</v>
+        <v>298.4163962370145</v>
       </c>
       <c r="AL4">
-        <v>0.3497902875381788</v>
+        <v>15.27469911139355</v>
       </c>
       <c r="AM4">
-        <v>10.60506001328785</v>
+        <v>0.3520770872035418</v>
       </c>
       <c r="AN4">
-        <v>2.267353960504438</v>
+        <v>0.3833218304250222</v>
       </c>
       <c r="AO4">
-        <v>0.3333357604908727</v>
+        <v>0.3514704896643742</v>
       </c>
       <c r="AP4">
-        <v>0.3779050437830637</v>
+        <v>4.830636589042561</v>
       </c>
       <c r="AQ4">
-        <v>0.3333357604908727</v>
+        <v>0.3641356933891915</v>
       </c>
       <c r="AR4">
-        <v>0.3936551922470558</v>
+        <v>1.540493286382407</v>
       </c>
       <c r="AS4">
-        <v>0.3351088797599384</v>
+        <v>0.3544035211203019</v>
       </c>
       <c r="AT4">
-        <v>202.8836051478637</v>
+        <v>0.3345430768729449</v>
       </c>
       <c r="AU4">
-        <v>0.5043125287657617</v>
+        <v>0.3397721730711305</v>
       </c>
       <c r="AV4">
-        <v>0.3955797720644165</v>
+        <v>272.8433583366432</v>
       </c>
       <c r="AW4">
-        <v>0.3341418727682018</v>
+        <v>0.3333399417041783</v>
       </c>
       <c r="AX4">
-        <v>0.3582676173856912</v>
+        <v>0.3525857977214754</v>
       </c>
       <c r="AY4">
-        <v>0.6338376661325739</v>
+        <v>2.271536709985837</v>
       </c>
       <c r="AZ4">
-        <v>0.3333423700051963</v>
+        <v>0.3345430768729449</v>
       </c>
       <c r="BA4">
-        <v>128.1735557588686</v>
+        <v>0.3809757404342202</v>
       </c>
       <c r="BB4">
-        <v>0.3350771707766254</v>
+        <v>148.7025726588707</v>
       </c>
       <c r="BC4">
-        <v>0.4074302786377761</v>
+        <v>172.2852080430612</v>
       </c>
       <c r="BD4">
-        <v>0.3575440962107302</v>
+        <v>0.3333559038778379</v>
       </c>
       <c r="BE4">
-        <v>0.3333420554597317</v>
+        <v>0.3354871203380518</v>
       </c>
       <c r="BF4">
-        <v>0.3341418727682018</v>
+        <v>47.24598921486762</v>
       </c>
       <c r="BG4">
-        <v>0.3415390008706601</v>
+        <v>0.3333399417041783</v>
       </c>
       <c r="BH4">
-        <v>125.0092268186948</v>
+        <v>0.3546780206667723</v>
       </c>
       <c r="BI4">
-        <v>130.7167091148192</v>
+        <v>474.4785297275113</v>
       </c>
       <c r="BJ4">
-        <v>9.043649440080488</v>
+        <v>0.3750298580291785</v>
       </c>
       <c r="BK4">
-        <v>0.3333356760134137</v>
+        <v>72.36464625867171</v>
       </c>
       <c r="BL4">
-        <v>1.474452254402591</v>
+        <v>0.3416669212560886</v>
       </c>
       <c r="BM4">
-        <v>3.705069219810176</v>
+        <v>0.3954254785334305</v>
       </c>
       <c r="BN4">
-        <v>0.3462965968659898</v>
+        <v>310.9630791012654</v>
       </c>
       <c r="BO4">
-        <v>3.489621958647827</v>
+        <v>0.3333399417041783</v>
       </c>
       <c r="BP4">
-        <v>0.3333423700051963</v>
+        <v>0.3524866086597355</v>
       </c>
       <c r="BQ4">
-        <v>7.320322286702015</v>
+        <v>0.3900174350763167</v>
       </c>
       <c r="BR4">
-        <v>0.3504809452825528</v>
+        <v>0.3410369566707759</v>
       </c>
       <c r="BS4">
-        <v>8.937367565407893</v>
+        <v>472.9731301901253</v>
       </c>
       <c r="BT4">
-        <v>3.604985755224345</v>
+        <v>160.686087609028</v>
       </c>
       <c r="BU4">
-        <v>0.3344271594958504</v>
+        <v>23.91754880835289</v>
       </c>
       <c r="BV4">
-        <v>3.328355717756045</v>
+        <v>0.3542073152354049</v>
       </c>
       <c r="BW4">
-        <v>0.3341418727682018</v>
+        <v>0.3345507009454451</v>
       </c>
       <c r="BX4">
-        <v>8.376957700585802</v>
+        <v>0.3333399417041783</v>
       </c>
       <c r="BY4">
-        <v>6.083143357595002</v>
+        <v>0.3341140208535291</v>
       </c>
       <c r="BZ4">
-        <v>22.8479431074513</v>
+        <v>0.3549379985484386</v>
       </c>
       <c r="CA4">
-        <v>32.89545654601888</v>
+        <v>0.3374134288311129</v>
       </c>
       <c r="CB4">
-        <v>153.0969882802419</v>
+        <v>0.3345507009454451</v>
       </c>
       <c r="CC4">
-        <v>0.3840846585932024</v>
+        <v>0.3408598569153752</v>
       </c>
       <c r="CD4">
-        <v>0.3512399359272443</v>
+        <v>0.3345430768729449</v>
       </c>
       <c r="CE4">
-        <v>46.27127838951397</v>
+        <v>2.239099262390181</v>
       </c>
       <c r="CF4">
-        <v>0.3333420554597317</v>
+        <v>175.1432412791969</v>
       </c>
       <c r="CG4">
-        <v>1.326651039776999</v>
+        <v>0.3461930720070809</v>
       </c>
       <c r="CH4">
-        <v>1.410345372747385</v>
+        <v>646.2909752925146</v>
       </c>
       <c r="CI4">
-        <v>0.3333443711632182</v>
+        <v>0.3354871203380518</v>
       </c>
       <c r="CJ4">
-        <v>0.3357124345228648</v>
+        <v>0.3416085541322834</v>
       </c>
       <c r="CK4">
-        <v>0.3349780629966038</v>
+        <v>0.3913274738789239</v>
       </c>
       <c r="CL4">
-        <v>5.691809560002485</v>
+        <v>0.3447342671292616</v>
       </c>
       <c r="CM4">
-        <v>0.3480410600704894</v>
+        <v>0.3486727554160781</v>
       </c>
       <c r="CN4">
-        <v>0.333345467269222</v>
+        <v>0.3423667049453039</v>
       </c>
       <c r="CO4">
-        <v>0.3509811559184787</v>
+        <v>28.06418811805661</v>
       </c>
       <c r="CP4">
-        <v>0.4071678473765188</v>
+        <v>14.29357257565596</v>
       </c>
       <c r="CQ4">
-        <v>0.3343894733879955</v>
+        <v>0.342290832041428</v>
       </c>
       <c r="CR4">
-        <v>0.3481721635370419</v>
+        <v>1.375493143242402</v>
       </c>
       <c r="CS4">
-        <v>0.3333357604908727</v>
+        <v>0.3444077670700686</v>
       </c>
       <c r="CT4">
-        <v>0.3400336499552908</v>
+        <v>0.3461930720070809</v>
       </c>
       <c r="CU4">
-        <v>53.99527571552617</v>
+        <v>39.68989828763072</v>
       </c>
       <c r="CV4">
-        <v>0.3333357604908727</v>
+        <v>0.3469505109113886</v>
       </c>
       <c r="CW4">
-        <v>39.15496407537947</v>
+        <v>0.3354081580255976</v>
       </c>
       <c r="CX4">
-        <v>9.864603415315717</v>
+        <v>0.351955502769404</v>
       </c>
       <c r="CY4">
-        <v>0.3340694710952175</v>
+        <v>0.391089902576114</v>
       </c>
       <c r="CZ4">
-        <v>0.3333357604908727</v>
+        <v>0.3531814898626536</v>
       </c>
       <c r="DA4">
-        <v>0.3363817664603135</v>
+        <v>0.3577187686595983</v>
       </c>
       <c r="DB4">
-        <v>0.3361254771208994</v>
+        <v>0.3345430768729449</v>
       </c>
       <c r="DC4">
-        <v>0.3352187815062804</v>
+        <v>0.3354304788971329</v>
       </c>
       <c r="DD4">
-        <v>0.3350890931615815</v>
+        <v>161.2395677197964</v>
       </c>
       <c r="DE4">
-        <v>0.3337231998796781</v>
+        <v>136.0093333511666</v>
       </c>
       <c r="DF4">
-        <v>0.3378973490567813</v>
+        <v>277.8957097153466</v>
       </c>
       <c r="DG4">
-        <v>5.033886812666113</v>
+        <v>0.3564084116739108</v>
       </c>
       <c r="DH4">
-        <v>12.50773268516379</v>
+        <v>0.3345430768729449</v>
       </c>
       <c r="DI4">
-        <v>0.3341418727682018</v>
+        <v>0.3381283503306532</v>
       </c>
       <c r="DJ4">
-        <v>0.3333423700051963</v>
+        <v>0.3415493094220381</v>
       </c>
       <c r="DK4">
-        <v>0.3333357050496172</v>
+        <v>22.55476778446178</v>
       </c>
       <c r="DL4">
-        <v>0.3349640708821719</v>
+        <v>0.3806108677298496</v>
       </c>
       <c r="DM4">
-        <v>0.3368465603449822</v>
+        <v>0.3676529103423266</v>
       </c>
       <c r="DN4">
-        <v>14.38678526239537</v>
+        <v>0.3356411997477544</v>
       </c>
       <c r="DO4">
-        <v>36.71442014161096</v>
+        <v>7.541766624031173</v>
       </c>
       <c r="DP4">
-        <v>0.3354574124140652</v>
+        <v>0.3834191499983651</v>
       </c>
       <c r="DQ4">
-        <v>0.3333355938340691</v>
+        <v>0.3333399417041783</v>
       </c>
       <c r="DR4">
-        <v>0.351508725075291</v>
+        <v>0.3634194524677297</v>
       </c>
       <c r="DS4">
-        <v>0.3333355936170737</v>
+        <v>0.3345507009454451</v>
       </c>
       <c r="DT4">
-        <v>0.3341418727682018</v>
+        <v>163.1798244534977</v>
       </c>
       <c r="DU4">
-        <v>0.3402949516399377</v>
+        <v>199.7329030214505</v>
       </c>
       <c r="DV4">
-        <v>0.3341418727682018</v>
+        <v>418.3036105484356</v>
       </c>
       <c r="DW4">
-        <v>0.3341418727682018</v>
+        <v>0.3333399417041783</v>
       </c>
       <c r="DX4">
-        <v>0.3760897581198019</v>
+        <v>0.344382433136446</v>
       </c>
       <c r="DY4">
-        <v>0.3334077941769406</v>
+        <v>0.3345430768729449</v>
       </c>
       <c r="DZ4">
-        <v>0.3485623009635558</v>
+        <v>0.3377755311287156</v>
       </c>
       <c r="EA4">
-        <v>462.6719501752061</v>
+        <v>0.3398938442753963</v>
       </c>
       <c r="EB4">
-        <v>0.3914129139140892</v>
+        <v>0.3333399417041783</v>
       </c>
       <c r="EC4">
-        <v>0.3338594187339564</v>
+        <v>104.7864165599028</v>
       </c>
       <c r="ED4">
-        <v>0.3598639102024215</v>
+        <v>0.336694744572475</v>
       </c>
       <c r="EE4">
-        <v>0.3341418727682018</v>
+        <v>0.3511463111133368</v>
       </c>
       <c r="EF4">
-        <v>43.17361087106951</v>
+        <v>0.3345507009454451</v>
       </c>
       <c r="EG4">
-        <v>0.3341418727682018</v>
+        <v>0.3345507009454451</v>
       </c>
       <c r="EH4">
-        <v>0.4015862834704273</v>
+        <v>495.4594640429601</v>
       </c>
       <c r="EI4">
-        <v>33.69978387423144</v>
+        <v>225.2693688322216</v>
       </c>
       <c r="EJ4">
-        <v>13.96106965035535</v>
+        <v>0.3406120372208997</v>
       </c>
       <c r="EK4">
-        <v>10.30624174124096</v>
+        <v>0.4154170505522615</v>
       </c>
       <c r="EL4">
-        <v>0.3438272571675239</v>
+        <v>0.3765853999552434</v>
       </c>
       <c r="EM4">
-        <v>1.386114198508402</v>
+        <v>86.52696506595218</v>
       </c>
       <c r="EN4">
-        <v>23.93340262336114</v>
+        <v>0.3345507009454451</v>
       </c>
       <c r="EO4">
-        <v>0.3752533313554445</v>
+        <v>0.4157936087818508</v>
       </c>
       <c r="EP4">
-        <v>7.751380168900917</v>
+        <v>0.3588898425613363</v>
       </c>
       <c r="EQ4">
-        <v>5.251768284282767</v>
+        <v>59.69822867417737</v>
       </c>
       <c r="ER4">
-        <v>0.3608208431209066</v>
+        <v>0.3345430768729449</v>
       </c>
       <c r="ES4">
-        <v>0.3358220865183633</v>
+        <v>0.333348203951134</v>
       </c>
       <c r="ET4">
-        <v>0.3333423700051963</v>
+        <v>236.2451672197706</v>
       </c>
       <c r="EU4">
-        <v>0.3333357604908727</v>
+        <v>0.335673658484738</v>
       </c>
       <c r="EV4">
-        <v>0.4705774744135333</v>
+        <v>0.3755880581380417</v>
       </c>
       <c r="EW4">
-        <v>7.900517182919492</v>
+        <v>732.3947382630694</v>
       </c>
       <c r="EX4">
-        <v>30.45790979572481</v>
+        <v>6.688282821396319</v>
       </c>
       <c r="EY4">
-        <v>0.3662842023656065</v>
+        <v>0.3613615163748859</v>
       </c>
       <c r="EZ4">
-        <v>0.3770027604814623</v>
+        <v>53.95202403255023</v>
       </c>
       <c r="FA4">
-        <v>14.5969359855042</v>
+        <v>0.3345507009454451</v>
       </c>
       <c r="FB4">
-        <v>24.82475357107059</v>
+        <v>0.3345430768729449</v>
       </c>
       <c r="FC4">
-        <v>0.3468992693747379</v>
+        <v>163.2707235666547</v>
       </c>
       <c r="FD4">
-        <v>1.627982580237066</v>
+        <v>6.828724935185567</v>
       </c>
       <c r="FE4">
-        <v>0.3624476619569503</v>
+        <v>6.847976094290701</v>
       </c>
       <c r="FF4">
-        <v>0.3945652052323568</v>
+        <v>0.3416333159267302</v>
       </c>
       <c r="FG4">
-        <v>0.355410515553464</v>
+        <v>3.420834715301101</v>
       </c>
       <c r="FH4">
-        <v>0.3333357604908727</v>
+        <v>12.73911440650576</v>
       </c>
       <c r="FI4">
-        <v>27.20611896987844</v>
+        <v>300.0062309108688</v>
       </c>
       <c r="FJ4">
-        <v>0.3446942381336318</v>
+        <v>157.0801838167338</v>
       </c>
       <c r="FK4">
-        <v>25.01999008239348</v>
+        <v>0.3333399417041783</v>
       </c>
       <c r="FL4">
-        <v>14.99599382752254</v>
+        <v>0.3483713027971453</v>
       </c>
       <c r="FM4">
-        <v>0.3349640708821719</v>
+        <v>0.3345507009454451</v>
       </c>
       <c r="FN4">
-        <v>0.3468796206631472</v>
+        <v>49.69888592872319</v>
       </c>
       <c r="FO4">
-        <v>0.3690332971225374</v>
+        <v>0.3623691591912256</v>
       </c>
       <c r="FP4">
-        <v>20.14402105177571</v>
+        <v>13.98691881649534</v>
       </c>
       <c r="FQ4">
-        <v>0.3333447965446406</v>
+        <v>90.54164458999713</v>
       </c>
       <c r="FR4">
-        <v>21.35811122838909</v>
+        <v>0.3414744786445424</v>
       </c>
       <c r="FS4">
-        <v>1.664282974153469</v>
+        <v>1.624813261596884</v>
       </c>
       <c r="FT4">
-        <v>0.3455147231164438</v>
+        <v>124.3389908095962</v>
       </c>
       <c r="FU4">
-        <v>6.500781900249111</v>
+        <v>0.3345430768729449</v>
       </c>
       <c r="FV4">
-        <v>5.590183148979982</v>
+        <v>0.3463211317633805</v>
       </c>
       <c r="FW4">
-        <v>0.3550408927562666</v>
+        <v>1.315686215612987</v>
       </c>
       <c r="FX4">
-        <v>5.043480797840522</v>
+        <v>385.2132702273254</v>
       </c>
       <c r="FY4">
-        <v>0.3345083786925549</v>
+        <v>18.6795612490372</v>
       </c>
       <c r="FZ4">
-        <v>87.38712077962356</v>
+        <v>0.333348203951134</v>
       </c>
       <c r="GA4">
-        <v>1.668093896017283</v>
+        <v>237.9398671164654</v>
       </c>
       <c r="GB4">
-        <v>0.3337334111610407</v>
+        <v>0.3387544625901999</v>
       </c>
       <c r="GC4">
-        <v>0.3381547034166341</v>
+        <v>34.63378544380875</v>
       </c>
       <c r="GD4">
-        <v>0.334133777278734</v>
+        <v>0.3428424928656724</v>
       </c>
       <c r="GE4">
-        <v>0.3338594187339564</v>
+        <v>0.3364367384712179</v>
       </c>
       <c r="GF4">
-        <v>0.4498372379112627</v>
+        <v>6.269465908325624</v>
       </c>
       <c r="GG4">
-        <v>26.14589998732016</v>
+        <v>2.265642523613795</v>
       </c>
       <c r="GH4">
-        <v>0.3333357050496172</v>
+        <v>0.3569564488090682</v>
       </c>
       <c r="GI4">
-        <v>0.3929793740098524</v>
+        <v>0.385687924983626</v>
       </c>
       <c r="GJ4">
-        <v>0.3333357604908727</v>
+        <v>2.233330753032774</v>
       </c>
       <c r="GK4">
-        <v>0.333345467269222</v>
+        <v>0.3345430768729449</v>
       </c>
       <c r="GL4">
-        <v>0.3333357050496172</v>
+        <v>0.3374134288311129</v>
       </c>
       <c r="GM4">
-        <v>0.4024709066501166</v>
+        <v>0.4036814524091782</v>
       </c>
       <c r="GN4">
-        <v>0.3333357604908727</v>
+        <v>0.3345430768729449</v>
       </c>
       <c r="GO4">
-        <v>0.3413619887435558</v>
+        <v>5.60506704294884</v>
       </c>
       <c r="GP4">
-        <v>0.3333357050496172</v>
+        <v>102.9823141175704</v>
       </c>
       <c r="GQ4">
-        <v>5.556510680194206</v>
+        <v>0.3345430768729449</v>
       </c>
       <c r="GR4">
-        <v>0.3365742107470043</v>
+        <v>0.3341348898487287</v>
       </c>
       <c r="GS4">
-        <v>0.369875168469342</v>
+        <v>0.3342697154609633</v>
+      </c>
+      <c r="GT4">
+        <v>0.3354871203380518</v>
+      </c>
+      <c r="GU4">
+        <v>0.3351557211602785</v>
+      </c>
+      <c r="GV4">
+        <v>0.3365150781051782</v>
+      </c>
+      <c r="GW4">
+        <v>59.84167350826457</v>
+      </c>
+      <c r="GX4">
+        <v>0.3496484620916027</v>
+      </c>
+      <c r="GY4">
+        <v>284.2878402843176</v>
+      </c>
+      <c r="GZ4">
+        <v>123.5053242677073</v>
+      </c>
+      <c r="HA4">
+        <v>0.3500783556042218</v>
+      </c>
+      <c r="HB4">
+        <v>29.58478994507333</v>
+      </c>
+      <c r="HC4">
+        <v>0.3367821149552002</v>
+      </c>
+      <c r="HD4">
+        <v>0.3474506780214783</v>
+      </c>
+      <c r="HE4">
+        <v>0.3345430768729449</v>
+      </c>
+      <c r="HF4">
+        <v>375.2233113434782</v>
+      </c>
+      <c r="HG4">
+        <v>0.3345430768729449</v>
+      </c>
+      <c r="HH4">
+        <v>0.3343263505366722</v>
+      </c>
+      <c r="HI4">
+        <v>0.3728482562611312</v>
+      </c>
+      <c r="HJ4">
+        <v>0.333411938009283</v>
+      </c>
+      <c r="HK4">
+        <v>0.3430887796274046</v>
+      </c>
+      <c r="HL4">
+        <v>0.351536365640437</v>
+      </c>
+      <c r="HM4">
+        <v>239.1663000659281</v>
+      </c>
+      <c r="HN4">
+        <v>0.3333399417041783</v>
+      </c>
+      <c r="HO4">
+        <v>587.3370546047554</v>
+      </c>
+      <c r="HP4">
+        <v>0.3452756011529711</v>
+      </c>
+      <c r="HQ4">
+        <v>0.3376874111367521</v>
+      </c>
+      <c r="HR4">
+        <v>1.249994241575662</v>
+      </c>
+      <c r="HS4">
+        <v>0.3341327178126327</v>
+      </c>
+      <c r="HT4">
+        <v>0.3409717507671095</v>
+      </c>
+      <c r="HU4">
+        <v>0.3461930720070809</v>
+      </c>
+      <c r="HV4">
+        <v>0.3333399417041783</v>
+      </c>
+      <c r="HW4">
+        <v>0.3341327178126327</v>
+      </c>
+      <c r="HX4">
+        <v>1.322807488423144</v>
+      </c>
+      <c r="HY4">
+        <v>0.3936945944679005</v>
+      </c>
+      <c r="HZ4">
+        <v>3.436264991300656</v>
+      </c>
+      <c r="IA4">
+        <v>3.283184248702194</v>
+      </c>
+      <c r="IB4">
+        <v>17.31428653600068</v>
+      </c>
+      <c r="IC4">
+        <v>0.3341348898487287</v>
+      </c>
+      <c r="ID4">
+        <v>0.3333571436215345</v>
+      </c>
+      <c r="IE4">
+        <v>0.3569226473937107</v>
+      </c>
+      <c r="IF4">
+        <v>0.3333571436215345</v>
+      </c>
+      <c r="IG4">
+        <v>0.3440391652695679</v>
+      </c>
+      <c r="IH4">
+        <v>0.3333399417041783</v>
+      </c>
+      <c r="II4">
+        <v>94.4951829129413</v>
+      </c>
+      <c r="IJ4">
+        <v>0.3963298872243536</v>
+      </c>
+      <c r="IK4">
+        <v>0.3719399647872774</v>
+      </c>
+      <c r="IL4">
+        <v>0.3354871203380518</v>
+      </c>
+      <c r="IM4">
+        <v>0.358423121157771</v>
+      </c>
+      <c r="IN4">
+        <v>0.3333399417041783</v>
+      </c>
+      <c r="IO4">
+        <v>0.3333399417041783</v>
+      </c>
+      <c r="IP4">
+        <v>0.3345430768729449</v>
+      </c>
+      <c r="IQ4">
+        <v>0.3401470973229493</v>
+      </c>
+      <c r="IR4">
+        <v>0.3350435640766801</v>
+      </c>
+      <c r="IS4">
+        <v>0.3976645259910849</v>
+      </c>
+      <c r="IT4">
+        <v>0.3470046650480282</v>
+      </c>
+      <c r="IU4">
+        <v>0.3383853793030689</v>
+      </c>
+      <c r="IV4">
+        <v>7.07827617477203</v>
+      </c>
+      <c r="IW4">
+        <v>0.3344028745506337</v>
+      </c>
+      <c r="IX4">
+        <v>527.1797291551437</v>
+      </c>
+      <c r="IY4">
+        <v>0.3345507009454451</v>
+      </c>
+      <c r="IZ4">
+        <v>0.3345430768729449</v>
+      </c>
+      <c r="JA4">
+        <v>55.22553934664996</v>
+      </c>
+      <c r="JB4">
+        <v>0.3345430768729449</v>
+      </c>
+      <c r="JC4">
+        <v>0.3345507009454451</v>
+      </c>
+      <c r="JD4">
+        <v>14.17687863456642</v>
+      </c>
+      <c r="JE4">
+        <v>898.5548726027955</v>
+      </c>
+      <c r="JF4">
+        <v>0.3698764411637369</v>
+      </c>
+      <c r="JG4">
+        <v>1.563011599606073</v>
+      </c>
+      <c r="JH4">
+        <v>0.3808185933747176</v>
+      </c>
+      <c r="JI4">
+        <v>0.3333571436215345</v>
+      </c>
+      <c r="JJ4">
+        <v>0.3345430768729449</v>
+      </c>
+      <c r="JK4">
+        <v>0.3345430768729449</v>
+      </c>
+      <c r="JL4">
+        <v>1.72097788722008</v>
+      </c>
+      <c r="JM4">
+        <v>492.7048258380818</v>
+      </c>
+      <c r="JN4">
+        <v>0.3490761648062529</v>
+      </c>
+      <c r="JO4">
+        <v>124.9519006007584</v>
+      </c>
+      <c r="JP4">
+        <v>140.3272118114134</v>
+      </c>
+      <c r="JQ4">
+        <v>248.1805848744689</v>
+      </c>
+      <c r="JR4">
+        <v>0.3669611585004571</v>
+      </c>
+      <c r="JS4">
+        <v>201.9355665248882</v>
+      </c>
+      <c r="JT4">
+        <v>0.3649336236607669</v>
+      </c>
+      <c r="JU4">
+        <v>60.03423709258693</v>
+      </c>
+      <c r="JV4">
+        <v>0.359757449786532</v>
+      </c>
+      <c r="JW4">
+        <v>0.3345507009454451</v>
+      </c>
+      <c r="JX4">
+        <v>0.3660818104246464</v>
+      </c>
+      <c r="JY4">
+        <v>45.35576982176952</v>
+      </c>
+      <c r="JZ4">
+        <v>0.3521454368703315</v>
+      </c>
+      <c r="KA4">
+        <v>0.3345507009454451</v>
+      </c>
+      <c r="KB4">
+        <v>0.3333399417041783</v>
+      </c>
+      <c r="KC4">
+        <v>4.140893375876989</v>
+      </c>
+      <c r="KD4">
+        <v>0.3333399417041783</v>
+      </c>
+      <c r="KE4">
+        <v>788.7251785177364</v>
+      </c>
+      <c r="KF4">
+        <v>0.4127830393188263</v>
+      </c>
+      <c r="KG4">
+        <v>302.8309856414296</v>
+      </c>
+      <c r="KH4">
+        <v>0.3362768052914293</v>
+      </c>
+      <c r="KI4">
+        <v>0.3793866478334767</v>
+      </c>
+      <c r="KJ4">
+        <v>0.3645592439803506</v>
+      </c>
+      <c r="KK4">
+        <v>6.561110669422622</v>
+      </c>
+      <c r="KL4">
+        <v>1.316359309716831</v>
+      </c>
+      <c r="KM4">
+        <v>0.3552258144688657</v>
+      </c>
+      <c r="KN4">
+        <v>43.24325088891681</v>
+      </c>
+      <c r="KO4">
+        <v>0.3594116403486891</v>
+      </c>
+      <c r="KP4">
+        <v>41.26246616588621</v>
+      </c>
+      <c r="KQ4">
+        <v>366.2267997359259</v>
+      </c>
+      <c r="KR4">
+        <v>0.3354871203380518</v>
+      </c>
+      <c r="KS4">
+        <v>0.354600868508485</v>
+      </c>
+      <c r="KT4">
+        <v>0.3345430768729449</v>
+      </c>
+      <c r="KU4">
+        <v>0.3505650773560353</v>
+      </c>
+      <c r="KV4">
+        <v>285.5273028644197</v>
+      </c>
+      <c r="KW4">
+        <v>0.3821254569985555</v>
+      </c>
+      <c r="KX4">
+        <v>0.4909477701515545</v>
+      </c>
+      <c r="KY4">
+        <v>0.3345507009454451</v>
+      </c>
+      <c r="KZ4">
+        <v>66.09033880541598</v>
+      </c>
+      <c r="LA4">
+        <v>0.3392317595626693</v>
+      </c>
+      <c r="LB4">
+        <v>3.245861091278857</v>
+      </c>
+      <c r="LC4">
+        <v>23.59377668310983</v>
+      </c>
+      <c r="LD4">
+        <v>0.3345430768729449</v>
+      </c>
+      <c r="LE4">
+        <v>374.9298776761755</v>
+      </c>
+      <c r="LF4">
+        <v>83.08825727851351</v>
+      </c>
+      <c r="LG4">
+        <v>0.3419916246299528</v>
+      </c>
+      <c r="LH4">
+        <v>0.3545814703419332</v>
+      </c>
+      <c r="LI4">
+        <v>559.0323138094849</v>
+      </c>
+      <c r="LJ4">
+        <v>0.3418017314615411</v>
+      </c>
+      <c r="LK4">
+        <v>0.3339810986691992</v>
+      </c>
+      <c r="LL4">
+        <v>0.3820492574154116</v>
+      </c>
+      <c r="LM4">
+        <v>0.3591226293822738</v>
+      </c>
+      <c r="LN4">
+        <v>0.3354871203380518</v>
+      </c>
+      <c r="LO4">
+        <v>0.3776280303823688</v>
+      </c>
+      <c r="LP4">
+        <v>0.3352859338267588</v>
+      </c>
+      <c r="LQ4">
+        <v>0.3680361208488827</v>
+      </c>
+      <c r="LR4">
+        <v>0.3634504777293482</v>
+      </c>
+      <c r="LS4">
+        <v>0.3333399417041783</v>
+      </c>
+      <c r="LT4">
+        <v>0.3713439561873007</v>
+      </c>
+      <c r="LU4">
+        <v>0.3394657339510155</v>
+      </c>
+      <c r="LV4">
+        <v>0.3554663542618953</v>
+      </c>
+      <c r="LW4">
+        <v>89.22675052422734</v>
+      </c>
+      <c r="LX4">
+        <v>0.3724380222848104</v>
+      </c>
+      <c r="LY4">
+        <v>75.30499016620993</v>
+      </c>
+      <c r="LZ4">
+        <v>4.319762994408161</v>
+      </c>
+      <c r="MA4">
+        <v>0.4057980847095264</v>
+      </c>
+      <c r="MB4">
+        <v>1.335992968226693</v>
+      </c>
+      <c r="MC4">
+        <v>267.9058615325086</v>
+      </c>
+      <c r="MD4">
+        <v>0.3452020580852255</v>
+      </c>
+      <c r="ME4">
+        <v>297.5147143704451</v>
+      </c>
+      <c r="MF4">
+        <v>0.4112954382715883</v>
+      </c>
+      <c r="MG4">
+        <v>0.3333399417041783</v>
+      </c>
+      <c r="MH4">
+        <v>0.3474372682498796</v>
+      </c>
+      <c r="MI4">
+        <v>3.374052084592384</v>
+      </c>
+      <c r="MJ4">
+        <v>0.3405725172089597</v>
+      </c>
+      <c r="MK4">
+        <v>0.3532852393158464</v>
+      </c>
+      <c r="ML4">
+        <v>978.2376228514925</v>
+      </c>
+      <c r="MM4">
+        <v>0.3357151566081992</v>
+      </c>
+      <c r="MN4">
+        <v>837.6412000877826</v>
+      </c>
+      <c r="MO4">
+        <v>0.3333399417041783</v>
+      </c>
+      <c r="MP4">
+        <v>121.7592107080074</v>
+      </c>
+      <c r="MQ4">
+        <v>0.3345507009454451</v>
+      </c>
+      <c r="MR4">
+        <v>0.3481871375210904</v>
+      </c>
+      <c r="MS4">
+        <v>0.3514638439902693</v>
+      </c>
+      <c r="MT4">
+        <v>0.3345430768729449</v>
+      </c>
+      <c r="MU4">
+        <v>0.3768704176339993</v>
+      </c>
+      <c r="MV4">
+        <v>0.3354871203380518</v>
+      </c>
+      <c r="MW4">
+        <v>0.3715495710469519</v>
+      </c>
+      <c r="MX4">
+        <v>0.3341348898487287</v>
+      </c>
+      <c r="MY4">
+        <v>6.66615437668725</v>
+      </c>
+      <c r="MZ4">
+        <v>1.416615101528893</v>
+      </c>
+      <c r="NA4">
+        <v>0.339723336818344</v>
+      </c>
+      <c r="NB4">
+        <v>0.3570837804580146</v>
+      </c>
+      <c r="NC4">
+        <v>0.3406652284040947</v>
+      </c>
+      <c r="ND4">
+        <v>0.3496717914965984</v>
+      </c>
+      <c r="NE4">
+        <v>624.6966093932876</v>
+      </c>
+      <c r="NF4">
+        <v>0.3452737934639492</v>
+      </c>
+      <c r="NG4">
+        <v>0.3333399417041783</v>
+      </c>
+      <c r="NH4">
+        <v>0.3472451453167222</v>
+      </c>
+      <c r="NI4">
+        <v>0.3466110405664276</v>
+      </c>
+      <c r="NJ4">
+        <v>0.3414520379975242</v>
+      </c>
+      <c r="NK4">
+        <v>0.3345507009454451</v>
+      </c>
+      <c r="NL4">
+        <v>0.3333399417041783</v>
+      </c>
+      <c r="NM4">
+        <v>129.2095477428744</v>
+      </c>
+      <c r="NN4">
+        <v>0.3446640826115882</v>
+      </c>
+      <c r="NO4">
+        <v>874.2306881899169</v>
+      </c>
+      <c r="NP4">
+        <v>0.3430183252575195</v>
+      </c>
+      <c r="NQ4">
+        <v>0.3406004447840088</v>
+      </c>
+      <c r="NR4">
+        <v>0.3490761648062529</v>
+      </c>
+      <c r="NS4">
+        <v>0.3345507009454451</v>
+      </c>
+      <c r="NT4">
+        <v>0.3345430768729449</v>
+      </c>
+      <c r="NU4">
+        <v>0.3686117702130595</v>
+      </c>
+      <c r="NV4">
+        <v>1.293391896158334</v>
+      </c>
+      <c r="NW4">
+        <v>1.308821428686803</v>
+      </c>
+      <c r="NX4">
+        <v>0.4387661139338766</v>
+      </c>
+      <c r="NY4">
+        <v>0.3354871203380518</v>
+      </c>
+      <c r="NZ4">
+        <v>0.3374571744727194</v>
+      </c>
+      <c r="OA4">
+        <v>0.3350608291963371</v>
+      </c>
+      <c r="OB4">
+        <v>0.3398705678591731</v>
+      </c>
+      <c r="OC4">
+        <v>0.3361362122812542</v>
+      </c>
+      <c r="OD4">
+        <v>0.3345430768729449</v>
+      </c>
+      <c r="OE4">
+        <v>0.3376409322022921</v>
+      </c>
+      <c r="OF4">
+        <v>0.3345430768729449</v>
+      </c>
+      <c r="OG4">
+        <v>0.3558956559517594</v>
+      </c>
+      <c r="OH4">
+        <v>0.3693241273189986</v>
+      </c>
+      <c r="OI4">
+        <v>0.3393002115250683</v>
+      </c>
+      <c r="OJ4">
+        <v>0.341809815740304</v>
+      </c>
+      <c r="OK4">
+        <v>0.3345430768729449</v>
       </c>
     </row>
   </sheetData>
